--- a/da12/day2.xlsx
+++ b/da12/day2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Acciojob\Modules\Excel\batch\da12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EF180C-307F-4068-936D-EA7CE6DB2DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1549D17-770C-4AC7-AED5-0120AA957A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{FDF2BCB4-C3C5-4BC6-8654-20EAFACD3D91}"/>
   </bookViews>
@@ -662,11 +662,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="169" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -873,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -941,6 +941,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -952,7 +1032,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -972,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -988,19 +1068,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1012,7 +1086,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
@@ -1199,8 +1284,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>64620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -1219,7 +1304,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -1357,8 +1442,8 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>60826</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -1377,7 +1462,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -1422,8 +1507,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>185086</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -1442,7 +1527,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -1487,8 +1572,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>29446</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -1507,7 +1592,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -1552,8 +1637,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>103126</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -1572,7 +1657,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -1617,8 +1702,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>101326</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -1637,7 +1722,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -1682,8 +1767,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>76366</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -1702,7 +1787,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -1747,8 +1832,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>71686</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Ink 25">
@@ -1767,7 +1852,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Ink 25">
@@ -1812,8 +1897,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>97606</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Ink 26">
@@ -1832,7 +1917,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Ink 26">
@@ -1877,8 +1962,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>13246</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Ink 33">
@@ -1897,7 +1982,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Ink 33">
@@ -1942,8 +2027,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>24406</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Ink 34">
@@ -1962,7 +2047,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Ink 34">
@@ -2007,8 +2092,8 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>44626</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Ink 59">
@@ -2027,7 +2112,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Ink 59">
@@ -2072,8 +2157,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>175846</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="76" name="Ink 75">
@@ -2092,7 +2177,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="76" name="Ink 75">
@@ -2137,8 +2222,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>146266</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Ink 80">
@@ -2157,7 +2242,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Ink 80">
@@ -2202,8 +2287,8 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>65206</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="89" name="Ink 88">
@@ -2222,7 +2307,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="89" name="Ink 88">
@@ -2267,8 +2352,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>38266</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Ink 93">
@@ -2287,7 +2372,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Ink 93">
@@ -2332,8 +2417,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>30586</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="98" name="Ink 97">
@@ -2352,7 +2437,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="98" name="Ink 97">
@@ -2397,8 +2482,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>22846</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Ink 107">
@@ -2417,7 +2502,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Ink 107">
@@ -2462,8 +2547,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>20686</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="109" name="Ink 108">
@@ -2482,7 +2567,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="109" name="Ink 108">
@@ -2527,8 +2612,8 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>127486</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="116" name="Ink 115">
@@ -2547,7 +2632,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="116" name="Ink 115">
@@ -2592,8 +2677,8 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>183946</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="117" name="Ink 116">
@@ -2612,7 +2697,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="117" name="Ink 116">
@@ -2657,8 +2742,8 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>71986</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="118" name="Ink 117">
@@ -2677,7 +2762,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="118" name="Ink 117">
@@ -2722,8 +2807,8 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>112306</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="119" name="Ink 118">
@@ -2742,7 +2827,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="119" name="Ink 118">
@@ -2787,8 +2872,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>1006</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="120" name="Ink 119">
@@ -2807,7 +2892,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="120" name="Ink 119">
@@ -2852,8 +2937,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>28366</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="142" name="Ink 141">
@@ -2872,7 +2957,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="142" name="Ink 141">
@@ -2917,8 +3002,8 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>76666</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="178" name="Ink 177">
@@ -2937,7 +3022,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="178" name="Ink 177">
@@ -2982,8 +3067,8 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>137146</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="185" name="Ink 184">
@@ -3002,7 +3087,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="185" name="Ink 184">
@@ -3047,8 +3132,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>138286</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="189" name="Ink 188">
@@ -3067,7 +3152,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="189" name="Ink 188">
@@ -3112,8 +3197,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>176806</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="195" name="Ink 194">
@@ -3132,7 +3217,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="195" name="Ink 194">
@@ -3177,8 +3262,8 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>74386</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="Ink 208">
@@ -3197,7 +3282,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="Ink 208">
@@ -3242,8 +3327,8 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>86326</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="224" name="Ink 223">
@@ -3262,7 +3347,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="224" name="Ink 223">
@@ -3307,8 +3392,8 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>161806</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="239" name="Ink 238">
@@ -3327,7 +3412,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="239" name="Ink 238">
@@ -3372,8 +3457,8 @@
       <xdr:row>99</xdr:row>
       <xdr:rowOff>142306</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="240" name="Ink 239">
@@ -3392,7 +3477,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="240" name="Ink 239">
@@ -3442,8 +3527,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>66780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Ink 20">
@@ -3462,7 +3547,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Ink 20">
@@ -3507,8 +3592,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>79276</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Ink 21">
@@ -3527,7 +3612,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Ink 21">
@@ -3572,8 +3657,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>13380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -3592,7 +3677,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -3637,8 +3722,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>65940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Ink 33">
@@ -3657,7 +3742,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Ink 33">
@@ -3702,8 +3787,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>144420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Ink 36">
@@ -3722,7 +3807,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Ink 36">
@@ -3767,8 +3852,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>117780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Ink 42">
@@ -3787,7 +3872,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Ink 42">
@@ -3832,8 +3917,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>26160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="67" name="Ink 66">
@@ -3852,7 +3937,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="67" name="Ink 66">
@@ -3902,8 +3987,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>22920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -3922,7 +4007,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -3967,8 +4052,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>18660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Ink 17">
@@ -3987,7 +4072,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Ink 17">
@@ -4032,8 +4117,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>138420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Ink 38">
@@ -4052,7 +4137,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Ink 38">
@@ -4097,8 +4182,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>45960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Ink 53">
@@ -4117,7 +4202,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Ink 53">
@@ -4162,8 +4247,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>128400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Ink 80">
@@ -4182,7 +4267,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Ink 80">
@@ -4227,8 +4312,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>51540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="82" name="Ink 81">
@@ -4247,7 +4332,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="82" name="Ink 81">
@@ -4292,8 +4377,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>179160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="90" name="Ink 89">
@@ -4312,7 +4397,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="90" name="Ink 89">
@@ -4357,8 +4442,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>189240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="98" name="Ink 97">
@@ -4377,7 +4462,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="98" name="Ink 97">
@@ -4422,8 +4507,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="112" name="Ink 111">
@@ -4442,7 +4527,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="112" name="Ink 111">
@@ -4487,8 +4572,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="120" name="Ink 119">
@@ -4507,7 +4592,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="120" name="Ink 119">
@@ -4552,8 +4637,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>103080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Ink 139">
@@ -4572,7 +4657,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Ink 139">
@@ -4622,8 +4707,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>144600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -4642,7 +4727,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -4687,8 +4772,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Ink 11">
@@ -4707,7 +4792,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Ink 11">
@@ -4752,8 +4837,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>156660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Ink 12">
@@ -4772,7 +4857,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Ink 12">
@@ -4817,8 +4902,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>155460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -4837,7 +4922,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -4882,8 +4967,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>174120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Ink 16">
@@ -4902,7 +4987,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Ink 16">
@@ -4947,8 +5032,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>135780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
@@ -4967,7 +5052,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -5012,8 +5097,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>110872</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Ink 47">
@@ -5032,7 +5117,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Ink 47">
@@ -5077,8 +5162,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>153060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="52" name="Ink 51">
@@ -5097,7 +5182,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="52" name="Ink 51">
@@ -5142,8 +5227,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>148800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Ink 60">
@@ -5162,7 +5247,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Ink 60">
@@ -5207,8 +5292,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>20400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Ink 61">
@@ -5227,7 +5312,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Ink 61">
@@ -5272,8 +5357,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>60780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Ink 64">
@@ -5292,7 +5377,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Ink 64">
@@ -5337,8 +5422,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Ink 67">
@@ -5357,7 +5442,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Ink 67">
@@ -5402,8 +5487,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Ink 99">
@@ -5422,7 +5507,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Ink 99">
@@ -5467,8 +5552,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>109260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Ink 107">
@@ -5487,7 +5572,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Ink 107">
@@ -5532,8 +5617,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>7320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Ink 124">
@@ -5552,7 +5637,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Ink 124">
@@ -5597,8 +5682,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>27660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="139" name="Ink 138">
@@ -5617,7 +5702,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="139" name="Ink 138">
@@ -5662,8 +5747,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Ink 139">
@@ -5682,7 +5767,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Ink 139">
@@ -5744,7 +5829,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3715 1770 3153,'0'0'4258,"-4"-2"-3932,-6-4-147,-1 1 0,1 1 0,-1 0 0,0 1 0,0 0 0,0 0 1,-1 1-1,1 0 0,-1 1 0,1 1 0,-14 0 0,18 1-192,-1-1 0,0 1 0,1 0 0,-1 1-1,1 0 1,-1 0 0,1 1 0,0 0 0,0 0 0,0 0 0,1 1-1,-1 0 1,1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-7 10-1,-69 78 97,78-85-82,-1 2 1,2-1-1,-1 0 0,1 1 0,-3 19 1,-7 21 17,0-13 21,3 2 1,0-1 0,3 1-1,2 0 1,1 0-1,1 1 1,3-1 0,4 43-1,-1-68-28,1 0 1,0-1-1,0 1 0,2-1 0,-1 0 0,2 0 1,0-1-1,0 0 0,1 0 0,1 0 0,0-1 0,0 0 1,1-1-1,0 0 0,15 10 0,-9-9 4,0-1-1,0 0 1,1-1 0,0-1-1,1 0 1,0-2 0,31 8-1,-35-11-11,0-1-1,1-1 0,-1 0 1,0-1-1,0-1 0,0 0 1,0-1-1,0 0 0,0-1 1,-1-1-1,16-6 0,10-5 1,0-2-1,-1-2 0,-2-2 0,1-1 0,55-45 0,-75 52 6,-1 0-1,0-1 0,0-1 0,-2 0 0,0-1 1,-1 0-1,-1-1 0,-1-1 0,0 0 0,-2 0 0,0-1 1,8-31-1,-14 41 43,-1 0-1,0 0 1,0 0 0,-1-1 0,-1 1 0,0 0-1,0-1 1,-1 1 0,-1 0 0,0-1 0,0 1 0,-1 0-1,0 0 1,-1 1 0,-1-1 0,1 1 0,-2 0-1,1 0 1,-1 0 0,-1 1 0,0 0 0,-14-14-1,-1-2 271,-14-15 119,-59-50 0,80 77-408,-1 2 0,-1 0 0,0 1 0,0 0 0,-1 1 0,0 1 0,-27-7 0,11 7 95,0 1 0,-1 2 0,-60 0 0,-27-4 101,113 8-206,4 0 18,-1 1-1,1-1 0,0 0 1,0 0-1,-1-1 0,1 0 0,-7-3 1,12 4-71,0 1 0,-1-1 1,1 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,1 0 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,1 0 0,10-18-2367,-10 18 2200,15-23-3345</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2191.98">3286 2202 2865,'0'0'2468,"-19"0"-1467,-347 0 4110,-222 44-4124,484-32-779,-99 4 471,-207-9 0,381-8-601,0-2-1,1-1 0,0-1 1,-54-18-1,-99-52 18,92 35-136,37 20 48,-60-13 1,71 22-8,1-1 0,0-2 0,-48-25 1,-123-56-96,150 71 49,1-2-1,1-4 1,-60-39-1,110 63 44,0-1-1,0 0 1,1-1-1,0 0 0,0 0 1,0-1-1,2 0 1,-1 0-1,1 0 0,0-1 1,1 0-1,0 0 1,-4-13-1,3 1-65,1 0 0,1-1 0,1 1 0,1-1 0,2-34 0,1 16 50,1 26 1,-2 1 0,0 0 0,0-1 0,-4-15 0,-1 67-234,-13 49 0,15-74 177,1 1 75,-1 0 1,-1 0-1,0 0 0,0 0 1,-2-1-1,1 0 0,-12 18 1,15-28 33,2-2 33,-13 65-379,9-57 324,0-1 0,0 1 0,-1-1 0,1 0 0,-11 11 0,15-18 28,0-39 160,1 30-203,0 1-1,1 0 1,0 0 0,1-1-1,0 1 1,0 0 0,0 1-1,9-13 1,44-60-50,-24 38 32,-21 25 13,1 2 0,1 0 0,1 0 0,24-19 0,-33 29-13,1 0 1,0 1-1,0 0 1,0 0-1,1 1 1,-1 0-1,1 0 1,0 0-1,-1 1 1,1 0-1,0 0 1,0 1-1,1-1 1,-1 2-1,14-1 1,-18 3 10,1 0 0,-1 0 0,0 0 0,0 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1 0 0,3 4 1,9 9 15,-3-5 9,0-1 0,0 0-1,1-1 1,0 0 0,1-1-1,0-1 1,0 0 0,1 0-1,18 5 1,-30-11 36,-1-1 312,-10-12-3367,2 0 659</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4207.46">4595 183 5603,'0'0'2390,"-4"-4"-2257,-1 0-88,1 0 0,-1 0-1,0 0 1,0 1 0,-1-1-1,1 1 1,-1 1 0,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,0 1 0,0 0-1,0 0 1,-1 1 0,1 0-1,0 0 1,0 0 0,0 1-1,-1 0 1,1 0 0,0 1-1,0-1 1,0 1 0,-7 4-1,3-2-51,0 0 0,1 1 0,0 1-1,0-1 1,0 1 0,1 1 0,0-1 0,0 2-1,1-1 1,0 1 0,0 0 0,0 0-1,1 1 1,1 0 0,-1 0 0,-3 10 0,2-7 11,1 1 1,1 0 0,-1 0-1,2 0 1,0 0 0,1 1-1,0 0 1,1 0 0,0-1-1,2 1 1,0 17 0,-1-22 37,2-1 1,-1 0 0,1 0 0,0 1 0,0-1 0,1 0-1,1 0 1,-1 0 0,6 10 0,-5-12-28,1-1 0,0 0 0,0 1-1,0-2 1,1 1 0,-1 0 0,1-1 0,1 0 0,-1 0 0,0-1-1,1 1 1,9 3 0,9 5 52,0-1 0,0-2-1,1 0 1,0-2 0,0 0-1,0-2 1,1-1 0,0-1-1,40 0 1,-60-4-44,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0-1 0,-1 1 0,1-1-1,-1 0 1,0 0 0,1 0 0,-1-1 0,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,0-1 0,-1 0-1,4-6 1,6-9 24,-1-1 0,0-1 0,13-37 0,-21 45-35,0 0 0,0 0 0,-1 0 0,-1 0 0,-1-1 0,0 1 0,-1-1 0,0 1 0,-1-1 0,0 1 0,-2-1 0,0 1 0,0 0 0,-1 0 0,-1 1-1,0-1 1,-1 1 0,0 0 0,-1 0 0,-1 1 0,0 0 0,-1 0 0,0 1 0,0 0 0,-1 1 0,-1 0 0,0 0 0,-16-10 0,-11-1 427,-1 2 0,-80-27 1,63 34-3775,76 12 571,0 0-3367</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5872.97">4421 108 4898,'0'0'4175,"-19"-5"-3681,-8-2-280,-1 0 0,-1 2 0,-48-2 0,-31 9 6,2 6-1,-1 4 1,-126 31-1,-185 40-209,-239 61 306,605-125-290,0 2 0,2 2 0,-59 37 0,-80 36 24,110-63-34,2 3-1,2 4 0,-82 56 1,108-64-2,-1-2 0,-95 39 1,-114 28-40,245-92 39,-1 1 28,-1-1 1,0 0-1,0-1 0,-1-1 0,1 0 1,-22 0-1,37-6 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 1,1-5-1,0 3 53,0-9-79,1 1 0,0-1 0,2 0-1,-1 1 1,12-27 0,-8 23 38,-1 0-1,-1-1 1,4-20-1,-4-31 115,-5-96-1,-1 70 381,1 96-532,-14 22-416,-69 69 401,60-69-10,0 2 0,2 1-1,1 0 1,-21 35 0,68-70-229,23-12 247,1 2 0,68-18-1,-28 10-12,-72 21-24,-9 3-1,1 0 0,-1 1 0,0 0-1,1 1 1,15-1 0,-25 3-10,0 0 1,0 0-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 1 0,-1 0 0,1-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1 0 0,-1-1 0,1 2 1,2 2-2669,-2-15 87,-1-15-3829</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5872.96">4421 108 4898,'0'0'4175,"-19"-5"-3681,-8-2-280,-1 0 0,-1 2 0,-48-2 0,-31 9 6,2 6-1,-1 4 1,-126 31-1,-185 40-209,-239 61 306,605-125-290,0 2 0,2 2 0,-59 37 0,-80 36 24,110-63-34,2 3-1,2 4 0,-82 56 1,108-64-2,-1-2 0,-95 39 1,-114 28-40,245-92 39,-1 1 28,-1-1 1,0 0-1,0-1 0,-1-1 0,1 0 1,-22 0-1,37-6 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 1,1-5-1,0 3 53,0-9-79,1 1 0,0-1 0,2 0-1,-1 1 1,12-27 0,-8 23 38,-1 0-1,-1-1 1,4-20-1,-4-31 115,-5-96-1,-1 70 381,1 96-532,-14 22-416,-69 69 401,60-69-10,0 2 0,2 1-1,1 0 1,-21 35 0,68-70-229,23-12 247,1 2 0,68-18-1,-28 10-12,-72 21-24,-9 3-1,1 0 0,-1 1 0,0 0-1,1 1 1,15-1 0,-25 3-10,0 0 1,0 0-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 1 0,-1 0 0,1-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1 0 0,-1-1 0,1 2 1,2 2-2669,-2-15 87,-1-15-3829</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5773,7 +5858,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 223 7876,'0'0'6611,"10"0"-6361,34-4 94,65-13-1,-64 8-781,1 2 0,49-1 0,-101-5-4340,-54-42 3148,-2 2 4066,62 53-2355,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,1-1-1,-1 1 0,18 3 518,28 15-975,-39-15 384,0 1 0,-1 0 1,1 0-1,-1 0 0,0 1 1,0 0-1,-1 0 1,0 1-1,1-1 0,-2 1 1,6 8-1,-8-11 29,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,0 0 0,1-1 0,-2 1 0,1-1 0,-3 3 1,-50 43 867,42-38-907,1 0-1,0 0 1,-19 24 0,26-22-2208,8-6-3079,6-5-1720</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.81">871 86 9364,'0'0'1524,"16"-12"-1073,56-36-139,-66 44-294,0 1-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 1 0,1 1 0,0-1 0,-1 1 0,1 0-1,0 1 1,0 0 0,8 0 0,0 1-10,-15-2-2,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,-7 24 505,-22 19 509,-2-12-424,21-23-483,-1 2 0,2-1 0,-1 1 1,1 1-1,-13 23 0,21-34-116,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,3 1 0,8 4-37,0 1 0,0-2 0,23 8 0,-12-4 28,-14-6-90,-1 1-1,1 0 0,-1 0 1,0 1-1,13 11 1,-19-15 144,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,0 0 0,0 1 1,1-1-1,-1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,-2 4-1,0-1 93,0 0 1,-1-1-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 0-1,-5 2 1,-8 2 25,0-1 1,-1-1 0,-26 3-1,-70-1-1774,104-6 279,0-1 1,0-1-1,0 0 1,-14-4-1,-1-4-4647</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="527.8">871 86 9364,'0'0'1524,"16"-12"-1073,56-36-139,-66 44-294,0 1-1,0 0 1,0 0 0,0 1 0,1-1 0,-1 1 0,1 1 0,0-1 0,-1 1 0,1 0-1,0 1 1,0 0 0,8 0 0,0 1-10,-15-2-2,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,-7 24 505,-22 19 509,-2-12-424,21-23-483,-1 2 0,2-1 0,-1 1 1,1 1-1,-13 23 0,21-34-116,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,3 1 0,8 4-37,0 1 0,0-2 0,23 8 0,-12-4 28,-14-6-90,-1 1-1,1 0 0,-1 0 1,0 1-1,13 11 1,-19-15 144,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,0 0 0,0 1 1,1-1-1,-1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,-2 4-1,0-1 93,0 0 1,-1-1-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 0-1,-5 2 1,-8 2 25,0-1 1,-1-1 0,-26 3-1,-70-1-1774,104-6 279,0-1 1,0-1-1,0 0 1,-14-4-1,-1-4-4647</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5836,7 +5921,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">704 278 7876,'0'0'4887,"-3"-7"-4303,0 0-331,1 4-91,1 1 1,0 0 0,0-1-1,0 1 1,0-1-1,0 0 1,1 1 0,-1-1-1,1 0 1,-1 1 0,1-4-1,-11 47 529,2-16-646,-60 295 1359,38-161-943,80-212-8672,-20 19 4929</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="403.34">1094 336 8820,'0'0'5667,"70"-6"-4000,-69 5-1668,139-10 945,-46 8-3418</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="788.26">1276 84 8468,'0'0'6638,"-13"-5"-6281,47 45-477,34 17-28,-54-47 113,-1 0 1,0 0-1,0 1 1,-1 1-1,-1 0 1,0 1-1,14 21 1,-24-31 65,1 1 1,-1-1 0,0 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,-1-1 0,0 1-1,0 0 1,0-1-1,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1 0,-2-1-1,1 1 1,0-1 0,-1 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,-1-1-1,1 1 1,0 0 0,-5 3-1,-9 8 297,0 0 0,0-1 0,-33 19-1,23-16-178,14-8-273,9-7-22,0 0 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,1 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,0 1 0,0 0 1,0 0-1,-2 5 0,4-8 5,0 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 0 0,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,0 0-1,13 0-4508</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1165.34">1778 76 9861,'0'0'2769,"5"79"-1697,-5-34-79,0 4-289,0-3-432,0-1 913,0-4-849,0-4-192,0-7 96,0-6-240,0-9-80,0-7-720,3-8-1585,1 0-1409,1-16-4034</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1165.33">1778 76 9861,'0'0'2769,"5"79"-1697,-5-34-79,0 4-289,0-3-432,0-1 913,0-4-849,0-4-192,0-7 96,0-6-240,0-9-80,0-7-720,3-8-1585,1 0-1409,1-16-4034</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1536.65">1722 105 7123,'0'0'6723,"12"-5"-6469,-7 2-225,-1 0-22,1 0 0,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,1 0 1,-1 0-1,0 1 1,0-1-1,8 3 1,1 3 39,0 0 0,-1 1 0,0 0 0,0 1 0,-1 1 0,0 0 0,0 0 0,-1 1 0,0 1 0,-1 0 0,-1 0 0,16 23 0,-21-28 59,0 0 0,0 0 0,-1 1 1,0-1-1,0 1 0,-1-1 0,1 1 1,-1 0-1,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 1 0,-1-1 1,1 0-1,-1 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1-1 1,0 1-1,0-1 0,0 0 0,-1 0 1,-8 10-1,1-4 231,0-1 1,-1 1-1,0-2 1,-1 0-1,-1 0 1,1-1-1,-2-1 1,1 0-1,-29 10 1,32-14-529,0-1 1,0-1 0,1 0-1,-1 0 1,-17-1 0,37-1-6357,24 0 3284,-2 0 713</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2605.92">2224 392 6659,'0'0'2409,"5"-11"-1302,-2 6-927,17-43 170,-19 44-206,0 1 0,0-1 0,0 0 0,0 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,-1 0 0,1 1 1,0-1-1,-1 0 0,-2-6 0,2 8-65,0 0 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 1 1,-3 0 0,-1 0-21,1 0 0,-1 0 1,1 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 1,-4 3-1,3 1 36,0 0 1,0 1-1,0-1 1,1 1-1,1 0 1,-1 1-1,1-1 0,1 1 1,0 0-1,0-1 1,0 1-1,-1 16 1,3-22-90,0 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,1 0 0,-1-1 1,1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,1-1 0,0 1 1,-1-1-1,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 0 1,5-1-1,-1 1-98,0-1 0,0-1 0,0 1 0,0-1 0,-1-1 0,1 1 1,-1-1-1,1 0 0,-1 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,0 0 1,7-8-1,-2 1-80,-1 1-1,0-1 1,-1 0 0,0-1 0,-1 0 0,-1 0 0,6-14 0,-6 11 1351,-6 27 779,-2 22-1435,3-30-514,0 0 0,-1 0-1,1 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,1 1 0,-1 0-1,1-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,1 1 1,-1-1 0,1 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0-1 0,0 1-1,4 0 1,-3-1-85,1 1-1,0-1 1,-1 0 0,1-1-1,-1 1 1,1-1 0,0 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,1-1-1,-1 0 1,0-1 0,0 1 0,0-1-1,-1 1 1,5-5 0,-2 1-91,-1 0 1,1 0 0,-2-1-1,1 0 1,-1 0-1,1-1 1,3-10 0,-8 17 882,-9 13 696,6-8-1331,0-1-1,1 1 1,-1 0 0,1 0 0,0-1-1,0 1 1,1 1 0,-1-1 0,1 0 0,0 0-1,0 1 1,0-1 0,0 0 0,1 9-1,0-11-81,0 0-1,1 0 0,-1 0 0,1 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 1 0,1-1 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,0 0 0,0-1 0,-1 1 1,1 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,3-1 0,3 1-88,-1-1-1,1 0 1,-1 0-1,1-1 1,-1 0 0,0 0-1,0-1 1,0 0-1,0 0 1,0-1 0,-1 0-1,1 0 1,-1 0-1,0-1 1,0 0-1,-1 0 1,0 0 0,1-1-1,-2 0 1,1 0-1,-1 0 1,0-1 0,0 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,-1 0 1,0 0 0,0-1-1,-1 1 1,0-1-1,0-9 1,-1 12 223,-1-24 1385,2 29-1477,-1-1 0,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 1 0,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 1 0,0-1 1,2 37 79,28 83-138,-20-86 123,0 0-1,6 58 1,-13-73-40,-1 1 1,-1-1 0,0 0-1,-1 0 1,-1 0 0,-1 0-1,0 0 1,-2 0-1,0-1 1,-1 0 0,0 0-1,-1 0 1,-1-1 0,-13 19-1,11-19 176,-2 0-1,0-1 0,-1-1 1,-16 16-1,26-27-217,-1-1-1,1 1 1,0-1 0,-1 0-1,0 0 1,1 0-1,-1 0 1,0-1 0,0 1-1,0-1 1,-6 1 0,7-2-17,1 0 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1-1-1,-1 0 1,1 1 0,-2-5 0,-1 1-36,1-1 1,0 0 0,0 0 0,0 0-1,1 0 1,0-1 0,0 1 0,1-1-1,0 1 1,0-1 0,0 1 0,1-1-1,0 0 1,0 0 0,0 1-1,1-1 1,0 1 0,1-1 0,0 1-1,0-1 1,0 1 0,0 0 0,1 0-1,6-11 1,7-7-155,1 0 0,1 1-1,1 0 1,29-25 0,-33 33 106,22-23-106,3 1 33,-2-3 0,-1-1 0,-3-1 0,51-83-1,-81 118 122,7-11-9,-1 1-1,-1-1 1,-1-1 0,-1 1-1,0-1 1,-2-1 0,7-39-1,-12 58 60,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-2-2 0,0 1 26,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1 0 0,-1-1 0,1 2 0,-7 0 0,2 0 50,0 0 0,0 1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 1 0,-12 7 1,15-8-95,1 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 1,0 0-1,0 0 0,1 0 0,0 0 1,0 0-1,0 1 0,0-1 1,1 1-1,0-1 0,-1 1 0,2-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,0 0 0,1 0 0,-1-1 1,1 1-1,0 0 0,0-1 1,1 1-1,-1-1 0,1 1 0,0-1 1,0 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 1,7 4-1,9 5-518,0-1 1,33 15 0,-31-17-253,-2 1 1,33 21 0,-51-31 789,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1-1,1 0 1,0 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,-1 1 1,-5 4 417,-1 0-1,1-1 1,-1 1-1,-12 6 1,18-11-367,-100 51 2147,46-34-3172,0-14-4251,37-6-1134</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5298.11">21 1083 8244,'0'0'3305,"7"-11"-2768,-3 6-475,-1-1 1,1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1-1,0 0 1,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 1 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 1 0,1 0 0,-1 0 0,7 0 0,-9 1-40,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,3 4 0,-1-1-12,-1 0 0,0 0 0,0 1 1,-1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,-1 0 0,0 1 0,0 7 0,-1-1 7,0-1-1,-1 0 1,0 1 0,-1-1-1,0 0 1,-1 0-1,0 0 1,-1 0-1,-1 0 1,0-1-1,0 0 1,-1 0-1,-10 14 1,5-9 6,-1 0 1,-1-1 0,-1-1-1,0 0 1,0-1 0,-1-1 0,-32 21-1,44-31-6,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0-1,-5 1 1,8-2-29,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,1 1-1,-1-1 1,0 0 0,0 0-1,1 0 1,-1 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,1 0-1,-1-1 1,1-3-41,0 0 0,0 1 0,0-1 1,0 0-1,1 1 0,0-1 0,0 1 0,0-1 1,0 1-1,1 0 0,-1 0 0,1 0 0,0 0 1,0 1-1,1-1 0,-1 1 0,1 0 0,0 0 1,0 0-1,0 0 0,0 1 0,4-3 0,-4 3 70,-1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1-1,1 0 1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 2 0,1-1-1,0 0 1,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,6 5 0,-2 2 134,0 1 1,0 0-1,-1 0 0,0 0 0,-1 1 1,0 0-1,0 0 0,-1 0 1,3 17-1,-3-13-137,1 0 0,0 0 0,1-1 0,15 26 0,-20-39-235,0 1 0,0-1 0,0 1 0,1-1-1,-1 0 1,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,4-2 0,17-7-4702</inkml:trace>
@@ -5850,7 +5935,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11296.16">1988 1950 8132,'0'0'4140,"3"14"-2819,12 65 284,-4-14 22,23 75-1,-33-135-1791,1-1 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 1,-1 0-1,1 0 0,6 4 0,-6-6-70,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0-1 0,0 1 0,4-4 1,35-24-3899</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11788.79">2484 1973 8660,'0'0'2788,"-8"13"-1561,5-8-1019,-3 3 73,1 0 0,0 0 1,1 1-1,0 0 1,0 0-1,1 0 0,0 0 1,0 0-1,1 1 1,-2 18-1,4-24-195,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,0-1 0,2 6 1,-2-8-84,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,1-1 0,-1 0-16,1-1-1,0 1 1,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,-1-1 1,1 1 0,0 0-1,0-1 1,-1 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,-1 1 1,1-1 0,0 0-1,0-3 1,0-1-38,0 1-1,0-1 1,0 1-1,-1-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,0 1-1,-3-10 1,2 12 29,0 1 1,-1-1-1,1 1 0,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,-1 1 0,0-1 1,0 1-1,0 0 0,0 1 1,-7-3-1,-50-11 363,59 15-218,225-11-2978,-221 10 2865,-1 1-1,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0 0 0,0 2 159,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-2 6 0,-1 4 250,1-3-69,0 0 1,0 0-1,1 0 0,-2 13 1,4-21-337,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1-1,3-1 1,2 1-70,1-1-1,-1 0 1,0 0 0,1-1-1,-1 0 1,0 0-1,0 0 1,0-1-1,1 0 1,-1 0 0,-1 0-1,1-1 1,0 0-1,-1 0 1,1 0-1,-1-1 1,0 0-1,0 0 1,-1 0 0,1-1-1,-1 0 1,0 1-1,0-1 1,0-1-1,-1 1 1,0 0 0,0-1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,-1 0 1,1 0 0,-1 0-1,0-1 1,-1 1-1,0 0 1,0-7-1,0 10 79,0 1-1,-1 0 0,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-3 0-1,-39-5-936,16 5-2703,26 1 3041,-7 0-2992</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12441.22">3214 1808 12998,'0'0'1811,"-1"15"-885,-6 56 485,-9 137 1959,13-70-4688,-12-168 392,2-8 682,2 0-1,1 0 0,3-1 1,0 0-1,3 0 0,0-51 1,4 84 237,1-1-1,0 1 1,0-1 0,1 1 0,0 0 0,0-1 0,0 1 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 1 0,0 0 0,0 0 0,1 0 0,0 1 0,-1-1 0,2 1-1,5-4 1,-4 4 1,0 0-1,0 0 0,0 0 0,1 1 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 1,0 1-1,0 0 0,16 3 0,-22-3 9,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 1,2 4-1,-2-3 12,0 1 0,0 0 1,0-1-1,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,-1-1-1,-1 6 0,-1 2 143,0 0 1,-1 0-1,0-1 0,-1 1 1,-1-1-1,1 0 1,-9 10-1,-3-1-106,0 0 0,-2-2 1,0 0-1,-1 0 0,-31 18 0,74-50-15149</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13077.85">3426 1804 9220,'0'0'4466,"-15"7"-3113,-45 28 202,58-33-1494,-1-1-1,1 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,1 1-1,-1 0 0,1-1 1,0 1-1,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,3 1 0,7 1-67,1-1-1,-1 0 1,0-1-1,1 0 1,-1-1-1,1-1 1,14-2-1,-21 3-85,0-1 1,-1-1-1,0 1 0,1-1 1,-1-1-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,-1-1 0,1 0 1,-1 0-1,0-1 0,0 1 1,5-8-1,-9 10 81,1 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,-1 0-1,0-4 1,-1 4 11,1-1 0,-1 1 1,0-1-1,0 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 1-1,-1-1 0,0 1 0,-4-2 1,-5-1 292,-1 0 0,1 0 0,-1 2 0,0-1 0,0 2 0,-17-1 0,29 2-305,24-4-1457,2-3 814,1-1-1,29-15 1,-31 13 208,0 1 0,42-11-1,-65 20 500,0 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,-1 0-1,1-1 0,0 2 0,-2 30 731,1-26-588,0 2-53,0 1 1,1-1-1,0 1 1,1-1-1,-1 1 0,2-1 1,-1 1-1,5 11 1,-4-14-116,1 0 0,0-1-1,1 0 1,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,1 1 0,-1-1 0,1-1 0,9 6-1,-4-2-11,0-1-1,0 0 0,0-1 0,1 0 0,11 3 0,-18-7-5,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,0 0 0,0 0 0,-1 0 0,1 0-1,0-1 1,0 0 0,-1 1 0,1-1-1,0-1 1,-1 1 0,1 0 0,-1-1 0,1 0-1,3-2 1,-1-1-189,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,4-8 0,-7 10-422,0 0 1,-1-1 0,0 0 0,1 0 0,-2 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0-10-1,-1-19-4487</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13077.84">3426 1804 9220,'0'0'4466,"-15"7"-3113,-45 28 202,58-33-1494,-1-1-1,1 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,1 1-1,-1 0 0,1-1 1,0 1-1,0 0 1,0 0-1,0-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,0 0-1,3 1 0,7 1-67,1-1-1,-1 0 1,0-1-1,1 0 1,-1-1-1,1-1 1,14-2-1,-21 3-85,0-1 1,-1-1-1,0 1 0,1-1 1,-1-1-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,-1-1 0,1 0 1,-1 0-1,0-1 0,0 1 1,5-8-1,-9 10 81,1 1-1,-1-1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0 0,-1 0-1,0-4 1,-1 4 11,1-1 0,-1 1 1,0-1-1,0 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 1-1,-1-1 0,0 1 0,-4-2 1,-5-1 292,-1 0 0,1 0 0,-1 2 0,0-1 0,0 2 0,-17-1 0,29 2-305,24-4-1457,2-3 814,1-1-1,29-15 1,-31 13 208,0 1 0,42-11-1,-65 20 500,0 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,-1 0-1,1-1 0,0 2 0,-2 30 731,1-26-588,0 2-53,0 1 1,1-1-1,0 1 1,1-1-1,-1 1 0,2-1 1,-1 1-1,5 11 1,-4-14-116,1 0 0,0-1-1,1 0 1,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,1 1 0,-1-1 0,1-1 0,9 6-1,-4-2-11,0-1-1,0 0 0,0-1 0,1 0 0,11 3 0,-18-7-5,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,0 0 0,0 0 0,-1 0 0,1 0-1,0-1 1,0 0 0,-1 1 0,1-1-1,0-1 1,-1 1 0,1 0 0,-1-1 0,1 0-1,3-2 1,-1-1-189,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,4-8 0,-7 10-422,0 0 1,-1-1 0,0 0 0,1 0 0,-2 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0-10-1,-1-19-4487</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13432.23">3871 1506 13286,'0'0'4210,"3"-6"-8372,18 23 2769,3 1-1584,2-3-4194</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13784.71">4066 1622 8340,'0'0'1179,"2"12"390,10 107 3214,-12-118-4757,0-1 0,0 1 0,1 0 1,-1-1-1,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,1-1 0,23-7-4,17-25-615,-16 2-86,-19 21 397,1 0 1,0 0-1,0 1 0,1 0 1,0 0-1,0 1 1,12-7-1,-20 14 347,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 2 0,0-1-15,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,3 2-1,-2-3-25,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1-1-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,-1 1 1,1-1-1,-1 0 1,0 1 0,2-4-1,5-10-46,-1 0 0,11-34 0,-8 11 261,-1 0 1,-2 0 0,-2-1-1,-1-62 1,-4 101 1179,0 25-557,21 231 1283,-3-84-5032,-18-162 1996,1 8-1066,4-8-2347,0-8-1035</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14143.27">4350 1412 13126,'0'0'5667,"130"-51"-5523,-62 24-144,2-4-417,-2 1 209,-9 0-576,-10 7 128,-18 4-977,-19 6-1024,-12 6-881</inkml:trace>
@@ -5884,7 +5969,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">2309 70 2753,'0'0'11478,"-3"-10"-10443,-13-32-70,15 41-916,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 1 0,-1 0 0,1-1 0,-1 1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-3 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 1,0 1-1,-4 3 0,3-2-29,1 0 1,0 1-1,0-1 1,0 1-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,1 0-1,0 1 1,-1-1-1,1 1 1,1-1-1,-1 1 1,1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,3 7 1,-1-3-19,0 0 0,1 0 0,1-1 0,-1 0 1,1 0-1,1 0 0,0 0 0,0 0 0,0-1 0,11 11 0,49 37 31,-52-46-41,0 0 0,-1 1 0,0 1-1,-1 0 1,-1 0 0,16 22 0,-25-32 27,0 1 0,0-1 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-2 2 0,0-1 55,0-1 0,0 1 0,0 0 0,-1-1-1,1 1 1,-1-1 0,1 0 0,-1 0 0,-6 3-1,1 0-86,0-1 0,-1 0-1,1-1 1,-1 0-1,0 0 1,-16 2-1,24-5-108,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0-24-3106,1 11 1355,-1-24-2525</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="420.52">2225 119 10597,'0'0'4498,"93"-63"-4082,-45 44-416,2 2 0,-5 4-32,-8 7-384,-10 6-881,-12 0-2624,-10 9-2194</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="775.43">2666 83 4514,'0'0'12803,"-12"14"-11784,6-7-913,-3 2 95,1 0 0,0 1 0,1-1 0,0 2 0,0-1-1,1 1 1,1 0 0,0 0 0,0 1 0,1-1-1,-4 17 1,7-18-109,0-1 0,1 1 0,0-1 0,0 1 1,1-1-1,0 0 0,0 1 0,1-1 0,5 12 0,-6-17-103,1 0 1,0-1-1,0 1 0,0-1 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1-1 0,1 1 1,-1-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0-1 0,-1 0 1,1 0-1,0 0 0,0-1 1,7 1-1,-4-1-18,1 0 0,-1-1 1,0 0-1,0 0 0,0-1 0,0 0 1,0 0-1,0 0 0,-1-1 0,1 0 1,-1 0-1,1-1 0,-1 0 0,0 0 1,-1-1-1,1 1 0,8-10 0,-11 10 43,1 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,0 0-1,0 1 1,-1-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0-1,-1-1 1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,0-1-1,0 1 1,-2-8 0,0 8 19,0 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0-1 0,-1 2 0,0-1 0,1 0 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1 0 0,-1 0 0,-7-1 0,-7-3-21,1 2 1,-1 1-1,0 0 0,-23 1 0,29 1-195,-24 1-1258,37 0 1169,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,-2 2 1,-3 10-4848</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2141.03">18 120 7988,'0'0'6635,"-3"9"-5923,-6 72 224,3 0-1,8 120 1,0-70-667,-2-115-356,-1-7-24,0 0 0,1 0 0,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,0 0 0,1-1 0,0 0 0,6 15 0,-7-22-231,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,-1 0 0,1-1-1,-1 1 1,4-2-1,18-13-3972</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2141.04">18 120 7988,'0'0'6635,"-3"9"-5923,-6 72 224,3 0-1,8 120 1,0-70-667,-2-115-356,-1-7-24,0 0 0,1 0 0,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,0 0 0,1-1 0,0 0 0,6 15 0,-7-22-231,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,-1 0 0,1-1-1,-1 1 1,4-2-1,18-13-3972</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1709.84">236 354 8644,'2'-11'1625,"1"-1"-1160,0 1 1,1 0 0,0 0-1,1 1 1,0-1 0,12-17-1,-14 23-333,1 1 0,-1-1-1,1 1 1,0 0 0,1 0 0,-1 0-1,1 0 1,0 1 0,0 0 0,0 0-1,0 0 1,0 1 0,1-1 0,-1 1-1,1 1 1,-1-1 0,1 1 0,7-1-1,-10 1-104,1 1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 1 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 1 0,-1-1 0,0 1 0,0 0 1,0 0-1,-1 0 0,1 0 0,4 4 0,-4-2-17,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,0 1 0,0 5 0,0 3-25,-1-1 0,0 1 0,-1 0-1,-1-1 1,0 1 0,0-1-1,-2 0 1,1 0 0,-12 25 0,0-11-51,0-1 1,-2 0-1,-1-1 1,-1-1 0,-1-1-1,-1-1 1,-41 34 0,22-34 3,39-21 54,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 1 0,0-1 0,-1-1 0,0-5-41,0 0 1,1 0-1,0 0 1,0 0-1,0-1 0,1 1 1,0 0-1,1 0 0,-1 0 1,1 1-1,0-1 1,1 0-1,0 1 0,0-1 1,0 1-1,1 0 0,0 0 1,5-6-1,-6 9 128,0-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0-1,0 0 1,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 1-1,1 0 1,-1 0 0,1 0 0,-1 1 0,7 3 0,-3 0 78,0 0 0,-1 0 0,0 1 0,0-1 0,0 2 0,-1-1 0,0 1 0,8 11 1,-8-10-291,0 0 0,1 0 0,0-1 0,1 0 0,-1 0 0,12 7 0,-17-13-374,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,0-1 0,-1 0-1,1 1 1,0-1 0,0 0-1,-1 0 1,1-1-1,0 1 1,0 0 0,4-2-1,14-10-3947</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1106.74">748 131 10373,'0'0'6504,"-2"7"-6360,-4 26 74,2 0 1,2 1-1,0-1 0,3 1 1,6 52-1,-5-73-225,0-1-1,0 1 1,1-1 0,1 1-1,0-1 1,1 0 0,9 16-1,-14-27-14,0 0 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0-1,0 1 1,0-1 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1-1 1,0 1 0,0 0-1,-1-1 1,1 1-1,-1 0 1,1-1 0,0 1-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 0 0,24-31-552,-23 28 499,21-35-168,-18 28 195,1 0-1,1 0 1,-1 1-1,2 0 1,12-14-1,-20 25 102,-1 0 0,1 1-1,-1-1 1,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 0-1,1 1 1,1 2 0,12 25 639,-12-25-684,0 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1-1,0-1 1,1 0 0,-1 0 0,1 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,9 2 0,-12-6 12,1 0 0,-1-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,-1-3 0,0 5-30,5-33 67,7-38-72,-11 68-8,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,6-5 0,-7 6 14,1 1-1,-1 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 1-1,1-1 1,-1 1-1,0 0 1,1-1 0,-1 1-1,1 0 1,-1 0-1,1 1 1,-1-1-1,0 1 1,1-1 0,-1 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,2 4-1,2 2 161,0 1 1,-1-1-1,0 1 0,0 0 0,-1 0 0,0 0 0,-1 1 0,2 12 1,-4 62 435,30-83-8148,-4-7 3442</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-613.26">1353 298 10901,'0'0'6534,"15"-1"-6521,19-5-130,1-1 0,-2-1 0,1-2 1,40-18-1,-73 28 57,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,1-1 0,-2 0-2,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-2-1 0,-8-5-46,0 0 1,0 0-1,-15-5 0,19 8 235,0 1 196,3 2-125,1 0-1,0 0 0,0-1 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-4-5 1,38 6-647,-23 1 429,0 0-1,1 1 1,-1 0-1,0 1 1,0 0-1,0 0 1,0 1-1,-1 0 0,1 1 1,9 5-1,-14-7 16,0 1 0,0 0-1,-1-1 1,1 2-1,-1-1 1,1 0 0,-1 1-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1 0 0,0 0-1,0 1 1,0-1-1,-1 1 1,0-1 0,1 1-1,-1-1 1,-1 1 0,1 9-1,-1-8 94,-1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 1,0-1-1,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-10 3 0,6-3-1326</inkml:trace>
@@ -5893,7 +5978,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2944.55">1712 1037 11125,'0'0'7358,"11"5"-7358,6-5-182,0 0 1,-1-1-1,1-1 0,0 0 1,-1-1-1,0-1 1,0 0-1,0-2 0,0 0 1,26-13-1,-41 18 136,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 1,0-1-1,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 1,-1-1-1,-1 0 30,0 0 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,-2-1 0,-58-25 378,30 21-61,26 5 9,0 0-1,0 0 1,0 0-1,0-1 0,0 0 1,0 0-1,-7-4 1,12 6-306,1 0 0,0 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,-1 1-1,1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0-1 1,1 1-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 1 1,17-5-90,-6 3 81,1 1-1,0 1 0,-1 0 0,1 0 1,-1 1-1,1 1 0,22 7 0,-30-8-19,-1-1 0,1 1-1,-1 0 1,0 0 0,0 1-1,0-1 1,0 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 1-1,0-1 1,0 1 0,0 0-1,0 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 1-1,-1-1 1,2 10 0,-3-9 98,0 0 1,0-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0-1 1,-1 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,-1-1 1,-4 5-1,-10 8 184,0-1-1,-29 18 1,23-16-380,9-6-118,-7 6-1559,7-10-3246,7-6-2389</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3687.99">2609 844 12822,'0'0'1854,"14"-8"-1542,46-26 179,-59 33-462,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 3 0,2 5 85,-1-1-1,0 1 0,0 0 0,-1 0 0,-2 15 1,0-11-68,-1 1-1,-1-1 1,0 0 0,-1 0 0,0 0 0,-1-1-1,0 0 1,-1 0 0,0 0 0,-10 10 0,-1 2-86,-2-1 0,-1-2 0,-36 31 0,25-30-125,14-16-277,17-6 408,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,-1-11-340,0 0 1,1-1-1,0 1 1,1 0-1,1 0 1,4-20-1,-5 29 382,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,1-1 0,0 1 1,-1 0-1,1 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,1 1 0,-1-1 1,1 1-1,-1 0 0,6-1 1,-6 2 67,0 0 1,-1 1-1,1-1 0,0 1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,1 5-1,4 7 419,-2 1-1,0 0 0,3 22 1,-4-1-164,-2-22-175,0 0 1,0 0-1,2 0 0,7 26 0,-10-39-295,1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 0,0 1 1,-1-1-1,1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,1-1 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1-1 0,0 1 1,0-1-1,3-1 1,5-2-374,0-1 1,-1-1-1,0 1 1,0-2-1,-1 1 1,1-1 0,-2 0-1,1-1 1,-1 0-1,0 0 1,0 0-1,5-11 1,22-33-3084</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4085.76">2973 778 2993,'0'0'5406,"-12"-4"-2405,4 1-2595,-1 0-36,1 0 0,0 1 0,-1 0 1,1 0-1,-1 1 0,0 0 1,1 0-1,-1 1 0,-13 1 0,21 0-343,0-1 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,1 0 0,-1-1-1,0 1 1,1 0 0,-1 0 0,0-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,0 1 0,1 2-50,-1 0 0,2 0 0,-1 0 0,0 0 0,1 0 0,0-1 0,0 0 0,5 5 0,36 27 59,-23-19 7,0 1 1,33 34 0,-49-46 37,-1 0 0,0 1 1,0-1-1,0 1 1,-1 0-1,0-1 0,0 2 1,-1-1-1,1 0 0,-1 0 1,-1 1-1,1-1 0,-1 1 1,0-1-1,-1 1 0,1 8 1,-2-11-17,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-5 3 0,5-4-280,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1-1 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1-1 0,-1 1 1,-4-1-1,-3-11-3008,2-12-870</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4427.4">2886 784 10229,'0'0'2305,"86"-70"-1553,-45 45-224,5 0-208,-1 2 705,-4 2-529,-7 6-192,-15 7 32,-9 6-272,-23 3-1280,-4 12-897,-7 5-816,-3 10 624</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4427.39">2886 784 10229,'0'0'2305,"86"-70"-1553,-45 45-224,5 0-208,-1 2 705,-4 2-529,-7 6-192,-15 7 32,-9 6-272,-23 3-1280,-4 12-897,-7 5-816,-3 10 624</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5990,8 +6075,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">19 89 5138,'0'0'6814,"-3"-18"-3223,-9 194-2964,14 226-1932,-7-400-5652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="540.18">265 281 6371,'0'0'5856,"-3"-5"-4941,-6-8-603,3 13-109,1 30 69,3-12-144,-1 0 9,1 1 0,1-1 0,0 0-1,2 1 1,0-1 0,5 24 0,-5-37-134,0-1 0,0 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,7-1 0,-6-1 10,0 0 0,0-1 1,0 1-1,0-1 0,-1 0 0,1 0 0,0-1 1,-1 0-1,0 0 0,0 0 0,0 0 0,0-1 1,0 0-1,-1 0 0,1 0 0,-1-1 0,0 0 1,-1 1-1,1-1 0,-1-1 0,5-8 0,-4 6 15,1 0-1,-2 0 0,1-1 0,-1 1 1,0-1-1,-1 1 0,0-1 0,-1 0 1,1 0-1,-2 0 0,1 0 0,-1 0 0,-1 1 1,-1-15-1,-1 16-24,-1 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 1 1,0 0-1,0 0 0,0 0 0,0 1 1,0 0-1,-1 0 0,1 1 0,-14-4 0,13 4 10,0 0 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,1 0 0,-12 2 0,15-1-19,0 0-1,0 0 1,0 0 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,-3 4 0,3 0-90,-1 0 0,1 0 0,1 0 0,-1 0 0,1 0 0,1 1 0,-2 11 1,6 7-3242,7-22 565,9-3-907</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="912.88">948 1 8132,'0'0'6915,"0"6"-6707,-2 20-72,-2 0-1,0 1 1,-2-1-1,-9 26 1,-10 43 34,-29 187-1762,54-283 1525,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-4-8-2528,-1-12-2653</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1282.1">663 28 9588,'0'0'7332,"-2"-21"-7316,19 21-256,5 4 64,4 17-1025,4 7 177,0 9-2130,-2 5-191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1283.1">1054 471 6307,'0'0'11749,"0"3"-11573,2-3-1904</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1282.09">663 28 9588,'0'0'7332,"-2"-21"-7316,19 21-256,5 4 64,4 17-1025,4 7 177,0 9-2130,-2 5-191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1283.09">1054 471 6307,'0'0'11749,"0"3"-11573,2-3-1904</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6085,8 +6170,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">153 74 7187,'0'0'5053,"-1"-12"-4388,-1-49 1085,2 64-1508,12 221 959,-1-60-1004,0 52-210,-11-215 85,-7-17 32,-99-140-830,36 57 1442,120 184-720,-36-58 33,2 0 0,1-2 0,0 1 0,23 23 0,-37-47-44,-1 1 0,1 0-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 0-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0 0,0-1 0,-1 1-1,1-1 1,-1 0 0,5 0 0,-3-1 13,-1 0 1,1-1-1,-1 1 0,0-1 0,1 0 1,-1 0-1,0-1 0,0 1 1,-1-1-1,1 0 0,0 0 0,-1 0 1,5-6-1,5-7 58,-1 0 0,-1-1-1,0-1 1,-1 0 0,13-33 0,-17 37-34,-1-1 0,0 0 0,-1 0 0,-1-1 0,0 1 1,1-32-1,-5 47-124,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 1-1,-45 66-7323,18-22 2311</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="513.51">97 951 9316,'0'0'6811,"-7"2"-6560,4-2-238,1 1-1,-1 0 1,1-1 0,0 1-1,0 1 1,-1-1 0,1 0-1,0 0 1,0 1 0,0-1-1,0 1 1,0 0-1,1 0 1,-1-1 0,0 1-1,1 0 1,0 0 0,-3 5-1,1 0-7,0 1 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 10 0,0-1 6,1 1 1,1-1 0,0 0-1,1 1 1,1-1-1,0 1 1,1-1-1,9 27 1,-10-37-50,1 0 0,-1-1 0,1 0 0,0 0 0,1 1 0,-1-2-1,1 1 1,0 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0-1 0,11 1 0,-12-1 39,-1 0-1,1-1 1,0 1 0,-1-1 0,1 0 0,0 0-1,-1 0 1,1 0 0,-1-1 0,0 0 0,0 0-1,1 0 1,-1-1 0,-1 1 0,1-1 0,0 0-1,0 0 1,-1 0 0,4-5 0,-2 2 7,-1-1 0,1 0-1,-1 0 1,-1 0 0,1-1 0,-1 1 0,-1-1 0,1 0 0,-1 0 0,1-13 0,-1 9 1,-1 0 1,0 0-1,-1 0 1,0-1-1,-1 1 1,0 0-1,-1 0 1,-1 0-1,0 0 1,0 0-1,-1 0 1,-1 1-1,0 0 1,-12-20-1,12 25 15,-1 0 0,1 0 0,-1 1 0,-1-1 0,1 1 0,-1 1 0,0-1-1,0 1 1,0 1 0,-1-1 0,1 1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 1 0,0 0-1,0 0 1,0 1 0,-1 0 0,1 1 0,-9 1 0,16-2-66,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1 0 0,0-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,1 2 0,0 0-231,0-1-1,1 1 0,-1 0 1,1-1-1,-1 1 0,1-1 1,0 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1-1-1,5 3 0,28 5-1775,8-5-58</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="869.87">670 742 7652,'0'0'7109,"-6"3"-6554,-1 1-464,1 1 0,0-1 0,0 1-1,1 1 1,0-1 0,0 1 0,0-1-1,0 2 1,1-1 0,0 0 0,0 1-1,1 0 1,0-1 0,-3 10 0,-9 26 300,-12 52 0,20-67-291,-2 12-400,1 0 0,2 1 0,1-1 1,2 45-1,3-84 187,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0 0 0,0-1 0,1 1 1,-1 0-1,0 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 0,0-1 1,1 0-1,-1 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 0 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 1,0 1-1,6-22-2632</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1226.6">498 784 8292,'0'0'8067,"-11"-27"-8067,17 40-2177,8 13 929,3 10-545,-3 8-1008,-3 11-1857</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1227.6">720 1223 6563,'0'0'9909,"4"0"-9909,-2 0-961,-1-2-1600,-1-5-2129</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1226.59">498 784 8292,'0'0'8067,"-11"-27"-8067,17 40-2177,8 13 929,3 10-545,-3 8-1008,-3 11-1857</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1227.59">720 1223 6563,'0'0'9909,"4"0"-9909,-2 0-961,-1-2-1600,-1-5-2129</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6333,7 +6418,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="404.19">5374 312 6771,'0'0'7313,"-7"12"-6038,4-9-1171,-26 50 912,27-50-981,1-1 1,0 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,0 0 0,1-1-1,0 1 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,1-1-1,-1 1 1,1 0 0,0-1-1,0 1 1,0 0-1,0-1 1,0 0 0,3 5-1,-2-5-50,0 0-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 1,0 0-1,5-2 1,0 0-28,-1 0 1,-1 0-1,1-1 1,-1 0-1,1 0 1,-1-1-1,0 1 1,0-1-1,6-9 1,-8 11 51,-1 0 1,-1 0-1,1 0 1,0-1-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1 0 1,1-1-1,-1 1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,0 1 1,1 0-1,-1-1 1,-1 2-1,1-1 1,0 0-1,-1 0 1,1 1-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,-7-1-1,4 0-18,-1 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,0 0 0,0 0 0,-11 3 0,19-3-112,-1 1 0,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 1,1-1-1,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0-1-1,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,0 1 0,1-1 0,0 0 1,-1 1-1,1-1 0,-1 0 0,1 1 0,-1-1 0,2 1 1,20 5-3824</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="777.52">5596 249 9636,'0'0'2279,"-9"13"-945,0-2-989,3-5-62,1 1 0,-1 0-1,1 0 1,1 0 0,-1 1-1,1-1 1,1 1 0,-1 0-1,1 0 1,-3 17 0,6-24-282,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,2 1 0,28 1-199,-22-3 110,0-1 0,0 1 0,0-2 1,-1 1-1,13-7 0,-8 2-33,-2 0 0,1-1 0,-1-1 0,11-10 0,-18 16 106,0 0-1,0-1 0,-1 1 0,1 0 1,-1-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,-1 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,0 0 0,0-9 1,-2 12 41,0 0 0,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,1 1 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,-2 1-1,-53 5 90,50-4-84,0 1 1,0 0-1,0 0 0,0 0 0,-6 5 1,10-7-132,1 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,1 0-1,-1 1 1,1-1 0,0 0-1,0 1 1,0-1 0,-1 6-1,5 4-2811,12-5-1042</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="778.52">5871 157 6627,'0'0'9402,"12"-2"-8591,-5 1-665,0 0 1,1 1-1,-1 0 0,1 0 1,-1 1-1,1 0 1,-1 0-1,11 3 0,-15-3-95,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 1 0,0-1-1,-1 0 1,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1 0,0 5 0,0-1-167,-1 0 1,1 0-1,-2 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,-1 0-1,0 0 0,-1 0 1,0-1-1,0 1 1,-1-1-1,1 0 0,-2 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,-1-1 0,0-1 1,-11 10-1,17-15 35,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0-12-2059,6-16-150,9-12-113,5-2-333</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1101.85">6040 144 2401,'0'0'9895,"6"-12"-7584,-8 52-1044,1-29-955,1-10-271,-2 18 546,0-1 1,2 1-1,0-1 0,5 34 1,-5-49-590,0 0 0,1-1 1,-1 1-1,1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,1 1 0,0-1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,1-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0-1 0,4-1 1,2-1-289,0 0 0,-1-1 1,1 0-1,-1-1 0,0 0 1,0 0-1,0-1 1,-1 1-1,11-12 0,3-4-3452,30-40 0,-20 17-3405</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1101.84">6040 144 2401,'0'0'9895,"6"-12"-7584,-8 52-1044,1-29-955,1-10-271,-2 18 546,0-1 1,2 1-1,0-1 0,5 34 1,-5-49-590,0 0 0,1-1 1,-1 1-1,1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,1-1 0,-1 1 1,0-1-1,1 1 0,0-1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,1-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0-1 0,4-1 1,2-1-289,0 0 0,-1-1 1,1 0-1,-1-1 0,0 0 1,0 0-1,0-1 1,-1 1-1,11-12 0,3-4-3452,30-40 0,-20 17-3405</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7095.61">95 40 3858,'0'0'4794,"-23"45"-2785,7-9-1879,2 0 0,-13 52 0,23-72-92,0 0 0,1 0 0,1 1-1,1-1 1,0 1 0,2-1 0,-1 1 0,5 20 0,-3-31-39,-1-1 0,1 1 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,-1 0 0,2 0 0,-1 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 0,10-1 0,-12-1 5,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1-1-1,0 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,3-4 1,29-58 22,-30 56-20,0-1-1,-1 1 1,0-1-1,0 0 1,-1 0-1,-1 0 1,0 0-1,0-1 1,-1 1-1,0 0 1,-1 0-1,-1 0 1,0 0-1,-5-17 1,5 22 25,0 0 1,0 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 1 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,-1 0-1,1 1 1,-1 0 0,0 0-1,0 0 1,1 1-1,-1 0 1,0 0-1,0 0 1,-1 1-1,-6 0 1,18 25-5668,6-9 1977</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6554.43">501 194 4690,'0'0'5264,"3"5"-5059,0-1-165,0-1-1,0 1 0,0-1 1,1 0-1,0 0 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1-1 1,1 0-1,0-1 0,4 1 1,19 2 109,54-2 0,-46-2-39,-23 1-101,31 0 57,48-6 1,-80 4-58,0 1-1,0-2 0,-1 0 1,1 0-1,-1-1 1,1-1-1,-1 0 0,-1 0 1,12-8-1,-21 12-5,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 0,-1 0 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,-2-1 0,-6-6 41,0 1-1,0 0 0,-21-10 0,24 14-39,-21-12 230,-1 1-1,0 2 0,-31-10 1,67 24-436,0-1 1,0 0-1,0 0 1,14-1-1,29 4 65,-42-2 96,-1 0-1,1 1 0,-1 0 1,0 0-1,0 1 1,0 0-1,-1 0 0,1 1 1,-1 0-1,7 7 1,-11-9 45,0 0 1,-1 1-1,1-1 1,-1 1 0,1 0-1,-1-1 1,-1 1-1,1 0 1,0 0-1,-1 0 1,0 1 0,0-1-1,0 0 1,-1 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,0-1-1,-1 0 1,0 1 0,-1 5-1,0-3 58,-1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 1,0 0-1,-1 1 0,0-1 0,0-1 0,-6 7 0,4-6-65,2 1 0,-1-1 0,1 1 0,0 0 0,0 1 0,-6 13 0,9-14-877</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6180.59">1324 1 5811,'0'0'3425,"0"8"-3067,2 66 1461,18 110 1,-2-30-1388,-18-147-599,3 24 127,5-19-2837,-4-13 108,-1-6-577</inkml:trace>
@@ -6345,10 +6430,10 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2371.61">2398 317 7203,'0'0'3511,"8"-5"-3297,-6 3-192,0 0 0,1 0 0,-1 1 1,1 0-1,-1-1 0,1 1 0,0 0 1,-1 0-1,1 0 0,0 1 0,5-2 0,-6 3 5,0-1 0,0 1-1,-1-1 1,1 1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 1 1,0-1 0,1 1-1,-1-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0-1 1,0 1 0,0 3-1,4 9 72,-1-1-1,0 1 1,-2 0 0,1 0-1,-2 1 1,0-1-1,0 0 1,-1 1-1,-4 25 1,1 24-124,3-64-310,1-30-391,-2 13 590,9-58-366,1-47 1016,-9 133-425,0 4-109,-1 4 31,1-1 0,1 0-1,1 0 1,0 0 0,7 22-1,-8-36-7,0 0 0,1 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 1 0,1-1-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1-1 0,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,0 0 1,6 0 0,-4 0 1,-1-1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,6-5 0,-7 4-146,1 1-1,-1 0 1,-1-1-1,1 0 1,0 1-1,-1-1 1,3-5 0,-4 6-185,0 1 0,0 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 0,0-2 1,-2-1-3243</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1803.82">3315 71 6035,'0'0'5979,"0"39"-4347,-2 97 162,0 69-875,2-204-987,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,1 0-1,4-3-731,0 0 0,1 0 0,-2 0-1,1-1 1,0 1 0,6-9 0,14-20-3789</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1119.56">3535 127 3121,'0'0'9359,"-5"15"-8801,1-8-517,-1 5 114,0 1 0,1-1 0,-3 18 0,6-25-122,0 0 0,0 0 1,1 0-1,0 0 0,0-1 0,0 1 0,0 0 1,1 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,3 5 1,-2-6-35,-1-1 1,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1-1 0,1 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0-1-1,1 1 1,-1-1-1,0 0 1,6 0 0,-7-1-3,-1 0 0,0 0 1,1-1-1,-1 1 1,1-1-1,-1 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1-1-1,-1 1 0,0 0 1,1-6-1,-1 6 14,0 0 0,1-1-1,-1 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1 0,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,-1 0-1,1 0 1,-1 1-1,0-1 1,-3-3 0,1 2 39,-1 0 0,0 0 1,-1 1-1,1-1 0,0 1 1,-1 0-1,1 1 0,-1-1 0,-6 0 1,-6-1 35,-1 2 0,1 0 0,0 1 0,-21 3 0,65-9-472,1 0 0,-1-2-1,0 0 1,32-16 0,-27 10 239,0 2 0,41-10 0,-71 22 165,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,0-1 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 0,-1-1 1,0 1-1,1-1 1,-1 0-1,0 1 0,1-1 1,-1 1-1,0-1 1,1 1-1,1 23 776,-16 34 765,11-48-1257,2-7-222,-1 7 219,-1 0 1,1 1 0,-1 19-1,3-29-296,0 1 0,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1-1 0,0 1-1,1-1 1,-1 1-1,3-1 1,5 0-96,-1 0 1,0-1-1,0 0 0,0 0 1,0-1-1,0 0 0,0 0 1,-1-1-1,1 0 0,-1-1 1,1 1-1,-1-1 0,0-1 1,-1 1-1,1-1 0,-1-1 1,6-5-1,-6 6 90,-1 0 0,1-1 0,-1 1 1,0-1-1,-1 0 0,0-1 0,0 1 1,0-1-1,-1 0 0,1 0 0,-2 0 0,1 0 1,-1 0-1,0-1 0,-1 1 0,1-1 0,-1 1 1,-1-13-1,-1 16 82,0 1 0,0-1 1,0 1-1,-1 0 0,0-1 1,1 1-1,-1 0 0,0 0 1,-1 0-1,1 0 0,0 1 0,-1-1 1,0 1-1,0-1 0,1 1 1,-1 0-1,0 0 0,-1 0 1,1 1-1,0-1 0,-1 1 0,1-1 1,0 1-1,-1 0 0,-4 0 1,-47-10-484,7 9-4404,33 2-500</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-739.77">4403 298 10629,'0'0'6771,"70"-5"-6467,-41-3 64,3-1-368,0 0-144,-3 1-512,-11 4-1521,-9 4-1201</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-739.78">4403 298 10629,'0'0'6771,"70"-5"-6467,-41-3 64,3-1-368,0 0-144,-3 1-512,-11 4-1521,-9 4-1201</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-369.38">4345 450 7796,'0'0'6483,"54"0"-5923,-10-15-368,3-2-192,-2 0-640,-8 5-737,-10 3-832,-13 3-800</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2216.95">4905 918 5747,'0'0'6248,"-12"5"-5760,6-2-420,0-1 0,0 1 0,0 0 0,1 0-1,-1 1 1,1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1 0 0,1 0 0,0 0-1,0 0 1,1 1 0,0-1 0,-4 9 0,3-3 64,0 0 1,1 0-1,0 0 1,1 0-1,0 1 0,0-1 1,2 1-1,-1-1 0,1 1 1,3 16-1,-3-24-132,1-1-1,0 1 0,0 0 1,0 0-1,1 0 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,1-1 1,0-1-1,-1 1 0,1 0 1,0-1-1,1 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,0-1 1,0 0-1,0 0 0,-1-1 1,1 1-1,0-1 1,0 0-1,5 0 0,-4 0-40,0-1 1,1 0-1,-1 0 0,0 0 0,0 0 0,0-1 1,0 0-1,-1 0 0,1 0 0,0-1 0,-1 1 0,0-1 1,0 0-1,1 0 0,-2-1 0,1 1 0,0-1 0,-1 0 1,1 0-1,-1 0 0,0-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 0 0,-1 0 0,2-6 1,-2 5 85,1 0 0,-1-1 1,0 1-1,0-1 0,-1 1 1,0-1-1,0 1 1,-1-1-1,1 0 0,-2 1 1,1 0-1,-1-1 0,1 1 1,-2 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1 0 1,-9-10-1,8 11 66,-1-1-1,0 1 1,0 0 0,0 1-1,0 0 1,0 0 0,-1 0 0,1 0-1,-1 1 1,0 0 0,0 1-1,0-1 1,-10 1 0,24 16-5249,6-1 1451</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2586.68">5168 1040 9780,'0'0'3842,"-26"8"-10677</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2586.67">5168 1040 9780,'0'0'3842,"-26"8"-10677</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2927.9">5376 877 7603,'0'0'7924,"0"-6"-7704,0 9-272,0 443-1092,-7-451-2813,-1-5-218</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3594.39">5952 886 8052,'0'0'7072,"-14"25"-6229,-43 87-174,31-64-867,1 2 0,-17 54 0,40-99-355,-2 10-128,3-6-5206,1-12 1912</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3981.17">5744 926 7331,'0'0'6980,"33"47"-5956,-5-13-656,2 0-352,1-1 64,-1-1-80,-3-1-784,-1-4-1089,-5-4-2145,-4-9-2017</inkml:trace>
@@ -6356,8 +6441,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4753.11">6371 948 6851,'0'0'4159,"-7"16"-2657,0-2-1122,1 2-1,0-1 0,1 1 0,1 0 0,0 0 0,1 0 1,0 22-1,2-25-23,1-5-249,0 1 0,0 0-1,1-1 1,0 1-1,0-1 1,3 10 0,-3-17-126,-1 1 1,1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,1 0-1,-1-1 1,0 1 0,1 0-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1-1,1 0 1,0-1-1,-1 0 1,3 0 0,1-1-33,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,0-7 0,0 7 45,0 0 1,-1-1-1,0 1 1,0-1-1,0 1 1,0 0-1,-1-1 1,0 1-1,0 0 1,-1-1-1,1 1 1,-1 0 0,0 0-1,-1 0 1,1 0-1,-1 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,0 0-1,-4-3 1,-48-19 1728,98 9-4004,-16 9 1791,-1 0 202,1 0-1,-1 2 1,1 1 0,47-3 0,-72 11 388,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 1,-1 1-1,0 4 0,1-1 267,-4 44 1613,1 18-1044,3-68-953,1 0 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,2-1 1,-1 1-14,1 0 1,-1 0-1,1-1 1,-1 1-1,1-1 1,-1 0-1,0 0 1,1 1-1,-1-2 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 1,2-3-1,2-3 25,-1 0 0,0-1 0,0 0-1,-1 0 1,0 0 0,0 0-1,-1-1 1,0 1 0,-1-1 0,0 0-1,0 0 1,0-11 0,-1 17 50,-1-1 0,0 1 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,-1 1 1,0 0-1,0 1 0,1-1 1,-1 0-1,-1 0 0,1 1 1,0-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,-1 1-1,-5-2 0,0 0-160,0 1-1,-1 1 0,1-1 0,-15 3 1,-13 9-4674,20-2-611</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5339.48">5333 1682 9060,'0'0'4850,"47"-6"-4706,0 0 497,3-2-641,-1-4 0,-5 1-320,-7-2-753,-7 3-512,-8 3-1296,-15 7 256</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5757.29">5470 1753 7988,'0'0'5426,"36"18"-5426,4-20-64,6-18-384,5-8-176,-4-3-689,-9-2-1360,-12 3-32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6145.93">5543 1420 8740,'0'0'3028,"19"7"-2780,-4-2-205,118 47-33,-119-45 0,0 0 0,0 0 0,-1 2 0,0 0 0,0 0 0,-1 1 0,20 21 1,-29-28 57,0 1 0,0 0 0,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,-1 1-1,0 0 0,0-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,0 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,0-1 0,-1 0 1,-3 6-1,-8 9 464,-1 0 1,0-1 0,-2-1-1,-28 24 1,-2 3-391,34-27-424,12-17 114,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,1 0-1,5 0-4657</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6146.93">5989 1571 1713,'0'0'11296,"1"-8"-10267,5 24-601,-1 0 0,0 0-1,-1 1 1,-1 0-1,2 31 1,-4-36-344,2 49 409,-3-46-694,0 0 1,1 0-1,1 0 1,0 0 0,1-1-1,6 19 1,-8-32-17,-1 1-1,1-1 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,1 1-1,-1-1 1,0 0 0,1 1-1,2-1 1,19 0-4620</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6145.92">5543 1420 8740,'0'0'3028,"19"7"-2780,-4-2-205,118 47-33,-119-45 0,0 0 0,0 0 0,-1 2 0,0 0 0,0 0 0,-1 1 0,20 21 1,-29-28 57,0 1 0,0 0 0,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,-1 1-1,0 0 0,0-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,0 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,0-1 0,-1 0 1,-3 6-1,-8 9 464,-1 0 1,0-1 0,-2-1-1,-28 24 1,-2 3-391,34-27-424,12-17 114,1 1-1,-1-1 1,1 0-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,1 0-1,5 0-4657</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6146.92">5989 1571 1713,'0'0'11296,"1"-8"-10267,5 24-601,-1 0 0,0 0-1,-1 1 1,-1 0-1,2 31 1,-4-36-344,2 49 409,-3-46-694,0 0 1,1 0-1,1 0 1,0 0 0,1-1-1,6 19 1,-8-32-17,-1 1-1,1-1 1,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,1 1-1,-1-1 1,0 0 0,1 1-1,2-1 1,19 0-4620</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6500.54">6320 1540 6611,'0'0'5491,"-13"14"-4099,6-7-1228,-1 0 170,-1 1 0,2 1 0,-1-1 1,1 1-1,0 1 0,1-1 0,0 1 1,1 1-1,0-1 0,0 0 0,1 1 1,-3 12-1,6-19-294,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 1,1 1-1,0 0 0,4 4 0,-3-5-96,1-1 0,-1 1-1,1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,1 1 0,-1-1-1,1-1 1,4 1-1,-3-1 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0-2 1,0 1 0,-1-1-1,1 1 1,-1-1 0,1-1 0,-1 1-1,0-1 1,-1 0 0,1 0-1,-1-1 1,1 1 0,-1-1 0,-1 0-1,1 0 1,-1 0 0,1-1-1,-2 1 1,1-1 0,-1 1 0,1-1-1,-1 0 1,-1 0 0,1 0-1,-1 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,0-1-1,-1 1 1,0 0 0,-3-9-1,1 10 131,0 1-1,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 1,-1 0-1,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,-6-1 0,4 0 23,0 1-1,0 0 0,0 1 1,0 0-1,0 0 0,0 0 1,0 1-1,0 1 0,-1-1 1,1 1-1,-13 4 0,18-4-144,0 1 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1-1,-3 6 1,4-8-227,1 1-1,-1 0 0,0 0 1,0 0-1,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,2 2-1,15 12-3994</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6867.79">6839 1402 7892,'0'0'8852,"-53"76"-8836,28-23 640,-2 9-32,1 2-256,1-1 33,3-7-401,5-11-208,6-12-673,7-14-752,4-11-528,0-18-5938</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6868.79">6516 1439 4178,'0'0'11413,"40"45"-12629,-2-10-993,6 4-2370</inkml:trace>
@@ -6394,7 +6479,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="386.01">125 456 4898,'0'0'2127,"-12"14"-1599,7-10-580,-13 17 1069,-27 39-1,39-51-809,0 1 0,1-1 0,0 1 0,1 0 0,0 0-1,1 1 1,0-1 0,0 1 0,-1 15 0,3-15-48,1 1 1,0 0-1,0 0 1,1-1-1,0 1 1,1 0 0,5 15-1,-5-23-151,0 0-1,-1 0 1,1 0 0,1 0-1,-1-1 1,1 1-1,-1-1 1,1 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0-1 1,1 1-1,0-1 1,0 0 0,-1 0-1,1 0 1,0 0 0,1-1-1,-1 0 1,0 0-1,6 1 1,15 1-118,0-1 0,1-1 1,-1-2-1,36-4 0,31-1-283,-91 6 397,0 0-1,1 1 0,-1-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 1 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 2 0,0 4 154,0-1-1,-1 1 0,1-1 0,-1 0 1,-5 12-1,-4-1 84,0 0-1,-2-1 1,1-1-1,-2 1 1,0-2-1,-1 0 1,0-1-1,-26 17 1,41-30-317,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-3-640,0-19-3463</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="739.22">528 712 8724,'0'0'6259,"-24"-12"-7972,29 7-1905,11-7-2881</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1344.06">966 269 416,'0'0'10330,"-37"1"-7953,29 3-2307,-1 0-1,1 1 1,-1-1-1,2 2 0,-1-1 1,0 1-1,1 0 1,0 1-1,1 0 1,-8 8-1,10-10-36,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,1 0 1,-1 1 0,1 0-1,0-1 1,0 1-1,1 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,2 7-1,0-10-38,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-2 0,1 1 0,0 0-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 0 0,7 3 0,63 28 20,-57-27-42,28 10-156,-31-13 137,0 2-1,-1-1 1,0 1 0,0 1-1,0 0 1,0 1-1,15 12 1,-25-17 68,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 1,-1-1-1,1 0 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-4 4 1,-5 6 145,0-1 0,0-1 0,0 0-1,-22 14 1,30-22-173,-6 5-43,0-1 0,-1 1 0,1-1 0,-1-1 0,-1 0 0,1 0-1,0-1 1,-14 3 0,22-7-69,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,1-1 1,-1-1-1,0-3-785,0-30-4028</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1712.67">875 262 4418,'0'0'9522,"8"-10"-8855,6-6-699,1 1 0,0 0 0,1 2 0,1 0 0,26-16 0,111-60-1095,-112 67 733,-25 12 262,-6 3-142,0 1-1,1 1 1,17-7-1,-42 34-3089,-9 8 835,-6 8-1481</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1712.66">875 262 4418,'0'0'9522,"8"-10"-8855,6-6-699,1 1 0,0 0 0,1 2 0,1 0 0,26-16 0,111-60-1095,-112 67 733,-25 12 262,-6 3-142,0 1-1,1 1 1,17-7-1,-42 34-3089,-9 8 835,-6 8-1481</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2116.63">88 1398 6995,'0'0'5798,"10"-4"-5532,307-172 515,-127 64-732,395-166-27,-418 204 719,-199 82-5148,10 0-75</inkml:trace>
 </inkml:ink>
 </file>
@@ -6456,7 +6541,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">67 181 2161,'0'0'8591,"-19"-2"-4816,42-17-3815,0 1 0,1 2 0,1 0 0,0 1 0,48-19 0,-56 26-243,4-1 16,-15 6-3451,-30 13-4876</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369.18">24 183 5507,'0'0'2233,"-3"11"-822,-13 62 289,14-64-1570,1-1 0,0 1 0,1-1 0,0 1 0,0 0 0,1-1 0,0 1 0,3 11 1,-2-18-130,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 1,-1 1-1,1-1 0,0-1 1,1 1-1,-1 0 1,0 0-1,0-1 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1-1-1,0 1 0,-1-1 1,4 0-1,12 2-109,-1-1-1,29-3 0,-18 1-139,6 0-170,35 2-84,-69-1 502,1 0 0,0 1 0,-1-1 1,1 1-1,0-1 0,-1 1 1,1 0-1,0-1 0,-1 1 1,1 0-1,-1-1 0,1 1 0,-1 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,1 0 0,-1 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 3-1,-2 26 287,2-27-238,-2 10 133,-1-1 1,-1 1 0,1-1 0,-2 0-1,1 0 1,-2 0 0,1-1 0,-2 0-1,-9 13 1,-13 15 244,-35 33-1,28-33 55,17-17-1060,20-24-2929,7-15 61</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="745.83">620 1 5218,'0'0'4178,"45"95"-3057,-30-43-241,-4 1-207,0-5-177,-2-4 144,1-8-576,1-7 144,-1-7-208,2-6-416,-1-2-144,-3-1-1681,-3-3-2113</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1087.84">490 798 6883,'0'0'4226,"107"-45"-3842,-47 15-48,7-6-336,1-1 0,-7 2-80,-11 8-656,-19 12-2225,-18 10-993</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1087.83">490 798 6883,'0'0'4226,"107"-45"-3842,-47 15-48,7-6-336,1-1 0,-7 2-80,-11 8-656,-19 12-2225,-18 10-993</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1427.56">607 975 6979,'0'0'2665,"11"-13"-1835,3-1-629,0 0 0,1 0 0,0 2 0,1 0 0,0 0-1,1 2 1,0 0 0,1 1 0,18-7 0,-23 12-181,0 0 0,-1 1 1,1 1-1,0 0 0,0 0 0,22 2 0,-33 0-18,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 2 0,0 6 27,0 0 0,-1 0 0,0-1 0,-6 17 0,-2-6 27,0 0 0,-1 0-1,-23 29 1,21-32 271,1 1 0,0 1-1,2 0 1,-11 25 0,20-43-291,1 0 0,-1 0 0,1-1 0,0 1-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1 0 1,-1-1 0,1 1 0,0-1 0,1 2 0,0-2-8,1 1 0,0-1 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,6-2 0,14-5-53,0-1 0,22-11 0,-42 18 48,354-184-866,-356 185 828,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,0 1 0,0 0-1,0 0 1,1 0 0,-1-1 0,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0-1 0,-15-3-3692,10 3 2564,-11-2-3643</inkml:trace>
 </inkml:ink>
 </file>
@@ -6514,7 +6599,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 533 6563,'0'0'4546,"0"-13"-4354,17-3 192,7-6-112,4-2-191,2 2 335,0 0-416,-6 4-48,-3 7-657,-4 2-1760,-8 5-1008</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.48">37 490 3810,'0'0'4727,"-6"13"-3758,-18 45-228,23-56-714,1 0 0,-1 1-1,1-1 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,1-1-1,2 3 1,3 1 14,0 1 0,0-2-1,1 1 1,14 6 0,-16-8-24,23 9-4,0-1 0,40 9 0,-37-11-228,56 23-1,-87-32 217,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 1,1-1-1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 3 1,-2-1 62,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,-2 2 0,-4 7 270,-2-1 1,0 0-1,-18 17 1,-65 38 632,67-49-1143,0 1 0,-29 27 1,49-36-3846</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="355.47">37 490 3810,'0'0'4727,"-6"13"-3758,-18 45-228,23-56-714,1 0 0,-1 1-1,1-1 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,1-1-1,2 3 1,3 1 14,0 1 0,0-2-1,1 1 1,14 6 0,-16-8-24,23 9-4,0-1 0,40 9 0,-37-11-228,56 23-1,-87-32 217,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 1,1-1-1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 3 1,-2-1 62,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,-2 2 0,-4 7 270,-2-1 1,0 0-1,-18 17 1,-65 38 632,67-49-1143,0 1 0,-29 27 1,49-36-3846</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="700.07">525 536 9989,'0'0'2769,"-31"-4"-7011,49 4 1152</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1088.9">808 336 7652,'0'0'2209,"-11"14"-1374,-36 48-158,43-57-550,1 1 0,0-1 0,0 1-1,0 0 1,1 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,1-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,1-1-1,-1 0 1,1 1 0,0-1 0,4 11-1,-3-12-113,0 0-1,0-1 1,1 1-1,-1-1 0,1 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-1-1 1,1 1-1,0-1 0,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1-1 1,9 2-1,-7-2-68,-1 0-1,1-1 1,0 0 0,0 0-1,0 0 1,0-1 0,-1 0-1,1-1 1,0 1-1,-1-1 1,1 0 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0-1 1,-1 0 0,9-6-1,-8 3 9,1 1 1,-1-1-1,-1-1 0,1 1 0,-1-1 1,0 0-1,-1 0 0,0-1 0,0 1 1,-1-1-1,0 0 0,0 0 0,1-11 1,-3 14 63,0-1 0,0 1 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-3-7 0,3 10 40,0-1 1,-1 1 0,1 0-1,-1 0 1,1 0-1,-1 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,0 0-1,-1 0 1,1 0 0,-1 1-1,0-1 1,0 1 0,1 0-1,-1 0 1,0 0-1,0 1 1,-6-1 0,-4 0 91,1 1 1,-1 0-1,0 1 1,-21 4-1,32-5-239,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0 0 0,-2 3 0,4-4-116,0 0 0,0 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,0 1 0,-1-1 0,1 1 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1-1,2 1 1,5 6-2973</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2182.89">692 333 6771,'0'0'3399,"-3"-11"-2855,1 2-371,1 6-125,0 0 1,0 0-1,0 0 0,0 0 1,1-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 1,1 0-1,-1 0 1,4-5-1,3-3 56,1 1 1,0 1-1,1 0 0,17-14 0,-23 20-81,0 0 1,0 1-1,0-1 0,0 1 0,0 0 0,1 0 0,-1 1 1,1-1-1,-1 1 0,1 0 0,-1 0 0,1 0 0,0 1 1,-1 0-1,1 0 0,9 1 0,-11 0-12,-1 0 0,1 1-1,0-1 1,0 1 0,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1-1,-1 1 1,1 0 0,-1-1 0,0 1-1,0 0 1,2 4 0,14 63 329,-15-53-302,0 0 0,-1-1 0,0 1-1,-1 0 1,-1-1 0,-1 1 0,-1-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,-1 0 0,-13 24 0,6-17-27,0 0 1,-1 0-1,-1-2 1,-1 0 0,-30 31-1,46-51-22,-1-1 0,1 1 1,-1-1-1,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1-1 0,1 1 0,-2-1 1,-7-21-429,9 17 388,-1-1-1,1 1 1,0 0 0,0 0-1,1 0 1,-1-1-1,1 1 1,2-6-1,-1 8 59,1 1-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1 0-1,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 1,1 1-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 1 1,1 0-1,-1-1 1,7 2-1,2-1 228,1 1-1,-1 0 1,1 0 0,19 6-1,-20-2-164,0 0-1,-1 1 1,0 0-1,0 1 1,0 0-1,-1 1 1,0 0-1,-1 0 1,11 13-1,21 17-488,-39-37 167,-1 1 1,1-1 0,0 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,-1-1 0,1 0 0,0 1 0,1-3-1,18-29-4066</inkml:trace>
@@ -6602,7 +6687,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3319.76">858 1048 4018,'0'0'8964,"0"7"-8308,5 28-149,0 0 0,3-1-1,0 1 1,27 62 0,-32-87-376,6 14 152,13 44 211,-17-62-5283</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3689.4">1119 1108 12614,'0'0'2177</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4064.6">1410 916 10229,'0'0'2299,"0"-12"-1733,-1 5-456,1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,1 0 1,0 0-1,4-12 1,-4 15-71,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,0 1-1,0-1 1,0 1 0,5-1 0,-5 1-36,-1 0 0,0 1-1,0-1 1,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1-1,1 1 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0-1,0-1 1,0 1 0,2 2 0,-2 0 15,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 10 0,-1-2 43,0 0 0,0 0-1,-1 1 1,-1-1 0,0 0-1,-1 0 1,-1 0 0,1 0-1,-2 0 1,-6 17 0,3-15-15,0 0 1,-1 0 0,-1 0-1,0-1 1,-21 23 0,29-35-54,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,1 0 0,-1-1 0,-1-1-35,1 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1-2 1,-1-56-765,2 59 833,1 0-1,-1-1 1,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 0 0,0 1 0,3 0 93,0 0 0,0 0-1,0 0 1,0 0 0,-1 1 0,1 0 0,0 0 0,-1 0 0,5 3 0,7 10 28,-2 1 0,0 0-1,17 27 1,8 9-4306,-26-35-158</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4483.93">1732 865 12422,'0'0'2363,"1"-13"-1600,7-42 129,-7 53-868,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,3 0 0,-5 1-28,0 0 1,1-1-1,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 0 0,0 1 0,1-1 0,-1 2 0,0 21 430,0-1-1,-8 40 0,1-2-143,7-59-288,0 1 0,-1-1-1,1 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,1 0 1,1 2-1,2 0-17,1-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,11 4 0,6 1 78,-13-4 39,0 0 0,-1 0-1,1 1 1,-1 0 0,15 9 0,-22-11-72,-1-1-1,1 0 1,-1 0 0,1 1-1,-1-1 1,0 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,-1 0 0,1-1-1,0 1 1,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,0 0 0,1-1-1,-1 1 1,0 0-1,0 0 1,0-1 0,-2 3-1,-3 4 257,0 1 0,-1-1 0,0 0 0,0-1 1,-1 1-1,-9 5 0,12-8-400,-1-2 0,1 1 0,0 0 0,-1-1 0,0 0 0,1 0 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-10 1 0,15-3-389,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,-1-1 0,-12-12-7860</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4483.92">1732 865 12422,'0'0'2363,"1"-13"-1600,7-42 129,-7 53-868,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,3 0 0,-5 1-28,0 0 1,1-1-1,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 1,1 0-1,-1 0 0,0 1 0,1-1 0,-1 2 0,0 21 430,0-1-1,-8 40 0,1-2-143,7-59-288,0 1 0,-1-1-1,1 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,1 0 1,1 2-1,2 0-17,1-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,11 4 0,6 1 78,-13-4 39,0 0 0,-1 0-1,1 1 1,-1 0 0,15 9 0,-22-11-72,-1-1-1,1 0 1,-1 0 0,1 1-1,-1-1 1,0 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,-1 0 0,1-1-1,0 1 1,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,0 0 0,1-1-1,-1 1 1,0 0-1,0 0 1,0-1 0,-2 3-1,-3 4 257,0 1 0,-1-1 0,0 0 0,0-1 1,-1 1-1,-9 5 0,12-8-400,-1-2 0,1 1 0,0 0 0,-1-1 0,0 0 0,1 0 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-10 1 0,15-3-389,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,-1-1 0,-12-12-7860</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5274.4">2571 599 7668,'0'0'2673,"20"5"-69,31 168 1338,-6-15-2068,-38-134-2257,-5-13 668,1-1 1,0 0-1,8 18 0,7-9-2276,-17-18 1635,0-1 0,0 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,3-1 1,10-4-3316</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5645.55">2891 604 8564,'0'0'6024,"-8"11"-4984,2-3-832,1 1-1,0 0 0,0 0 0,1 0 0,0 1 0,1-1 0,0 1 0,0 0 0,1 0 0,1 0 0,0 0 0,-1 13 0,2-17-166,1 0 0,-1 0-1,1 0 1,0 0 0,1 0-1,-1 0 1,1-1 0,0 1 0,0 0-1,1-1 1,0 0 0,0 1-1,0-1 1,1 0 0,-1-1-1,1 1 1,5 4 0,-5-6-78,-1 0 1,1-1-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,1-1 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,0 0 0,1-1-1,4-1 1,-5 1 8,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 1-1,0-1 1,0 0 0,0-1-1,0 1 1,-1 0-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,-1 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0-1-1,0 1 1,-1 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,-1 0-1,0 0 1,0 1 0,-4-6-1,-2 1 109,-1 1 1,0 0-1,-1 1 0,1-1 1,-1 2-1,0 0 0,-1 0 1,1 1-1,-1 0 0,0 1 0,0 0 1,0 0-1,0 1 0,-1 1 1,1 0-1,-18 1 0,29 0-180,-1 1 0,1-1 0,0 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 0 0,0 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1-1,0 0 1,0 1 0,0-1 0,0 0 0,0 1 0,1-1-1,-1 0 1,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,16 1-3868</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6402.62">3339 203 2369,'0'0'11878,"-10"-2"-10795,-30-3-432,38 5-614,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,0-1 0,-1 4 1,0 2 19,0 0 0,0 0 1,1 0-1,0 0 1,1 13-1,0-17-60,0 1 0,0-1-1,1 0 1,-1 0-1,1 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,1-1-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 0 0,0 0-1,6 1 1,11 4-71,0-2-1,35 4 1,-35-6 101,-12-1-23,0 0 1,-1 0-1,1 1 1,-1 0-1,0 1 0,1 0 1,8 4-1,-15-6 43,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,-2 1 0,-3 6-20,0-1 0,-1 1 1,0-1-1,0-1 0,-1 1 0,1-1 0,-2 0 0,1-1 1,-1 0-1,-12 7 0,20-13-181,1-1 1,-1 1-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 1 1,1 0-1,0-1 0,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 0,0-1 1,-1 0-1,1 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0-4-835,-6-22-4017</inkml:trace>
@@ -6663,7 +6748,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">18 298 5138,'0'0'5486,"-3"-3"-5113,3 3-364,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 1,0 0-1,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1 23 443,1-8-501,4 45 221,3-1 0,2 0-1,30 101 1,3 17 189,6 223 51,-34-247-181,26 73 89,-1-2 1737,-38-212-2196,-6-38-5925,-7-5 1566</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1080.36">356 297 3874,'0'0'2390,"-2"10"-1896,1-5-488,0 3 239,0 0 0,0 1 1,0-1-1,1 0 0,0 0 0,2 12 0,-1-18-211,-1 1 0,1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,4 1 0,-3-1-50,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1-1,4-4 1,-3 2-38,0-1-1,-1 1 1,1-1 0,-1 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,3-9 1,-1 0 97,-1 0-1,-1 0 1,0-1 0,0 1 0,-1 0 0,-1-1 0,-3-24 0,1 46 2764,-1 42-2309,5-28-389,0 1 0,2-1 0,1 1 0,0-1-1,1 0 1,2-1 0,0 0 0,1 0 0,1 0-1,0-1 1,2-1 0,0 0 0,20 22 0,-30-38-407,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,0 1-1,1-1 1,-1 1 0,1-1-1,0 0 1,-1 0-1,1 0 1,0-1 0,0 1-1,-1-1 1,1 1-1,4-1 1,7-2-2566</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1080.35">356 297 3874,'0'0'2390,"-2"10"-1896,1-5-488,0 3 239,0 0 0,0 1 1,0-1-1,1 0 0,0 0 0,2 12 0,-1-18-211,-1 1 0,1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,4 1 0,-3-1-50,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1-1,4-4 1,-3 2-38,0-1-1,-1 1 1,1-1 0,-1 0-1,0 0 1,0 0-1,0-1 1,-1 1-1,3-9 1,-1 0 97,-1 0-1,-1 0 1,0-1 0,0 1 0,-1 0 0,-1-1 0,-3-24 0,1 46 2764,-1 42-2309,5-28-389,0 1 0,2-1 0,1 1 0,0-1-1,1 0 1,2-1 0,0 0 0,1 0 0,1 0-1,0-1 1,2-1 0,0 0 0,20 22 0,-30-38-407,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,0 1-1,1-1 1,-1 1 0,1-1-1,0 0 1,-1 0-1,1 0 1,0-1 0,0 1-1,-1-1 1,1 1-1,4-1 1,7-2-2566</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1451.74">717 188 7411,'0'0'2762,"-3"9"-2127,2-8-627,0 1 1,0 0 0,1-1 0,-1 1 0,0 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-2 0,1 1-1,0 0 1,0 0 0,-1 0 0,1-1 0,0 1-1,0-1 1,3 1 0,49 10 410,-45-10-324,0 0 1,-1 0-1,1 1 1,0 0-1,-1 1 1,0 0-1,1 0 1,-1 1 0,14 8-1,-21-10-53,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,-1-1 1,1 0-1,0 0 0,-1 1 1,1-1-1,-1 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 0,0-1 1,0 0-1,-2 4 1,2-5-146,0 1 1,1-1-1,-1 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0-1 1,-1 1 0,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,0-1 1,1 0 0,-1-1-1,1 1 1,-1 0-1,0 0 1,1-1 0,-1 1-1,1 0 1,-1-1-1,1 0 1,-1 1 0,1-1-1,-3-1 1,-12-16-2680,-1-6-490</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1807.87">723 211 5523,'0'0'4807,"2"-9"-4015,1-1-664,1 0-1,0 0 1,1 1-1,0-1 1,0 1-1,1 1 1,0-1-1,1 1 1,0 0-1,0 0 1,1 1-1,0 0 1,9-6-1,3-4 36,-8 6-36,0 1 0,1 0 0,0 1 0,19-9 0,-32 19-439,1 1 1,0 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,-1 0-1,1 0 0,-1 3 1,1-2 3,-3 28-1952,-7 7-1619</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2523.12">772 794 5923,'0'0'5450,"1"-8"-4914,10-31-44,-11 38-477,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,2 2 1,-2-1-8,0 0 1,0 1 0,1 0-1,-1-1 1,0 1-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 2 1,-2 41 173,2-37-140,-3 8-61,0 0-1,-1-1 1,0 0-1,-2 1 1,1-2-1,-2 1 1,0-1-1,-1 0 1,-11 16-1,19-30-2,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1-1,0 0 1,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-8-17-1186,1-21-97,7 34 1398,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,1 1 0,-1-1-1,1 0 1,0 1 0,0-1-1,0 1 1,5-6 0,-5 8 8,0-1 1,0 0 0,0 1 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1 0,0 1-1,-1-1 1,1 1 0,0 0 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 1 0,0-1-1,-1 1 1,1 0 0,-1 0 0,5 2-1,-3 0-33,0 0 0,0 0-1,0 0 1,0 0-1,-1 1 1,1 0 0,3 5-1,31 28-568,-37-36 287,0 0 0,0-1-1,1 1 1,-1 0 0,0-1-1,1 1 1,-1-1 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1 0,0 0-1,0 1 1,1-1-1,-1 0 1,2-2 0,11-13-3368</inkml:trace>
@@ -6673,13 +6758,13 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13612.17">1055 1616 4034,'0'0'1446,"2"-3"-1337,21-9-313,-23 12 179,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 1,0 1-1,1-1 0,-1 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0 0 606,0 1 1142,-3 7 4938,10-5-5158,33-7-1432,1-2 0,-1-2 0,-1-1 0,48-16-1,7-2-125,-12 8-234,86-24-823,-266 61 456,12 8 433,5-3 540,-151 68 0,280-96-312,90-33 249,137-57-1,-263 89-184,-7 4 58,0 0 0,0-1 1,0 1-1,0-2 0,0 1 0,0 0 0,-1-1 1,1 0-1,-1 0 0,0 0 0,5-5 0,-20 6-5745,-11 2-214</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16590.55">505 1945 5555,'0'0'4295,"-4"-5"-3724,3 1-564,-10-13 482,6 15-188,3 13-103,-5 172 1198,2 80-44,7-251-2105,-1-23-3582,-1-10 205</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17668.08">432 1991 6643,'0'0'168,"12"-4"368,51-15-162,0 4 0,1 2-1,97-6 1,211 7-516,118-12-480,-68-43 1161,-422 67-468,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1-1,0 1 1,6 25 683,-6 42-989,-1-46 464,1 208 452,-1-228-658,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-2 0 0,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-3 0 0,-55 18 679,53-18-671,-133 27-247,-1-6 0,-2-7 0,-254-5-1,148-24 487,-28 0 776,269 15-1052,-1 0 0,1 1 0,0-1 1,0 2-1,-9 3 0,-38 7 404,-25-12 1434,80-1-1797,-12 10-1508,10-7-1781,10-3 636,11 0 252</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18628.83">811 1898 1713,'0'0'8609,"0"5"-8289,-14 379 1097,29-395-7065,-2-7 2262</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18628.82">811 1898 1713,'0'0'8609,"0"5"-8289,-14 379 1097,29-395-7065,-2-7 2262</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18972.29">1031 1935 6163,'0'0'4020,"0"12"-3190,-4 50-129,-1 129 311,5-189-1199,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0-1-1,0 1 1,1 0 0,-1 0-1,0-1 1,0 1-1,0 0 1,0-1 0,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,1 0-1,10-4-3655</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19327.31">1305 1947 3778,'0'0'4319,"-1"14"-2958,-11 53 82,5-39-993,1 2 1,1-1-1,2 1 0,2 55 1,1-84-542,0 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,0-1 1,-1 1 0,1-1-1,0 1 1,0 0-1,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1-1 1,37-14-3550,-16-4 845</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19327.3">1305 1947 3778,'0'0'4319,"-1"14"-2958,-11 53 82,5-39-993,1 2 1,1-1-1,2 1 0,2 55 1,1-84-542,0 0 1,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,0-1 1,-1 1 0,1-1-1,0 1 1,0 0-1,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,1-1 1,37-14-3550,-16-4 845</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19731.02">1503 1981 6563,'0'0'5843,"0"83"-5107,0-48-80,-1-3-496,0-1 0,1-3-160,0-4-16,0-3-192,0-4-528,2-5-881,10-7-944,4-5 400,3-4-1777</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19732.02">1711 2024 6307,'0'0'4994,"-5"77"-4001,-3-48-513,1-3-304,2-2 128,1-3-304,4-5-64,0-3-304,0-4-833,6-6-1456,7-3-400</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20148.51">1880 1958 6227,'0'0'5458,"-16"62"-4305,7-31-513,3-2-496,3-3 16,3-4-160,0-3-128,0-6 32,0-4-400,5-5-833,5-4-736,7-1 193,4-13-129</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20149.51">2052 1918 5747,'0'0'6130,"-27"78"-5793,16-44 223,5 0-384,0-1-16,0-6-160,2-4-32,1-7-144,2-6-1217,1-7-1616</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20148.5">1880 1958 6227,'0'0'5458,"-16"62"-4305,7-31-513,3-2-496,3-3 16,3-4-160,0-3-128,0-6 32,0-4-400,5-5-833,5-4-736,7-1 193,4-13-129</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20149.5">2052 1918 5747,'0'0'6130,"-27"78"-5793,16-44 223,5 0-384,0-1-16,0-6-160,2-4-32,1-7-144,2-6-1217,1-7-1616</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22962.14">1091 1503 5651,'-1'3'8579,"1"-2"-8573,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,1 0-1,0 0 0,10 3 38,0 0 0,1-1-1,-1 0 1,1-1 0,0-1 0,0 0 0,0 0-1,0-1 1,-1 0 0,13-3 0,13 2-38,3-2 42,0-1-1,0-3 1,-1-1 0,70-24-1,-75 22-39,-102 27 42,-12 16-180,-1-4 1,-98 20-1,177-48 183,1-1-114,15 0-211,38-3 162,-1-3 0,-1-2 0,50-15 0,-3 2-27,-78 18 254,0-1-1,0-1 0,-1-1 1,29-12-1,-46 16 247,5-6-9455</inkml:trace>
 </inkml:ink>
 </file>
@@ -6800,7 +6885,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 155 960,'0'0'5961,"11"1"-3185,34 0-1817,-1 3-694,-36-2-149,0-1 1,1 0-1,-1 0 0,0-1 1,1 0-1,-1 0 0,1-1 0,-1 0 1,0-1-1,15-4 0,-76-15-751,47 19 569,2-1 64,-1 1 0,0 1 0,0-1 0,0 1 0,0 0 0,-9-1 0,22 1-185,0 2-1,0-1 0,0 1 1,0 0-1,0 1 0,0 0 1,12 4-1,-17-5 199,-1 1 0,0-1 0,1 0-1,-1 1 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1-1,-1-1 1,0 1 0,0 0 0,0-1 0,0 1 0,-1 0-1,1-1 1,-1 1 0,0 0 0,0-1 0,0 5 0,0-4 60,0 0 1,0 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,-3 5-1,-9 20-2755,13-20-291</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1143.18">360 144 2769,'0'0'4261,"7"2"-1489,28 3-1782,-18-4-751,0 0 1,1-2 0,-1 0 0,0-1 0,0-1-1,0 0 1,0-1 0,27-11 0,-37 12-98,0 1 1,1 0-1,-1 0 0,1 0 0,8 0 1,-16 0-205,0 0 1,-1-1 0,1 1-1,-1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,-1-2 1,-1-3 2,0 1 1,-1 0-1,0 0 0,-1 1 0,1-1 1,-1 1-1,0 1 0,0-1 1,-1 1-1,1 0 0,-1 0 1,0 1-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 2 0,-15-3 1,22 4 186,21 12-390,-7-5 311,1 0-1,0-2 0,28 8 0,28 10 18,-69-22-42,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1-1 0,0 3-1,-2 5 124,0 0-1,0 0 0,-1 0 0,0-1 0,-7 11 1,10-16-178</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1143.17">360 144 2769,'0'0'4261,"7"2"-1489,28 3-1782,-18-4-751,0 0 1,1-2 0,-1 0 0,0-1 0,0-1-1,0 0 1,0-1 0,27-11 0,-37 12-98,0 1 1,1 0-1,-1 0 0,1 0 0,8 0 1,-16 0-205,0 0 1,-1-1 0,1 1-1,-1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,-1-2 1,-1-3 2,0 1 1,-1 0-1,0 0 0,-1 1 0,1-1 1,-1 1-1,0 1 0,0-1 1,-1 1-1,1 0 0,-1 0 1,0 1-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 2 0,-15-3 1,22 4 186,21 12-390,-7-5 311,1 0-1,0-2 0,28 8 0,28 10 18,-69-22-42,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1-1 0,0 3-1,-2 5 124,0 0-1,0 0 0,-1 0 0,0-1 0,-7 11 1,10-16-178</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6829,7 +6914,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 173 912,'0'0'14298,"32"-1"-14234,-17-1 83,0 0 0,0-1 1,17-7-1,-19 5-129,-1 2 0,1-1-1,0 2 1,0 0 0,14-1 0,-27 3 137,-13-18-1126,6 13 734,0 1 0,-1 0 0,1 1 0,-1-1 0,-8-1 0,-28-13 2,32 9 166,15 7 895,24 9 905,-14-3-2128,20 2 471,18 5 31,-50-11-109,0 1 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,-1 0 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,-1-1 0,0 0 0,1 1 1,-1-1-1,0 1 0,0-1 0,0 0 1,0 3-1,0 38-118,-1-27 99,0-2 12,0 1 0,-1-1 0,0 1 0,-7 17 0,0 5-22,9-34-18,0-2-37,-1 0 180</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1689.69">353 125 2001,'0'0'6032,"6"0"1220,24 0-6935,-10 0-84,-9 1-165,0 0 0,0-1 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,19-8 1,-30 9-135,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 1,-1 1-1,-21-20-367,-50-21 217,72 41 235,5 0-345,0 1 281,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,6 4 0,3 1 5,0 2 0,0 0 0,-1 1 0,0 0 1,18 17-1,-28-24 74,0 0 1,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0 0,-1-1 0,0 0-1,0 1 1,-3 1 0,-4 5 396,-3 1-1331</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1689.68">353 125 2001,'0'0'6032,"6"0"1220,24 0-6935,-10 0-84,-9 1-165,0 0 0,0-1 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,19-8 1,-30 9-135,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 1 0,1-1 1,-1 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1-1 1,-1 1-1,-21-20-367,-50-21 217,72 41 235,5 0-345,0 1 281,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,6 4 0,3 1 5,0 2 0,0 0 0,-1 1 0,0 0 1,18 17-1,-28-24 74,0 0 1,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0 0,-1-1 0,0 0-1,0 1 1,-3 1 0,-4 5 396,-3 1-1331</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2746.37">688 141 400,'0'0'9092,"11"-4"-2870,36-12-5710,-38 13-467,-1 0-24,0 0 1,0 1-1,0 0 1,0 1-1,13-2 1,-21 3-97,1 0 1,0 0 0,-1 0-1,1 0 1,0-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1-1-1,-1 1 1,1-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,0-1 1,1 0 0,-1 1 0,0-1-1,0 1 1,1-1 0,-1 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0-1 65,-1 1-1,1-1 0,0 1 1,0-1-1,-1 0 0,1 1 0,0-1 1,-1 1-1,0 0 0,1-1 1,-1 1-1,0-1 0,0 1 1,-1-1-1,-6-2 37,0 0 1,0 1-1,0 1 1,-1-1-1,1 1 0,-1 1 1,0 0-1,1 0 1,-1 1-1,-13 0 1,21 0 93,4 4-150,1-1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,7 3 0,-8-3 3,1 0 42,0 0 0,-1 1-1,1 0 1,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0-1,0-1 1,-1 2 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,2 6-1,-3-7 29,-1 1 0,1-1 0,-1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1 0,-1 1-1,1 0 1,-1-1 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,0 1-1,-4 2 1,3-3 6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3737.22">952 156 2209,'0'0'7379,"-4"-1"-4774,5 0-1477,17 2-876,-1-1-1,1-1 1,-1 0 0,1-1 0,-1-1-1,1-1 1,20-8 0,-57 2-794,-1 1 0,0 1-1,-27-7 1,22 12 644,25 3-102,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,40 18-63,-16-7 225,-16-8-171,0-1 84,-1 1-1,0 0 0,0 1 1,0 0-1,-1 0 1,7 6-1,-12-9-30,0-1-1,1 1 1,-1-1-1,0 1 1,-1-1 0,1 1-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1-1 1,0 1-1,1 0 1,-1 0 0,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-2 1 1,-6 8-441,-6 6 1794,13-12-4689,16-11-9607</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4571.59">1260 82 4130,'0'0'6955,"76"-5"-4063,42 5-2060,-118 0-850,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,-15-13-474,-28-2 553,-39-19 112,92 32-44,0 1 0,0 0 0,0 0 0,19 2 0,-23 1-102,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,1 1 0,-1-1-1,0 1 1,0 0 0,-1 0 0,8 8 0,-9-9 22,-1-1 0,0 1-1,0 0 1,0-1 0,-1 1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,-1-1-1,1 0 1,-1 0 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,-2 6 0,2-8-93,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 1,-1 0-1,-2 0 0,-17 2-6785,10-3 2924</inkml:trace>
@@ -6890,9 +6975,9 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">18 190 4498,'0'0'7545,"-17"1"-6289,90 1-1284,143-15 0,-214 13 28,0 0 0,-1 0-1,0 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0 1 1,1-1-1,-1 0 0,1 2 0,7 41-7,-8-36 18,5 58 194,-5 81 1,-1-60 42,-2-45 256,1-38-1195,1-27-2357,4-1-967,4-2-207</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.49">562 161 6099,'0'0'3593,"-11"-4"-1906,7 1-1366,-33-15 579,34 17-762,1 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,-2 2 0,3-1-120,1 1-1,-1-1 1,1 0-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,2 3 1,-1 2-2,0-1 0,1 0-1,0 0 1,0 0 0,0 0 0,6 10 0,1-5-76,0 0 1,2 0-1,-1-1 0,1 0 1,23 15-1,-19-14-30,0 1 1,19 19-1,-33-30 108,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,-1 0 0,1-1 1,-1 1-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 0,1-1 1,-1 1-1,0-1 1,-1 1-1,-43 26 996,38-24-939,-4 3-349,-22 12-2,14-16-5695,12-6 1887</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370.48">562 161 6099,'0'0'3593,"-11"-4"-1906,7 1-1366,-33-15 579,34 17-762,1 0 0,-1 0 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,-2 2 0,3-1-120,1 1-1,-1-1 1,1 0-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,2 3 1,-1 2-2,0-1 0,1 0-1,0 0 1,0 0 0,0 0 0,6 10 0,1-5-76,0 0 1,2 0-1,-1-1 0,1 0 1,23 15-1,-19-14-30,0 1 1,19 19-1,-33-30 108,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,-1 0 0,1-1 1,-1 1-1,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 0,1-1 1,-1 1-1,0-1 1,-1 1-1,-43 26 996,38-24-939,-4 3-349,-22 12-2,14-16-5695,12-6 1887</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="760.59">484 152 10277,'0'0'5970,"73"-35"-5954,-43 28-16,0 1 48,1 2-208,-2 3-384,0 1-1281,-7 0-1856,-3 1-3939</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1128.09">825 133 9060,'0'0'7998,"-3"-2"-7744,173 50-848,-96-29-749,-72-19 1325,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0-1,-1 0 1,0 1 0,0-1 0,1 0 0,-1 0 0,-2 2 0,-6 10 418,-1 0 0,-1 0 0,-20 19 0,10-11-80,18-17-239,-8 8 85,0 0 0,1 1 0,0 1 0,1 0 0,-12 25 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1128.08">825 133 9060,'0'0'7998,"-3"-2"-7744,173 50-848,-96-29-749,-72-19 1325,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1-1,0-1 1,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0-1,-1 0 1,0 1 0,0-1 0,1 0 0,-1 0 0,-2 2 0,-6 10 418,-1 0 0,-1 0 0,-20 19 0,10-11-80,18-17-239,-8 8 85,0 0 0,1 1 0,0 1 0,1 0 0,-12 25 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2566.12">1510 23 2657,'0'0'7620,"0"-2"-7049,0-4-387,0 4-128,-31 7 152,26-3-168,0 1 1,1-1-1,-1 1 0,1 0 1,0 1-1,0-1 1,0 1-1,0 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,0-1 1,1 1-1,-1 0 0,1 0 1,0 0-1,1 0 1,-1 0-1,0 8 0,-2 1 134,2 0-1,0 1 1,0 0-1,2-1 0,0 1 1,2 19-1,-2-33-158,1 1 0,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 0 0,1 1 0,-1-1 0,3 0-1,1 1-27,-1 0-1,1-1 0,-1 1 1,1-1-1,-1-1 0,1 1 1,-1 0-1,7-3 1,-10 3 1,-1 0 0,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,1 0 1,-1-1-1,0 1 0,1-1 0,-1 1 0,0-1 1,0 1-1,0-1 0,0 1 0,1-1 0,-1 1 1,0 0-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,0 1-1,0-1 0,-1 0 0,1 1-30,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,3-2-100,0 0 0,1 1 0,0-1-1,-1 1 1,1 0 0,0 1 0,-1-1-1,1 1 1,0 0 0,6 0 0,-10 1 160,1-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 1,-1 1-1,0-1 0,0 1 1,1 0-1,-1-1 1,0 1-1,-1 2 1,1 10 419,-2 0-1,0 0 1,-1 0 0,0-1-1,-1 1 1,-9 20 0,-11 40-338,22-63-1485</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2952.41">1551 188 6835,'0'0'5829,"13"-5"-5050,-11 4-751,10-4 116,0 0 0,0 1 0,0 1 0,19-3 0,-27 5-125,0 1-1,-1 0 0,1-1 0,-1 1 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,0-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 1 0,3 5 1,-5-6-6,0 1 0,0-1-1,0 1 1,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 2 0,0-4-6,0 0 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1-1,-1 1 1,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,-1-1 0,1-1 42,1-1 1,-1 1 0,0 0-1,1-1 1,-1 1-1,0 0 1,1-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,1-3 1,1-30-102,1 25-62,1 1-1,0-1 1,0 0-1,1 1 1,0 0-1,0 0 0,1 0 1,0 1-1,8-8 1,17-17-6907,-23 25-692</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3321.84">1808 137 10725,'0'0'3631,"5"-1"-3500,2 0-126,0-1 1,-1 0-1,1 0 1,-1-1 0,1 0-1,10-6 1,-15 8-140,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1-1 0,0 1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0-3 1,-1 6 119,1-1 0,0 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1-1 0,-1 1 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 0 1,0 1-1,-1-1 0,0 1 0,-18 11 740,13-6-379,0 0 0,1 1-1,1 0 1,-1 0 0,1 0-1,0 1 1,0-1 0,1 1-1,0 0 1,1 0 0,0 0-1,0 0 1,0 1 0,1-1-1,1 0 1,-1 1 0,2 12-1,-1-19-357,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,1-1 0,-1 1-1,0 0 1,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 0-1,1 1 1,2-1 0,42 3-3802,-46-3 3784,27-2-4421</inkml:trace>
@@ -6903,8 +6988,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6224.71">954 863 8180,'0'0'3655,"11"-8"-3159,-2 1-496,1 1 1,0 0-1,0 0 1,0 1-1,1 1 1,0-1-1,0 2 1,0-1-1,0 2 0,1-1 1,20 0-1,-31 3 41,0 1 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 0 1,-1 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 3 0,-2 49 1875,2-52-1888,-3 13 398,0-1-1,-1 1 1,0-1-1,-1 1 1,-1-1 0,-8 13-1,-17 46-1649,23-21-6051,8-47 3263</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6568.28">1320 828 4434,'0'0'6707,"-11"0"-5418,-36 2-198,46-2-1032,-1 0-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,1-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,-1-1 0,1 1-1,0 0 1,0-1 0,0 1-1,0 1 1,0 1-50,0-1 0,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,4 4 0,31 17-298,-32-22 186,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,4 6-1,-7-8 152,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0-1,-1 0 1,1-1 0,-2 1-1,-51 23 1670,42-20-1641,2 0-181,-3 1-371,4-2-4495</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7107.44">1649 863 8740,'0'0'8537,"-3"-4"-7822,-9-4-413,8 16-188,13 29 316,-7-34-417,-1 1 1,1-1-1,-1 0 0,1 0 0,0 0 1,0-1-1,0 1 0,0 0 1,1-1-1,-1 0 0,1 1 0,-1-1 1,1 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 1,0-1-1,1 0 0,-1 0 1,0-1-1,1 1 0,3-1 0,-4 0-58,0 0 0,0-1-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,-1 0-1,0 0 1,1-1 0,-1 1-1,0-1 1,0 1-1,0-1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,2-6 1,11-71 1504,21 234-1459,-32-133 209,0 1 1,-1-1-1,-2 1 1,0 0-1,-4 28 1,2-41-26,0-1 1,-1 0-1,0 0 0,0 0 1,-1 0-1,0-1 0,0 1 1,-9 10-1,12-15-201,-1-1 0,0 1-1,0-1 1,0 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,1 0 0,-1-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,0 0 0,0 0 0,0 0 0,-1-1-1,1 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0-1,-1 0 1,-3-1 0,5 0-210,1 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0-1 0,0 0-1,1 0 1,-1 1-1,0-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1-4-1,-4-47-5872,4 49 5325,0-39-5580</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8504.96">1935 887 7668,'0'0'6773,"8"-6"-6397,-1 2-413,-3 2 14,0-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,-1 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 0-1,0 0 1,1 0 0,-2 0-1,1 0 1,0-1-1,-1 1 1,0 0 0,1-7-1,-6 34-317,0-10 581,2 1 0,-1-1 0,2 0 0,-1 27 0,2-39-214,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,2-2 0,1 0-23,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0-1,-1-1 1,0 1 0,0-1 0,-1 1 0,3-6 0,2-7-287,0 1 1,-2-1-1,8-32 0,-6 13-296,-2 0-1,1-53 782,-6 127 1087,-1-25-1077,1 0-1,1 0 0,0 0 1,1 0-1,0 0 0,8 23 0,-9-32-167,1-1 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1-1 1,1 1-1,0-1 1,-1 0 0,1 0-1,0-1 1,0 1 0,0-1-1,-1 0 1,7 0-1,-5-1-77,0 0 0,-1 0-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,0-1-1,0 0 1,0 1 0,0-1-1,-1 0 1,3-6 0,3-5-174,-1-1-1,0 1 1,-1-1 0,5-20 0,-8 23 3,0 0 0,-2 0 0,1-23 0,-3 36 248,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 0,0 0 1,0 0-1,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,-1 2 1,-5 8 107,1 1 1,0 0 0,1 0 0,0 1 0,1-1 0,0 1 0,1 0 0,0 1 0,1-1 0,1 0 0,0 0 0,1 1 0,2 23 0,-1-33-130,-1-1 1,0 0 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,4-1-1,2 0-74,-2-1-1,1 0 1,0 0-1,0-1 0,0 0 1,-1 0-1,0-1 0,0 0 1,0 0-1,0-1 0,0 0 1,11-11-1,-10 5-275,-1-1-1,0 1 1,-1-1 0,7-15-1,-13 24 441,-1 4-104,-5 6 109,0 2 1,1-1-1,0 0 1,0 1-1,1 0 1,0 0-1,1 0 1,-1 0-1,2 0 1,-1 10-1,2-18-117,0-1 1,0 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 1 1,0-1-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,19-4-160,15-14-509,-32 16 574,0-1-1,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,-1-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,-1 0-1,0 0 0,1 1 0,-1-1 1,-1 0-1,1 0 0,-1 1 0,0-6 1,0 8 156,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,-1 0 0,1 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,-1 1 1,-1-1 631,24 2-723,-16-1-46,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,-1 0 0,1-1 0,4-1 0,7-5-382,-13 6 420,1-1 0,0 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 1 1,6-2-1,14 30 569,-20-27-463,1 1 1,0-1 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 0-1,-1 0 1,1 0 0,0-1-1,-1 1 1,4-3-1,-4 3-38,0-1-1,-1 1 0,1 0 1,-1-1-1,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,-1-5 0,0 6-298,0 0-1,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 0,0 0 1,0-1-1,-1 1 0,1 0 1,-1 0-1,1 0 1,-1 1-1,0-1 0,-2 0 1,4 1 182,-31-8-5556</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9849.85">535 1659 5891,'0'0'4247,"-13"13"-3332,-42 45 306,-69 94-1,123-151-1205,1-1 0,0 1 0,-1 0 0,1-1-1,-1 1 1,1-1 0,0 1 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,1 0 0,-1-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,0 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,1 0 0,0 1 0,-1-1 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,2-1 0,51 2-109,-42-1 176,229-12 587,-238 11-679,3 1 650</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8504.95">1935 887 7668,'0'0'6773,"8"-6"-6397,-1 2-413,-3 2 14,0-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,-1 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,-1 0-1,0 0 1,1 0 0,-2 0-1,1 0 1,0-1-1,-1 1 1,0 0 0,1-7-1,-6 34-317,0-10 581,2 1 0,-1-1 0,2 0 0,-1 27 0,2-39-214,0 1 0,0 0 0,1 0 0,-1 0 0,0-1 1,1 1-1,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,2-2 0,1 0-23,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 0 0,-1 0 0,1 0-1,-1-1 1,0 1 0,0-1 0,-1 1 0,3-6 0,2-7-287,0 1 1,-2-1-1,8-32 0,-6 13-296,-2 0-1,1-53 782,-6 127 1087,-1-25-1077,1 0-1,1 0 0,0 0 1,1 0-1,0 0 0,8 23 0,-9-32-167,1-1 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1-1 1,1 1-1,0-1 1,-1 0 0,1 0-1,0-1 1,0 1 0,0-1-1,-1 0 1,7 0-1,-5-1-77,0 0 0,-1 0-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,0-1-1,0 0 1,0 1 0,0-1-1,-1 0 1,3-6 0,3-5-174,-1-1-1,0 1 1,-1-1 0,5-20 0,-8 23 3,0 0 0,-2 0 0,1-23 0,-3 36 248,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 0,0 0 1,0 0-1,0-1 1,0 1-1,1 0 0,-1 0 1,0 0-1,-1 2 1,-5 8 107,1 1 1,0 0 0,1 0 0,0 1 0,1-1 0,0 1 0,1 0 0,0 1 0,1-1 0,1 0 0,0 0 0,1 1 0,2 23 0,-1-33-130,-1-1 1,0 0 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,4-1-1,2 0-74,-2-1-1,1 0 1,0 0-1,0-1 0,0 0 1,-1 0-1,0-1 0,0 0 1,0 0-1,0-1 0,0 0 1,11-11-1,-10 5-275,-1-1-1,0 1 1,-1-1 0,7-15-1,-13 24 441,-1 4-104,-5 6 109,0 2 1,1-1-1,0 0 1,0 1-1,1 0 1,0 0-1,1 0 1,-1 0-1,2 0 1,-1 10-1,2-18-117,0-1 1,0 1-1,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 1 1,0-1-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,19-4-160,15-14-509,-32 16 574,0-1-1,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,-1-1 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,-1 0-1,0 0 0,1 1 0,-1-1 1,-1 0-1,1 0 0,-1 1 0,0-6 1,0 8 156,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,-1 0 0,1 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,0 1 0,0 0-1,-1-1 1,1 1 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,-1 1 1,-1-1 631,24 2-723,-16-1-46,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0-1 0,0 1 0,-1 0 0,1-1 0,4-1 0,7-5-382,-13 6 420,1-1 0,0 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 1 1,6-2-1,14 30 569,-20-27-463,1 1 1,0-1 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 0-1,-1 0 1,1 0 0,0-1-1,-1 1 1,4-3-1,-4 3-38,0-1-1,-1 1 0,1 0 1,-1-1-1,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,-1-1-1,0 0 0,1 0 1,-1 0-1,-1-5 0,0 6-298,0 0-1,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 0,0 0 1,0-1-1,-1 1 0,1 0 1,-1 0-1,1 0 1,-1 1-1,0-1 0,-2 0 1,4 1 182,-31-8-5556</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9849.84">535 1659 5891,'0'0'4247,"-13"13"-3332,-42 45 306,-69 94-1,123-151-1205,1-1 0,0 1 0,-1 0 0,1-1-1,-1 1 1,1-1 0,0 1 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,1 0 0,-1-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,0 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,1 0 0,0 1 0,-1-1 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,2-1 0,51 2-109,-42-1 176,229-12 587,-238 11-679,3 1 650</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10483.63">903 1579 5250,'0'0'6972,"-1"-1"-6812,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,-2-1-1,-3 2-91,1-1 1,0 1-1,0 0 0,-1 0 1,1 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 1 1,0 0-1,0 0 0,1 0 1,-1 1-1,-8 5 1,11-6-68,-1 0 0,0 1 0,1-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,1 1 0,1 4 0,1-3-7,-1 0 0,1 0-1,1 0 1,-1-1 0,0 1-1,1-1 1,0 0 0,0 0-1,1-1 1,-1 1 0,1-1 0,-1 0-1,1 0 1,0 0 0,0-1-1,8 3 1,-5-1 1,-1 0 0,1 0-1,-1 0 1,0 1 0,0 0-1,10 10 1,-16-14 24,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,0 1-1,-1-1 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,-1 2-1,-1 0 100,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 1,-6 4-1,3-2-30,0 0 1,-1 0 0,0-1-1,1 0 1,-1 0 0,-1 0-1,1-1 1,-12 3 0,18-5-27,-1 0-186,1 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,1-1 0,-1-11-5020</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10916.17">1086 1592 5715,'0'0'9820,"-7"2"-8873,0 1-789,0 1-1,0 0 1,1 0 0,-1 1-1,1-1 1,0 1-1,0 1 1,0-1-1,1 1 1,-9 12 0,11-14-101,0-1 0,1 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,0 1 1,1-1-1,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 1,1 0-1,-1 1 0,1-1 0,0 0 0,0 1 0,3 5 1,-2-7-64,1 0 1,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1-1 1,-1 1 0,5-2 0,0 1-182,1 0-1,0-1 1,-1 0 0,1 0 0,-1-1 0,0 0-1,1-1 1,12-8 0,-14 7-5,0-1 0,-1 0 0,1 0 0,-2-1-1,1 0 1,-1 0 0,0 0 0,7-14 0,-11 19 192,1 0 1,-1 0-1,0-1 1,0 1 0,0 0-1,-1-1 1,1 1-1,0-1 1,-1 1-1,0 0 1,1-1-1,-1 1 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,-1 1-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 1-1,-3-3 1,-4-1 69,0 1 0,1 1 0,-1 0 0,-1 0 0,1 0 0,0 1 0,-1 1 0,1 0 0,-1 0 0,1 1 0,-20 1 0,28-1-242,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 10-4916</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12947.44">1489 1669 6627,'-1'4'12395,"-2"16"-12555,8 207 1083,-26-266-2043,15 24 912,2 0 0,0 0 0,0-1 0,2 0 0,0 1 0,0-1 0,2 0 0,0 0 0,3-22 0,-2 29 142,0 0 0,1 0 1,0 0-1,1 1 0,-1-1 0,2 1 0,-1 0 0,1-1 0,0 2 0,1-1 0,0 0 0,0 1 1,1 0-1,0 0 0,0 1 0,0-1 0,14-9 0,-16 14 72,1-1-1,-1 1 1,1 0 0,0 0-1,-1 1 1,1-1 0,0 1-1,0 0 1,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,9 2 1,-12-2 7,0 0-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,-1-1 1,0 1-1,-1 2 1,-2 5 64,0-1 0,-1 1 0,0-1 0,0 0 0,-1-1 0,1 1 1,-13 10-1,-55 48-170,49-46 17,16-13 67,4-3-55,1-1 1,0 0-1,-1 0 1,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,-6 1 1,10-3 39,-1 0 0,1 0 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1 0,5-23-932,-4 21 960,1 0 0,-1 1 0,1-1-1,-1 0 1,1 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0-1,0 0 1,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1-1,-1 0 1,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0 0 1,0 0 0,0 0 0,5 2 0,0-1 145,0 1 0,0 0 1,0 0-1,0 1 0,0 0 1,-1 0-1,1 1 0,-1 0 0,12 9 1,-13-8-41,1 0 1,0-1 0,-1 0-1,2 0 1,-1 0-1,0-1 1,1 0 0,0 0-1,0-1 1,13 2-1,-16-3-93,1-1-1,-1 0 0,1 0 0,-1-1 1,0 0-1,1 0 0,-1 0 0,0 0 1,0-1-1,0 0 0,1 0 0,-2 0 0,1-1 1,0 0-1,-1 0 0,9-6 0,-9 5-67,1 1 0,-1-1 0,0 0 0,0 0 0,-1-1 0,1 1-1,-1-1 1,0 0 0,0 1 0,0-1 0,-1-1 0,0 1 0,0 0-1,0 0 1,-1-1 0,1 1 0,-1-1 0,-1 0 0,1 1 0,-1-1-1,0-9 1,-1 14 68,1 0 1,0 0-1,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 1 0,0-1 1,1 1-1,-1-1 0,0 1 0,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,0 1 1,-1 0-1,-35 22 1128,31-16-876,0 0 0,0 0 0,1 1 0,0 0 0,1 0 0,-1 0 0,2 0 0,-5 12 0,7-18-258,1 0-1,-1 0 1,0-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1-1,-1 0 1,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0-1,4 0 1,9 0-368,1-1 0,0 0-1,0-1 1,-1-1 0,1-1-1,-1 0 1,0-1 0,0 0-1,26-15 1,-16 7-291,0-1 1,-2-2-1,0 0 0,36-33 0,-56 46 667,-1 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0-1,0 0 1,-1 0 0,3-4-1,-8-3 452,-16 10 79,13 1-310,0 1 0,1 1 1,0-1-1,-1 1 0,1 0 1,0 1-1,0 0 0,1-1 1,-1 2-1,1-1 0,-9 10 1,11-11-99,0 1 0,0-1 0,0 1 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 0,1-1 1,-1 1-1,1-1 0,0 1 1,1 0-1,-1-1 0,1 1 0,0 0 1,0 5-1,0-9-132,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1-1 0,0 0 0,2 0-30,1 0-1,-1 0 0,0 0 0,0-1 0,1 0 1,-1 0-1,0 0 0,-1-1 0,5-2 1,2-5-83,0-1-1,-1 1 1,-1-2 0,0 1 0,0-2 0,-1 1-1,0-1 1,-1 1 0,-1-2 0,0 1 0,-1-1 0,0 1-1,2-21 1,1-18-236,-2-1 0,-3-63-1,-2 99 376,0 15 308,0 5 2,0 31 265,2 0-1,1-1 1,1 1 0,3-1-1,16 55 1,-19-76-456,1 0-1,1 0 1,0 0 0,1 0-1,0-1 1,0 0 0,17 16-1,-19-21-142,2 0 0,-1-1-1,0 0 1,1-1-1,0 1 1,0-1-1,0 0 1,1-1 0,-1 0-1,1 0 1,0-1-1,0 0 1,13 2 0,-16-3-249,1-1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1-1 0,0 0 1,0 0-1,0 0 0,-1 0 0,1-1 0,0 0 0,-1 1 0,0-2 0,0 1 0,6-6 0,23-28-6006</inkml:trace>
@@ -7006,13 +7091,13 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">318 68 2481,'0'0'7057,"-2"-10"-5481,-5-47 321,-6 60-477,-68 72-1336,44-39-145,-66 48 0,92-75 24,7-6 30,0 0 1,0 0 0,0 0-1,0-1 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,0-1 1,-6 1 0,10-5-67,0 0 0,0 0 1,1 0-1,-1-1 1,1 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,1-1-1,-1 1 1,2-3-1,-1 3 60,0 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,1 1 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1 0,-1 1-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 1 1,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1-1,-1 1 1,0-1-1,1 0 1,-1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,3 3 0,8 17 105,-1 0 1,0 0 0,-2 1-1,-1 0 1,0 1-1,-2 0 1,7 43-1,10 182 358,-19-159-488,-5-83-64,7 48-615,-7-52 417,1-1-1,-1 1 0,1 0 1,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,1-1 0,-1 0 1,0 0-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,3 1 1,6-1-3136,-4-6-673</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1148.11">184 646 5891,'0'0'5930,"10"-6"-5852,19-8-414,0 1-1,1 1 1,1 2 0,-1 1 0,2 2 0,34-5 0,-20 6-1440,-21 4 286,0-1-1,0-2 1,44-14 0,-68 19 1558,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,0-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,-1-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,1 1 1,-1-1 0,0 0 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,1-1-1,-2 1 90,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,-2-1 0,-50-14 3943,48 15-3964,-1 0 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,0 1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0 0-1,1 0 1,-1 1 0,1-1-1,0 1 1,0 0 0,1 0 0,-1 0-1,1 1 1,0-1 0,0 1 0,-4 8-1,2-5-99,1 1-1,0 1 1,1-1 0,0 1-1,1-1 1,0 1-1,0 0 1,1 0 0,0-1-1,0 1 1,2 0-1,-1 0 1,2 11 0,-1-18-52,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,1 1-1,-1-1 1,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1-1 0,-1 1-1,1-1 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,3 0-1,-2 0-39,0-1-1,0 1 0,0-1 0,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 0 0,-1 0 1,0 0-1,1 0 0,3-4 0,2-3-39,0-1-1,-1 0 0,0 0 1,0-1-1,-1 0 1,-1 0-1,1 0 1,-2-1-1,7-21 0,-13 40 305,0 0-1,1-1 1,0 1-1,0 0 1,0-1-1,1 1 1,0 0-1,0-1 1,1 1-1,0-1 1,4 10-1,-6-14-221,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,0 0 1,0 0 0,3-3-1,7-5-211,0-1 0,0 0 0,-1-1-1,0-1 1,9-12 0,18-19-554,-38 43 795,1 0-1,-1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 1 1,5 13 380,0 19 134,-4-30-397,0 7-38,1-1 0,0 0 0,0 0 0,1-1 0,0 1 0,6 11 0,-8-19-95,-1 0-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0-1-1,0 1 0,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 0-1,0 1 1,0-1-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,2-2 1,11-11-6,-9 10-51,0-1 0,1 1 0,-1-1 0,1 1 0,0 1 0,6-5 0,-10 8 54,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 0,1 0 0,-1 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,1 0 0,-2-1 0,1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 2 0,0-1 16,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,1 0 0,2 0 0,-3-1-11,1-1 1,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1-1 1,0 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,2-4-1,27-38-399,-22 31 223,-1 0-1,2 1 1,16-16 0,-24 31 230,-1 1-1,1 0 1,0 0 0,-1 0-1,0 0 1,0 0-1,1 6 1,-2-6 2,2 1-36,0 1 0,-1-1 0,2 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,6 7 0,-8-12-22,-1 1 0,1 0 1,0 0-1,0 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,1-1 1,-1 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,2-2 1,3-4-53,0 0 1,-1 0-1,1-1 1,-1 1-1,-1-1 1,1 0-1,-1 0 0,-1-1 1,1 1-1,-1 0 1,-1-1-1,1-12 1,-2 21 348,2 6 75,-1 8-71,0 2-160,1 0 0,0 0 0,2 0 1,0 0-1,0-1 0,1 1 0,11 20 1,-16-35-261,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,-1-1 1,3 1-1,-2-1-50,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,3-22-4712</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1148.1">184 646 5891,'0'0'5930,"10"-6"-5852,19-8-414,0 1-1,1 1 1,1 2 0,-1 1 0,2 2 0,34-5 0,-20 6-1440,-21 4 286,0-1-1,0-2 1,44-14 0,-68 19 1558,0 0-1,-1 0 1,1 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,0-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,-1-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,1 1 1,-1-1 0,0 0 0,1 1-1,-1-1 1,0 0 0,1 0-1,-1 1 1,0-1 0,0 0 0,1-1-1,-2 1 90,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,-2-1 0,-50-14 3943,48 15-3964,-1 0 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,0 1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0 0-1,1 0 1,-1 1 0,1-1-1,0 1 1,0 0 0,1 0 0,-1 0-1,1 1 1,0-1 0,0 1 0,-4 8-1,2-5-99,1 1-1,0 1 1,1-1 0,0 1-1,1-1 1,0 1-1,0 0 1,1 0 0,0-1-1,0 1 1,2 0-1,-1 0 1,2 11 0,-1-18-52,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,1 1-1,-1-1 1,1 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,1-1 0,-1 1-1,1-1 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,3 0-1,-2 0-39,0-1-1,0 1 0,0-1 0,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 0 1,0-1-1,-1 1 0,1-1 0,0 0 0,-1 0 1,0 0-1,1 0 0,3-4 0,2-3-39,0-1-1,-1 0 0,0 0 1,0-1-1,-1 0 1,-1 0-1,1 0 1,-2-1-1,7-21 0,-13 40 305,0 0-1,1-1 1,0 1-1,0 0 1,0-1-1,1 1 1,0 0-1,0-1 1,1 1-1,0-1 1,4 10-1,-6-14-221,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,0 0-1,0 0 1,0 0 0,3-3-1,7-5-211,0-1 0,0 0 0,-1-1-1,0-1 1,9-12 0,18-19-554,-38 43 795,1 0-1,-1 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 1 1,5 13 380,0 19 134,-4-30-397,0 7-38,1-1 0,0 0 0,0 0 0,1-1 0,0 1 0,6 11 0,-8-19-95,-1 0-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0-1-1,0 1 0,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 0-1,0 1 1,0-1-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,2-2 1,11-11-6,-9 10-51,0-1 0,1 1 0,-1-1 0,1 1 0,0 1 0,6-5 0,-10 8 54,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 0 0,0-1 0,0 1 0,1 0 0,-1 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,1 0 0,-2-1 0,1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 2 0,0-1 16,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,1 0 0,2 0 0,-3-1-11,1-1 1,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1-1 1,0 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,2-4-1,27-38-399,-22 31 223,-1 0-1,2 1 1,16-16 0,-24 31 230,-1 1-1,1 0 1,0 0 0,-1 0-1,0 0 1,0 0-1,1 6 1,-2-6 2,2 1-36,0 1 0,-1-1 0,2 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,6 7 0,-8-12-22,-1 1 0,1 0 1,0 0-1,0 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,1-1 1,-1 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,2-2 1,3-4-53,0 0 1,-1 0-1,1-1 1,-1 1-1,-1-1 1,1 0-1,-1 0 0,-1-1 1,1 1-1,-1 0 1,-1-1-1,1-12 1,-2 21 348,2 6 75,-1 8-71,0 2-160,1 0 0,0 0 0,2 0 1,0 0-1,0-1 0,1 1 0,11 20 1,-16-35-261,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,-1-1 1,3 1-1,-2-1-50,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,3-22-4712</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1535.23">1305 378 6707,'0'0'5234</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2061.84">1540 627 4162,'0'0'9362,"6"-5"-8042,1-1-1269,-1-1-1,1 0 1,-1 0-1,-1-1 1,0 1 0,0-1-1,0 0 1,-1-1-1,0 1 1,-1-1-1,1 0 1,-2 0 0,1 0-1,-2 0 1,3-17-1,-1-5-149,-1 0-1,-2 0 1,-6-55-1,4 75 304,0 12-61,-3 25 37,0 41 299,4-40-250,1 0 0,1 0 1,7 37-1,-6-55-213,0-1-1,0 0 1,1 0 0,0 0-1,1 0 1,-1 0 0,2-1 0,-1 1-1,1-1 1,0 0 0,0 0-1,1-1 1,0 0 0,12 11-1,-15-15-65,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0 0,1 0 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1 0,0-1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,0-1 0,0 1 0,0 0 0,0 0-1,-1-1 1,1 1 0,2-6 0,1-1-272,1 0 1,-2-1-1,1 0 1,-1 0-1,-1 0 1,0-1-1,0 1 1,-1-1-1,2-21 1,-6 16 1379,1 25 722,0-7-1742,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,2 3 0,1-3-152,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1-1,1 0 1,-1 1 0,0-1 0,0-1 0,0 1 0,1-1 0,3-1 0,0 1-22,0-1 0,0-1 1,0 1-1,-1-1 0,0-1 1,1 1-1,9-8 0,-13 8 89,0 0-1,-1 0 1,1 0 0,-1-1 0,1 0-1,-1 1 1,0-1 0,-1-1-1,1 1 1,-1 0 0,0 0-1,0-1 1,0 0 0,0 1-1,-1-1 1,0 0 0,0 1 0,0-1-1,-1 0 1,1 0 0,-2-9-1,5-26 4053,-8 87-3662,2 1 0,2-1-1,6 56 1,-2-55-311,-2-18 41,3 28-41,-3 1 0,-7 72 1,3-115-47,0-1 1,0 0 0,-1-1 0,-1 1-1,-1 0 1,0-1 0,-1 0 0,0 0-1,-1-1 1,0 0 0,-1 0 0,-1 0 0,0-1-1,-12 11 1,17-19 27,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0-1,0 0 1,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,0 0 0,1-1 0,-1 0-1,0 0 1,0 0 0,1-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-7-2 0,6 1-18,0-1 1,0 0 0,1 0 0,-1 0 0,1 0-1,0-1 1,0 0 0,0 0 0,0-1 0,1 1 0,-1-1-1,1 0 1,0 0 0,1-1 0,0 1 0,-1-1 0,2 1-1,-1-1 1,1 0 0,-3-9 0,2 6-40,1 1 1,0 0-1,1-1 1,-1 0-1,2 1 0,-1-1 1,1 0-1,1 0 1,0 1-1,0-1 0,0 0 1,1 1-1,0-1 1,1 1-1,0 0 0,0 0 1,1 0-1,0 0 1,0 1-1,1-1 0,0 1 1,0 0-1,1 1 1,0-1-1,0 1 1,1 0-1,7-5 0,68-51-754,-4 3-4030,-60 42 431</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2648.97">2371 528 6723,'0'0'9132,"-5"-1"-8974,-9-2-189,16 2-35,31 1-30,3 0 281,-6-2-148,-1-2 1,0-1 0,0-1 0,0-1-1,-1-2 1,31-13 0,-58 22-54,0 0 0,-1-1 0,1 1 0,0 0 1,0-1-1,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 1 0,0-2 0,-1 0-27,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,-2-1 0,-47-28-596,-113-41 1976,163 72-1225,21 2-907,12 7 117,57 26 0,-76-29 535,-1 0 0,0 1 0,0 0 0,-1 1 0,0 0 0,0 1 0,13 13 0,-22-19 172,1 0 1,-1 0-1,0-1 1,0 1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,-1 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0 0-1,-1 0 1,1-1-1,-5 5 1,-9 9 225,0-2 0,-1 0 0,0-1 1,-32 17-1,20-12-229,-39 20-3766,38-28-1321</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4886.29">3614 200 4066,'0'0'6451,"0"-9"-5531,0-28-202,0 36-677,0 1 1,0-1-1,0 0 0,-1 0 1,1 1-1,0-1 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 0,0 1 1,-1 0-1,-27 14-247,7 4 243,1 1 1,0 0-1,2 2 0,1 0 0,0 1 0,2 1 0,1 1 0,0 0 0,-16 43 0,28-59-15,0-1-1,1 0 1,0 1-1,1-1 1,0 1-1,0 0 1,1-1-1,0 1 1,1 0-1,2 13 1,-2-18-15,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,1 0 0,-1-1 0,0 1 0,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,6 3 0,8 0-65,-1-1 0,1 0 0,-1-2 0,1 0 0,0-1 0,-1 0 0,1-2 0,0 0 0,-1-1 0,0 0 0,1-2 0,-1 0 0,-1-1 0,23-11 0,-37 17 35,-1-1 0,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 1 0,1-3 0,-1 2 22,-1 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,0 0 0,-1 0-1,1-1 1,0 1 0,-1 0 0,0 0 0,1 0-1,-3 0 1,-10-6 35,-1 0 1,0 2-1,-32-9 0,36 12-315,-46-10 909,19 9-4603</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5287.42">3242 861 7796,'0'0'3297,"0"0"-3280,0 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,1-1 0,-1 0-1,0 0 1,0 0-1,0 0 1,1 1-1,14 2 179,1 0-1,0 0 0,0-2 0,0 0 0,0 0 0,0-2 0,28-4 0,-34 4-148,298-46 753,-141 17-574,-90 19-121,-31 6-5,0-2-1,0-2 1,46-16 0,-74 12-129,-18 13-197,0-1 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 1,-1 0-1,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,-24-3-7145</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9108.46">4504 517 2721,'0'0'5683,"-4"-5"-4568,1 0-632,2 3-281,-1 0 0,1 0 0,0 0 1,0 1-1,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 1,1 0-1,-5-2 0,11 3-4,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0-1-1,4-2 1,9-1-113,66-12 158,-41 10-653,72-23 1,-114 30 399,-1 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,-9-9-322,-13-4-557,-35-10 450,46 21 543,0-1 1,1 0 0,-1-1-1,1 0 1,1-1 0,-17-11-1,26 17-101,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1-1-1,16 2-26,17 5-114,-24-1 110,1 1 0,-1-1 0,0 1 0,0 1 0,-1 0 1,0 0-1,0 0 0,11 16 0,-16-21 23,0 0-1,-1 1 1,1-1 0,-1 0 0,1 1-1,-1-1 1,0 1 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1-1,1 0 1,-1 1 0,0-1 0,0 0-1,0 0 1,-4 3 0,-11 8-85,-1-2-1,0 0 1,-1 0 0,-31 11-1,-4-9-4316,44-12 1570</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9108.45">4504 517 2721,'0'0'5683,"-4"-5"-4568,1 0-632,2 3-281,-1 0 0,1 0 0,0 0 1,0 1-1,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 1,1 0-1,-5-2 0,11 3-4,0-1 1,0 1 0,0-1-1,0 0 1,0 0 0,0-1-1,4-2 1,9-1-113,66-12 158,-41 10-653,72-23 1,-114 30 399,-1 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,-9-9-322,-13-4-557,-35-10 450,46 21 543,0-1 1,1 0 0,-1-1-1,1 0 1,1-1 0,-17-11-1,26 17-101,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1-1-1,16 2-26,17 5-114,-24-1 110,1 1 0,-1-1 0,0 1 0,0 1 0,-1 0 1,0 0-1,0 0 0,11 16 0,-16-21 23,0 0-1,-1 1 1,1-1 0,-1 0 0,1 1-1,-1-1 1,0 1 0,0 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1-1,1 0 1,-1 1 0,0-1 0,0 0-1,0 0 1,-4 3 0,-11 8-85,-1-2-1,0 0 1,-1 0 0,-31 11-1,-4-9-4316,44-12 1570</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9621.69">5055 233 5923,'0'0'5568,"-4"-4"-5331,3 3-234,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0-1,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,-1 1 0,-1 1-1,0 1 0,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,-4 7 1,0 0 29,0 0-1,1 0 0,0 1 1,1 0-1,0 0 1,1 1-1,0-1 1,1 1-1,0 1 1,1-1-1,0 0 1,1 1-1,0-1 1,1 1-1,1 19 0,1-26-64,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1-1,1 1 1,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0-1-1,0 1 1,0-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1-1,0 0 1,1-1 0,-1 0 0,1 1 0,0-2 0,0 1 0,-1-1 0,1 0-1,0 0 1,0 0 0,7-1 0,-7 1-26,0-1 0,0 0 1,0 0-1,0-1 0,1 1 0,6-3 0,-12 2 63,0 1 0,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0-2 1,-1 0 38,0 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1 0-1,0 1 1,0-1 0,0 1 0,-1 0 0,1-1-1,0 1 1,-1 1 0,1-1 0,-1 0-1,0 1 1,0 0 0,-6-1 0,0-1-124,-1 1 1,1 1-1,-1 0 1,0 1 0,-19 1-1,30-1-13,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,-1 1-1,1-1 1,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 1 1,0 4-2937</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10020.93">5173 455 5715,'0'0'6082,"-3"-12"-10195,20 15 1663,3-2-2672</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10021.93">5417 325 6531,'0'0'6382,"-5"6"-6254,3-4-122,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,4 2 0,36 37 146,-33-34-132,0 0 0,0 0 0,-1 1-1,0-1 1,0 2 0,-1-1 0,0 1 0,8 17 0,-14-25-81,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-3 0 1,1 1-323,-1-1 1,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-5-2 0,-9-5-4831</inkml:trace>
@@ -7054,17 +7139,17 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">342 0 5619,'-2'0'10941,"-19"2"-10875,-204 33-1007,220-35 895,0 0 1,1 1 0,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-1-1,1 1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 1 0,-6 6-1,7-5 12,0 0-1,1 0 1,-1 1-1,1-1 0,0 1 1,0 0-1,1-1 1,0 1-1,-1 0 1,2 0-1,-1 0 0,0 0 1,1 10-1,2 96 238,6 0 0,22 119 0,-2-20 175,-25-176-379,-3-22-63,0 0-1,2-1 1,-1 1-1,1-1 1,1 1-1,0-1 0,7 16 1,-9-26-95,-1 0 0,1 0 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1-1,1-1 1,0 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,14-28-3421</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="435.92">126 668 7299,'0'0'6611,"9"-4"-6285,110-43-133,-90 39-552,0-2-1,-1-1 1,0-2 0,0-1 0,-2 0 0,49-37 1030,-75 62 190,-1 29 143,-1-20-762,2 1 0,0 0 0,1-1 0,2 1 0,4 20 0,-6-37-252,0 0 0,0 0 0,0 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,8 0 0,-10 0 11,-1 0 0,1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,2-4 0,0 1 14,-1 0-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 0,2-9 1,0-7 56,-2 0 1,-1-39-1,-1 53-68,1 5-2,0-2-11,1 0 1,-2-1-1,1 1 0,0 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,0 0-1,0 1 1,-4-7-1,13 13-7327,20 1 3402,-2-2 454</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="435.91">126 668 7299,'0'0'6611,"9"-4"-6285,110-43-133,-90 39-552,0-2-1,-1-1 1,0-2 0,0-1 0,-2 0 0,49-37 1030,-75 62 190,-1 29 143,-1-20-762,2 1 0,0 0 0,1-1 0,2 1 0,4 20 0,-6-37-252,0 0 0,0 0 0,0 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,8 0 0,-10 0 11,-1 0 0,1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,2-4 0,0 1 14,-1 0-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 0,2-9 1,0-7 56,-2 0 1,-1-39-1,-1 53-68,1 5-2,0-2-11,1 0 1,-2-1-1,1 1 0,0 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,0 0-1,0 1 1,-4-7-1,13 13-7327,20 1 3402,-2-2 454</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="825.14">879 485 4802,'0'0'8095,"-1"10"-6802,-1 7-773,-2 13 54,2 0 0,1 46 0,1-75-580,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,1 1 0,0-2-14,-1 1 1,1-1-1,0 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 1 0,1-2 0,-1 1 1,0 0-1,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,0-1 1,-1 1-1,2-2 0,24-64-546,-22 53 352,1 0 0,1 0 0,11-21 1,-16 35 236,-1-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,8 15 90,-8-14 26,19 46 861,12 26-104,-28-67-1061,0 0 1,0-1-1,1 0 0,0 1 1,0-1-1,0-1 0,0 1 0,1-1 1,6 6-1,-8-8-232,1 0 1,-1-1-1,1 1 0,-1-1 1,1 1-1,0-1 0,0 0 1,0-1-1,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,4-1 1,1-2-348,0 1 0,0-2 0,-1 1 1,1-1-1,-1 0 0,11-10 0,9-10-1770</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1351.34">1306 547 2593,'0'0'9935,"-7"-7"-8886,5 5-1011,0 0 25,1 0-1,-1 0 1,0 0-1,0 0 1,-1 0-1,1 1 0,0-1 1,-1 1-1,1-1 1,-4-1-1,5 3-43,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1 0,1-1 0,0 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,0-1 0,-1 1-1,-8 27 548,7-19-411,1 1 0,0-1 0,0 1 0,1 0 0,0-1 0,1 1 0,0-1 0,1 1 0,3 11 0,-4-17-147,1-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 1,1 0-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,6 0 0,0-1-45,0 0-1,0-1 1,0 1-1,0-2 1,0 0-1,0 0 1,0-1-1,-1 0 0,1 0 1,-1-1-1,0 0 1,0-1-1,-1 0 1,1 0-1,-1-1 1,0 0-1,-1-1 0,1 0 1,-1 0-1,11-15 1,-7 9-143,-1-1 1,-1 0-1,-1 0 1,0-1-1,0 0 1,-2-1-1,0 1 1,0-1-1,-2 0 1,0-1-1,3-29 1,-7 42 173,3-16-8,-2-1 0,-1 0 0,0 0 0,-2 0 0,0 1 0,-9-38 0,11 57 82,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 1-1,0-1 1,1 0-1,-1 0 1,-2 0-1,3 1-25,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 1 0,0-1 1,-1 1-1,1 0 0,0 1 1,-5 49 278,6-33-308,0 0 1,2-1-1,-1 1 0,2-1 1,1 0-1,0 0 0,11 25 1,-12-33-138,0-1 0,1 1 0,-1-1 0,2 0-1,-1 0 1,1-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,17 7 0,-23-11 53,1 0 0,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,1-1 1,-1 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,2-5 1,0-1 135,0 0 1,-1 0-1,0 0 0,0 0 1,-1 0-1,0-1 1,-1 1-1,0-1 0,1-15 1,-16 72 2215,11-25-2012,1 1 0,2 28 0,0-46-481,0 0-1,1 1 0,0-1 1,0 0-1,0 0 1,1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,1-1-1,1 1 0,5 7 1,-2-8-5039</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1692.52">1560 474 8180,'0'0'8596,"64"-31"-8708,-8 17-1313,5-2-1248,2-4-1457,-7 0-272</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1693.52">1926 268 6163,'0'0'6451,"-27"-18"-12742,35 29 2241</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2278.72">2063 392 3185,'0'0'9133,"-7"12"-7140,-23 41-345,29-52-1599,0 0 0,0 1-1,1-1 1,-1 1-1,0-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,1 1-1,0 0 1,0-1-1,-1 1 1,1 0 0,0-1-1,1 1 1,-1 0 0,0-1-1,0 1 1,1-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0 0,-1-1-1,1 1 1,0-1 0,1 1-1,7 1-28,0 0-1,0-1 1,0 0-1,0 0 0,12-2 1,-20 1 9,6 0-76,-1-2 0,1 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,11-7 0,-15 8-96,1 0 0,-1 0 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,0 0 0,0 0 0,0-5-1,-1 8 117,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1 0,0-1-1,0 0 1,1 1-1,-1-1 1,0 1 0,0-1-1,-1 0 1,-33-5 38,27 5 311,0 2-1,0-1 1,0 1 0,0 1-1,0-1 1,-12 5 0,19-5-285,-1-1 0,1 1 1,0-1-1,-1 1 0,1-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 2 0,16 1-448,39-12-207,-38 3 349,-1-1 109,1 0-1,1 2 1,-1 0-1,1 0 1,0 2-1,21-1 0,-37 3 185,0 0 0,0 0 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0 0,0 3 0,1 51 1340,-2-25-712,2-30-656,-1 1-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 0,1 1 1,-1 0-1,1 0 0,-1-1 0,0 1 0,1 0 1,-1-1-1,1 1 0,19-13-34,33-44-1220,-41 42 571,1 0 1,0 2 0,1 0 0,30-23-1,-43 36 741,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,-1 0 0,1-1 1,1 2-1,17 42 2498,-1-2-802,-17-40-1726,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 1,2 1-1,-2-1-144,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1-1-1,1-1 1,10-22-5234,-8 3-3010</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2278.71">2063 392 3185,'0'0'9133,"-7"12"-7140,-23 41-345,29-52-1599,0 0 0,0 1-1,1-1 1,-1 1-1,0-1 1,1 1 0,-1-1-1,1 1 1,-1-1 0,1 1-1,0 0 1,0-1-1,-1 1 1,1 0 0,0-1-1,1 1 1,-1 0 0,0-1-1,0 1 1,1-1-1,-1 1 1,1 0 0,-1-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0-1 1,1 1-1,-1 0 1,1 0 0,-1-1-1,1 1 1,0-1 0,1 1-1,7 1-28,0 0-1,0-1 1,0 0-1,0 0 0,12-2 1,-20 1 9,6 0-76,-1-2 0,1 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,11-7 0,-15 8-96,1 0 0,-1 0 0,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,0 0 0,0 0 0,0-5-1,-1 8 117,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 1 1,0-1-1,1 0 1,-1 1 0,0-1-1,0 0 1,1 1-1,-1-1 1,0 1 0,0-1-1,-1 0 1,-33-5 38,27 5 311,0 2-1,0-1 1,0 1 0,0 1-1,0-1 1,-12 5 0,19-5-285,-1-1 0,1 1 1,0-1-1,-1 1 0,1-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 2 0,16 1-448,39-12-207,-38 3 349,-1-1 109,1 0-1,1 2 1,-1 0-1,1 0 1,0 2-1,21-1 0,-37 3 185,0 0 0,0 0 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 1 0,1-1 0,-1 0 0,0 3 0,1 51 1340,-2-25-712,2-30-656,-1 1-1,0-1 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 0,1 1 1,-1 0-1,1 0 0,-1-1 0,0 1 0,1 0 1,-1-1-1,1 1 0,19-13-34,33-44-1220,-41 42 571,1 0 1,0 2 0,1 0 0,30-23-1,-43 36 741,0-1-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,-1 0 0,1-1 1,1 2-1,17 42 2498,-1-2-802,-17-40-1726,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 1 0,1-1 1,2 1-1,-2-1-144,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1-1-1,1-1 1,10-22-5234,-8 3-3010</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3957.99">1329 922 6547,'0'0'5136,"-5"8"-5038,-10 18 145,2 0-1,1 1 0,1 0 0,2 1 1,-11 47-1,9-19 169,2 1 0,-2 63 0,11-108-379,-1-8 19,1 1 1,0-1 0,0 0 0,0 1 0,1-1-1,-1 0 1,3 7 0,-3-9-30,1-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,1 1 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,2 0 0,20-2 71,-1-1 0,1-1 0,-1-1 0,0 0 0,0-2 0,-1-1 0,39-19 0,-7 4-27,225-99 370,-278 119-1239,0 1 1,0-1 0,0 0 0,0 1 0,-1-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,-3-2 0,3 2 50,-28-41-1800,-7 11 3501,17 22 2180,0 0 0,-31-13 0,39 19-1609,23 6 1137,24 2-2917,-15 2 266,-1 1-1,0 1 1,-1 0-1,1 2 0,27 16 1,-42-22-1,-1 0 0,0 0 0,0 0 0,0 0-1,0 1 1,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,-2 8 0,1-6 76,0-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,-1 0-1,0 0 1,0-1-1,-1 1 1,1-1-1,-9 7 1,-6 4 594,-43 27 0,47-35-905,1 2-1,0 0 1,0 1-1,1 0 1,-18 20 0,22-13-6120,6-12 1174</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4869.64">1160 1378 2273,'0'0'6112,"-6"-6"-4827,6 6-1276,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0 550 4988,-1-547-4984,1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 1,1 0-1,-1 0 0,0-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 1,4 4-1,-2-4-7,1 0 0,-1 0-1,1 0 1,-1-1 0,1 1 0,0-1 0,0 0 0,0-1 0,-1 1 0,1-1 0,9 0 0,32-1-52,0-1 0,-1-2 1,0-3-1,0-1 0,-1-2 1,0-3-1,77-31 0,-112 39 2,0 0-1,-1 0 0,1-1 1,-1-1-1,-1 1 0,1-1 0,7-9 1,-13 14 1,0 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,0 0 0,0-1 1,1 1-1,-1 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,-1-1 0,1 1 1,-1-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,-1-1 1,1 1-1,-1 0 0,0-1 0,1 1 1,-1 0-1,0-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 0,-2-2 0,-1 1 2,1 1 0,-1-1-1,1 0 1,-1 1-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,-1 1-1,1 0 1,0 0-1,-5 0 1,-66-1 1123,43 2-287,77 22-2094,-30-16 1275,-1 1 1,1 1 0,-1 0-1,-1 0 1,19 16-1,-30-23 68,0 1-1,0 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1 0-1,-1-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,0-1 1,0 1-1,0-1 0,-1 0 0,1 1 1,0-1-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,-4 3 0,-70 60 200,24-23-6913,29-26 1863</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5645.75">1241 1907 2513,'0'0'5899,"1"-7"-5053,6-19-479,-3 47 607,-2 62 1202,-2-76-2014,-2 129 1586,5 154 492,-3-284-2207,1-1 0,-1 0 0,1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,6 5 1,-4-5-8,1 0 0,0 0 1,-1 0-1,1-1 1,1 0-1,-1-1 1,0 0-1,1 0 1,-1 0-1,16 1 0,-1-3-16,0 0-1,1-1 0,-1-1 0,0-1 1,0-1-1,0-1 0,27-11 1,-37 13-161,-1-2 1,0 0 0,0 0 0,-1-1 0,1 0 0,-2-1-1,1 0 1,-1-1 0,10-10 0,-15 14-213,0-1-1,0 0 1,0 0 0,-1-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,-1 0-1,0 0 1,-1 0 0,0 0 0,0 0-1,0 0 1,0-1 0,-1 1 0,0 0-1,-1 0 1,0-7 0,-1 7 278,0 1 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0 1-1,-1-1 1,1 0-1,-1 1 0,0 0 1,0 0-1,-1 0 1,-7-5-1,9 6 579,-1 1-1,1 0 0,-1-1 0,0 1 1,0 1-1,1-1 0,-1 0 0,-1 1 1,1 0-1,0 0 0,-6-1 0,17 11-295,11 7-170,1-1 0,29 18 0,-27-18 30,0 0 0,22 21 1,-41-34-11,0-1 0,0 2 1,-1-1-1,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,0 1-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0 0 1,-1-1-1,0 1 0,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-4 3 0,-8 10 551,1-2-1,-2 1 0,-28 20 1,21-16-345,-4 3-187,21-18-3191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7306.69">2508 847 3794,'0'0'2161,"-9"-10"-3490,6 12 289,-1 5-337,1-3-768</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7865.47">2508 847 1905,'-13'7'378,"9"-9"2921,-7-8 2463,10 32-4092,-4 105-65,0-44-744,9 117 0,-13-251-901,1 16-124,2-1 1,2 0-1,1 0 0,2 0 1,4-49-1,-3 83 164,0 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 1 0,1 0 1,-1-1-1,1 1 0,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,5 2 8,-1-1-1,0 1 1,0 0-1,-1 0 1,1 1-1,-1 0 1,0 0-1,6 5 1,8 14 88,0 0 1,19 32 0,-27-36-91,2 0 0,0-2 0,0 1-1,2-2 1,29 27 0,-43-42-8,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0-1 0,1-1 0,2-13-33,1 0 0,-2 0 1,1-28-1,-2 27 26,4-56 220,-6-104 0,-5 153 444,2 17-241,2 15-1131,3 96-6481,4-58 2977</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7865.46">2508 847 1905,'-13'7'378,"9"-9"2921,-7-8 2463,10 32-4092,-4 105-65,0-44-744,9 117 0,-13-251-901,1 16-124,2-1 1,2 0-1,1 0 0,2 0 1,4-49-1,-3 83 164,0 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 1 0,1 0 1,-1-1-1,1 1 0,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 0,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 0,5 2 8,-1-1-1,0 1 1,0 0-1,-1 0 1,1 1-1,-1 0 1,0 0-1,6 5 1,8 14 88,0 0 1,19 32 0,-27-36-91,2 0 0,0-2 0,0 1-1,2-2 1,29 27 0,-43-42-8,0 0 0,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0-1 0,1-1 0,2-13-33,1 0 0,-2 0 1,1-28-1,-2 27 26,4-56 220,-6-104 0,-5 153 444,2 17-241,2 15-1131,3 96-6481,4-58 2977</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8978.53">3092 957 4130,'0'0'3476,"-10"-11"-1253,-33-34-449,40 42-1605,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 1 0,-5-1 0,6 1-109,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,1 1 0,-1-1-1,0 1 1,1 0 0,-1-1 0,1 1-1,0 0 1,-1 0 0,-2 4-1,0 0-29,1 1-1,-1 0 0,1 0 0,0 0 1,1 1-1,0-1 0,0 1 0,1-1 0,-1 1 1,2 0-1,-1 0 0,0 16 0,2-17-20,0 0 0,1-1 0,0 1-1,0 0 1,0-1 0,1 1 0,0-1 0,0 1-1,1-1 1,0 0 0,0 0 0,0 0 0,6 6-1,-7-9-28,0-1 0,1 1-1,-1-1 1,1 0-1,0 1 1,0-1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 0-1,1 0 1,-1-1 0,0 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 0-1,4-2 1,-3 1-63,-1 0-1,1 0 1,-1-1 0,1 0 0,-1 0-1,0 0 1,0-1 0,0 1-1,-1-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0-1-1,2-7 1,-1 0 55,0 0 0,0-1 0,-1 1 1,-1 0-1,0-1 0,0 1 0,-2-14 0,-3 22 2236,-2 11-1478,-4 11-538,8-8-103,1-1 1,0 0-1,0 0 0,1 1 1,0-1-1,0 0 1,1 1-1,0-1 1,3 11-1,-3-17-109,0 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,1 1-1,-1-1 1,0 0 0,0-1 0,1 1 0,-1 0 0,1-1-1,-1 1 1,1-1 0,0 0 0,0 0 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,4-1 0,-2 0-37,-1 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1 0,-1-1-1,0 0 1,0-1 0,-1 1 0,1-1 0,0 1-1,-1-1 1,0 0 0,1-1 0,-1 1 0,4-6-1,3-6-138,-1 0 1,0-1-1,8-20 0,16-25 179,-24 104 1233,-8-39-1148,1 7 13,-1-1-1,2 1 0,0-1 0,5 15 0,-7-23-83,-1-1 0,1 0 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,1-1-1,4-5-53,-1 0-1,0 0 1,0 0-1,-1-1 1,0 0-1,0 0 1,-1-1-1,0 1 1,0-1-1,4-14 1,1 0-103,-5 13 151,-3 7 17,0-1 1,0 0-1,1 0 0,-1 1 1,1-1-1,0 1 0,0-1 1,0 1-1,1 0 0,3-3 1,-1 32 631,-4-7-393,-1-14-213,0 0 1,0 0-1,0 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,0 0 1,0-1-1,0 1 0,1-1 1,-1 1-1,7 6 1,-8-10-35,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 1 0,0-2 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 1,1-2-1,36-38-172,-33 33 89,21-26-116,-19 23 40,-1 1 1,1 1-1,1-1 1,0 1-1,17-14 1,-25 24 164,-1-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 1 0,-1-1-1,1 0 1,-1 1 0,0-1 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 1 0,0-1-1,0 1 1,0-1 0,1 0 0,-1 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1-1,3 24 159,-3-21-85,1 14-4,0-9 1,0 1-1,0 0 1,0-1 0,5 15 0,-5-21-67,0 0-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 0,-1-1 1,1 1-1,0-1 0,0 0 1,2 0-1,9 0-20,1-1-1,-1-1 1,0-1 0,1 1-1,-1-2 1,-1 0 0,1-1 0,-1 0-1,1 0 1,-1-2 0,-1 1 0,1-2-1,-1 1 1,12-12 0,-15 13 3,-1-1 0,0 0 0,0 0 1,-1 0-1,0-1 0,0 1 0,0-1 1,-1-1-1,-1 1 0,1-1 0,-1 0 1,-1 0-1,0 0 0,0 0 0,-1-1 0,0 1 1,0-1-1,-1 0 0,0 1 0,-2-13 1,1 19 8,0 1 1,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1-1,-1-1 1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0-1,-1 1 1,1 0 0,0 0 0,-1 0 0,-1 0 0,-2 0 13,0 0 1,1 1-1,-1-1 0,1 2 1,-1-1-1,1 0 1,0 1-1,-1 0 1,1 0-1,0 1 0,0-1 1,0 1-1,-6 5 1,5-3 31,1-1 1,0 2-1,1-1 0,-1 0 1,1 1-1,0 0 0,0 0 1,0 0-1,1 0 1,0 1-1,1-1 0,-1 1 1,1 0-1,0-1 1,1 1-1,0 0 0,0 0 1,0 0-1,1 11 0,1-13-41,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,8 1 0,4 2-59,0-2 1,0 0 0,1-1 0,-1 0-1,25-2 1,-32 0-296,-1-1 0,0 0 0,0 0 0,1-1 0,-1 0 0,0-1-1,-1 0 1,1 0 0,0-1 0,-1 0 0,15-9 0,-22 12 16,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 1,0-1-1,0 1 1,-1-1-1,1 1 1,-1 0-1,0-1 0,1 1 1,-1-1-1,0-1 1,1-9-4673</inkml:trace>
 </inkml:ink>
 </file>
@@ -7100,7 +7185,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4285.8">1984 548 3185,'0'0'8468,"1"-4"-7328,10 274 2421,-15-299-2936,0 5-752,1 1-1,1-1 0,1 1 0,2-1 0,0 1 1,5-28-1,-6 49 117,0 0 1,1 0-1,0 1 1,-1-1 0,1 0-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1 0,1-1-1,-1 1 1,0-1-1,1 1 1,-1 0-1,4-2 1,-4 2 3,1 1 0,-1-1 1,0 1-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,0-1 1,2 2-1,3 2 37,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,0 0 0,6 9 0,15 34 167,-20-36-167,1 0 0,0-1 0,1 0 0,0 0 0,12 14 0,-18-24-29,-1-1 0,0 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 0,-1 0 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,0 0 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1 0 1,1-2-1,13-23-36,-11 19 17,8-19-227,-1-1 0,9-34 0,-12 32 65,2 2 0,14-30-1,-15 88 1280,-4 19-19,-4-33-997,1 0 0,1 1-1,1-1 1,0 0 0,1-1 0,1 1 0,1 0-1,8 18 1,-12-34-296,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1-1 0,0 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0-1 0,-1 0 0,1 0 0,3 0-1,-1 0-378,0 0 0,1-1-1,-1 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,7-5 0,18-18-2965</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5216.09">2522 556 5378,'0'0'6753,"-12"12"-5187,-36 39-67,46-47-1445,-1-1 0,1 1 0,0 0 0,-1 0 0,2-1 0,-1 2 0,0-1 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 1 1,0-1-1,0 0 0,0 1 0,1-1 0,0 0 0,1 5 0,-2-6-57,1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,4 0 0,-2 0-106,0-1 0,-1 0 1,1-1-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 0 0,-1 1 0,1-1 1,-1-1-1,4-3 0,-5 5 27,0-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,-1-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,-1 1 0,1-1-1,-1 1 1,0 0 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1 0-1,-2-3 1,0 1 110,1 1 0,-2-1 0,1 1 0,0 0-1,-1 0 1,0 0 0,0 1 0,0 0 0,-8-4 0,-10-7 1342,23 13-1346,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1-1-1,0 1 1,0 0 0,0 0-1,1-1 1,-1 1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,0-1 1,1 1 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,1 0 0,18-4-224,4-1-48,-9 2 4,1 0 1,0 1 0,-1 0-1,1 1 1,25 2-1,-39-1 274,0 1-1,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 3 1,2 51 1579,-3-34-827,1-16-698,0 1 0,0-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,2-1 0,-1 1 0,4 4 0,-6-8-87,0 1 0,1-1 0,-1-1 1,0 1-1,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 1,-1-1-1,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,3 0 0,-2-1-2,0 1-1,0-1 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,-1-1 1,1 1-1,-1-1 0,0 0 1,1 0-1,0-2 1,1-1-143,1-1 0,-2 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 1 0,-1 0 0,1 0 0,-4-10 0,3 12 117,0 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0 0 1,-1-1-1,1 1 0,0 0 1,-1 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,-1 0 0,1 0 1,0 1-1,-1-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 0,1-1 1,-8 1-1,-11 5 912,13 0-754,13 1-766,4-4 541,0-1 0,0 0 1,0 0-1,0 0 1,0-1-1,0-1 1,0 1-1,0-1 1,0 0-1,12-4 1,8 0-42,-26 4 151,0 1 0,1-1 0,-1 1-1,1 0 1,-1-1 0,1 1 0,-1 1-1,1-1 1,-1 0 0,1 0-1,-1 1 1,0 0 0,1-1 0,-1 1-1,1 0 1,-1 0 0,0 0 0,0 0-1,0 1 1,4 2 0,-3 0 131,-1 1-1,1-1 1,-1 0 0,0 1 0,0-1-1,-1 1 1,1 0 0,0 9 0,1-4 75,8 15 593,-10-25-798,-1 1-1,0-1 1,1 0 0,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1-1-1,3-2-21,0 0 0,0 0-1,0 0 1,-1 0 0,1-1-1,-1 0 1,4-5 0,-2 2-36,10-11-270,-11 11 177,0 1-1,1-1 0,0 1 0,0 1 1,0-1-1,1 1 0,0 0 0,0 0 1,12-7-1,-18 54 1662,0-38-1401,0 1 0,1 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 1 0,0-1-1,1 1 1,0-1 0,0 0 0,0 0 0,1 1-1,-1-2 1,7 8 0,-7-9-203,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,3-2 0,10-7-3280,-3 1-2405</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6080.58">3607 236 6547,'0'0'7161,"0"11"-6860,3 349 2730,-19-375-3023,9 2-98,1 0 1,0-1-1,1 0 0,0-1 1,1 1-1,1-1 1,0 0-1,1 1 1,0-1-1,1 0 0,1-1 1,1 1-1,0 0 1,1 1-1,0-1 0,1 0 1,1 0-1,9-21 1,-11 30 79,1 1 1,1-1 0,-1 1 0,1 0-1,0 0 1,0 1 0,0-1 0,1 1 0,-1 0-1,1 0 1,0 0 0,0 1 0,1-1-1,-1 1 1,1 0 0,0 1 0,-1 0-1,1 0 1,0 0 0,0 0 0,1 1-1,-1 0 1,0 1 0,0-1 0,0 1-1,1 0 1,6 1 0,-12 0 15,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 0 0,-1 0 0,1 3 0,0 0 29,-1 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,-4 8 0,-1-2 19,-1-1 0,0 1 0,-1-1 0,0 0 1,-17 14-1,14-13 0,0 1 1,-18 25-1,28-36-90,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,1 1 0,36 23 47,-26-17-173,-9-5 151,0-1 1,0 1-1,-1 0 0,1 1 1,0-1-1,-1 0 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,1 3-1,-1-3 49,-1-1-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,-1 1 0,1-1-1,-1 1 1,1-1 0,-1 0 0,0 1-1,1-1 1,-4 1 0,-67 41 1158,22-25-5756,44-17-403</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7904.43">3747 441 8036,'0'0'2833,"14"2"-1166,44 8-559,-54-9-1060,-1 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 1,-1 1-1,1 4 0,-1-6 2,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,-1 0 1,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1-1,-2 0 1,3 0 13,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0-2-69,0 1 0,0-1 1,0 0-1,0 1 0,1-1 1,0 1-1,-1-1 0,2 1 1,-1 0-1,1-1 0,-1 1 1,4-5-1,-1 4-180,0 1 1,1 1-1,-1-1 1,1 0-1,0 1 0,0 0 1,0 0-1,1 1 1,-1-1-1,1 1 1,-1 1-1,1-1 0,0 1 1,7-2-1,14 0-1452,53 0 0,-12 1 724,-58-1 1130,-15-2 650,-18-2 605,18 8-1340,0 0 1,-1-1-1,1 2 0,0-1 0,0 1 0,0-1 0,0 1 1,0 1-1,1-1 0,-1 1 0,0 0 0,1 0 0,0 0 1,0 0-1,0 1 0,-6 7 0,7-8-42,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,0 0-1,0 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,0 1 1,0-1-1,0 1 0,1 0 0,0-1 1,0 1-1,0 0 0,2 8 0,-2-12-93,1 1 0,0-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,2-1-1,40-5-391,-36 1 66,0 1 0,0-1 0,0-1 0,0 0-1,-1 0 1,0 0 0,0-1 0,0 0 0,8-12 0,-9 11 80,-1 1 0,1 0 0,1 1 0,-1-1 0,1 1 0,0 1 0,1-1 0,-1 1 0,1 0 0,11-4 0,-19 11 524,1 1-1,-1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,-2 5-1,-2 7 307,2-7-394,0 0-1,0 0 0,1 0 1,0 1-1,0-1 0,1 1 1,0-1-1,0 1 0,1-1 0,0 1 1,1 13-1,0-20-195,1 1 0,-1 0 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,3-1 0,53-10-842,-7-6 1116,-13 4-221,0-1 0,50-26 0,-75 32-212,-1 0 0,0 0-1,0-1 1,-1 0-1,0-1 1,-1-1-1,0 1 1,-1-2 0,0 1-1,11-19 1,-10 12-332,0-1 0,-1-1 0,0 0 1,-2 0-1,0 0 0,-2-1 0,0 0 0,-1 0 0,-1 0 1,0-43-1,-9 40 2838,6 24-2278,-1 0 0,1 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 1 0,-1-1 0,-2 4 82,0 1-1,0-1 1,0 1 0,0 0-1,1-1 1,-3 8-1,-6 24-129,2 1-1,2-1 0,1 1 0,2 0 1,1 70-1,16-125-3475,-5 8 3043,19-35-1430,-18 28 1987,0 2 0,0-1 0,2 1 0,0 1 0,1 0 0,13-14 0,-25 28-52,1 0 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 1 1,0 15 1472,-11 21-568,1-22-939,-2-1-1,0 0 1,0-1 0,-1 0-1,-1-1 1,0-1-1,-1 0 1,-28 16 0,42-27-88,1 1 0,0-1 1,-1 0-1,1 0 1,-1 1-1,1-1 0,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1 0-1,1-1 1,-1 1-1,1-17-238,1 14 274,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-1 0 1,0 0 0,1-1-1,0 1 1,0 0-1,0 1 1,-1-1-1,5-2 1,-5 3 20,1 0-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1-1,0 0 1,2 2 0,2 2 120,0 1 1,0 0-1,0 0 0,8 11 1,-11-12-97,-1-1 0,2 0 0,-1 1-1,0-2 1,1 1 0,0 0 0,-1-1 0,2 1 0,-1-1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0-1,5 2 1,0-3-13,0-1 0,1 0-1,-1 0 1,0-1 0,0 0-1,0-1 1,-1 0 0,1-1-1,0 0 1,-1 0 0,0-1-1,1 0 1,-1-1-1,-1 0 1,1-1 0,-1 1-1,12-12 1,-13 11-282,0-1-1,-1 0 1,1-1 0,-1 1 0,-1-1-1,0-1 1,0 1 0,0-1-1,-1 0 1,-1 0 0,5-13 0,-19 30 1382,-5 11-644,12-12-393,1 0 0,-1 0 0,2 1 1,-1-1-1,1 1 0,0 0 0,0-1 1,1 1-1,0 0 0,1 0 0,0 14 1,0-20-92,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,3 2 0,-3-3 7,1 1 1,0-1-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,4-1 1,2-1-14,0-1 1,1 0-1,-2-1 1,1 0 0,0 0-1,-1-1 1,0 0-1,-1-1 1,13-12 0,-4 2-96,0-2-1,25-39 1,-29 36-217,-1 0-1,0 0 0,-2-1 1,0 0-1,-2-1 0,-1 0 0,0 0 1,-2 0-1,-1-1 0,0-37 0,-3 62 361,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 0 0,0 1 0,-10 8 255,3 2-228,1-1 0,0 1 0,0 0 1,1 1-1,1 0 0,0-1 0,1 1 1,0 1-1,1-1 0,0 0 0,0 0 1,2 1-1,0-1 0,0 1 0,1-1 1,0 1-1,5 16 0,-4-24-48,0 1 0,0-1 0,1-1 0,-1 1-1,1 0 1,0-1 0,1 1 0,-1-1 0,1 0-1,0 0 1,0 0 0,7 4 0,-10-6-5,0-1 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,-1 0 1,1-1-1,0 1 0,-1-1 0,1 0 1,0 1-1,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0-1 0,0 1 0,1-3 1,9-16-18,17-43 1,-21 45-296,0 0 0,2 0 0,16-26 0,-25 44 304,1-1 1,-1 1 0,0 0 0,0-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 1 0,-1-1-1,1 0 1,13 20 624,0 29 1314,-12-43-1882,-1 0-1,0-1 1,-1 1 0,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,0-1-1,-1 1 1,0 0 0,1-1 0,-2 1-1,-3 6 1,4-8-262,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1-1,0-1 1,0 1 0,-6 2 0,3-2-534,0 0 0,1-1 0,-1 0 0,0-1 0,0 1-1,0-1 1,-7 1 0,-22-1-5614</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7904.42">3747 441 8036,'0'0'2833,"14"2"-1166,44 8-559,-54-9-1060,-1 0 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 1,0 1-1,0 0 0,-1 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 1,-1 1-1,1 4 0,-1-6 2,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1-1,-1 0 1,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1-1,-2 0 1,3 0 13,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0-2-69,0 1 0,0-1 1,0 0-1,0 1 0,1-1 1,0 1-1,-1-1 0,2 1 1,-1 0-1,1-1 0,-1 1 1,4-5-1,-1 4-180,0 1 1,1 1-1,-1-1 1,1 0-1,0 1 0,0 0 1,0 0-1,1 1 1,-1-1-1,1 1 1,-1 1-1,1-1 0,0 1 1,7-2-1,14 0-1452,53 0 0,-12 1 724,-58-1 1130,-15-2 650,-18-2 605,18 8-1340,0 0 1,-1-1-1,1 2 0,0-1 0,0 1 0,0-1 0,0 1 1,0 1-1,1-1 0,-1 1 0,0 0 0,1 0 0,0 0 1,0 0-1,0 1 0,-6 7 0,7-8-42,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,0 0-1,0 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,0 1 1,0-1-1,0 1 0,1 0 0,0-1 1,0 1-1,0 0 0,2 8 0,-2-12-93,1 1 0,0-1-1,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,2-1-1,40-5-391,-36 1 66,0 1 0,0-1 0,0-1 0,0 0-1,-1 0 1,0 0 0,0-1 0,0 0 0,8-12 0,-9 11 80,-1 1 0,1 0 0,1 1 0,-1-1 0,1 1 0,0 1 0,1-1 0,-1 1 0,1 0 0,11-4 0,-19 11 524,1 1-1,-1-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,-2 5-1,-2 7 307,2-7-394,0 0-1,0 0 0,1 0 1,0 1-1,0-1 0,1 1 1,0-1-1,0 1 0,1-1 0,0 1 1,1 13-1,0-20-195,1 1 0,-1 0 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,3-1 0,53-10-842,-7-6 1116,-13 4-221,0-1 0,50-26 0,-75 32-212,-1 0 0,0 0-1,0-1 1,-1 0-1,0-1 1,-1-1-1,0 1 1,-1-2 0,0 1-1,11-19 1,-10 12-332,0-1 0,-1-1 0,0 0 1,-2 0-1,0 0 0,-2-1 0,0 0 0,-1 0 0,-1 0 1,0-43-1,-9 40 2838,6 24-2278,-1 0 0,1 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 1 0,-1-1 0,-2 4 82,0 1-1,0-1 1,0 1 0,0 0-1,1-1 1,-3 8-1,-6 24-129,2 1-1,2-1 0,1 1 0,2 0 1,1 70-1,16-125-3475,-5 8 3043,19-35-1430,-18 28 1987,0 2 0,0-1 0,2 1 0,0 1 0,1 0 0,13-14 0,-25 28-52,1 0 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,0 1 1,0 15 1472,-11 21-568,1-22-939,-2-1-1,0 0 1,0-1 0,-1 0-1,-1-1 1,0-1-1,-1 0 1,-28 16 0,42-27-88,1 1 0,0-1 1,-1 0-1,1 0 1,-1 1-1,1-1 0,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1 0-1,1-1 1,-1 1-1,1-17-238,1 14 274,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,1 1-1,-1 0 1,0 0 0,1-1-1,0 1 1,0 0-1,0 1 1,-1-1-1,5-2 1,-5 3 20,1 0-1,0 0 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1-1,0 0 1,2 2 0,2 2 120,0 1 1,0 0-1,0 0 0,8 11 1,-11-12-97,-1-1 0,2 0 0,-1 1-1,0-2 1,1 1 0,0 0 0,-1-1 0,2 1 0,-1-1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0-1,5 2 1,0-3-13,0-1 0,1 0-1,-1 0 1,0-1 0,0 0-1,0-1 1,-1 0 0,1-1-1,0 0 1,-1 0 0,0-1-1,1 0 1,-1-1-1,-1 0 1,1-1 0,-1 1-1,12-12 1,-13 11-282,0-1-1,-1 0 1,1-1 0,-1 1 0,-1-1-1,0-1 1,0 1 0,0-1-1,-1 0 1,-1 0 0,5-13 0,-19 30 1382,-5 11-644,12-12-393,1 0 0,-1 0 0,2 1 1,-1-1-1,1 1 0,0 0 0,0-1 1,1 1-1,0 0 0,1 0 0,0 14 1,0-20-92,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,3 2 0,-3-3 7,1 1 1,0-1-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,4-1 1,2-1-14,0-1 1,1 0-1,-2-1 1,1 0 0,0 0-1,-1-1 1,0 0-1,-1-1 1,13-12 0,-4 2-96,0-2-1,25-39 1,-29 36-217,-1 0-1,0 0 0,-2-1 1,0 0-1,-2-1 0,-1 0 0,0 0 1,-2 0-1,-1-1 0,0-37 0,-3 62 361,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 0 0,0 1 0,-10 8 255,3 2-228,1-1 0,0 1 0,0 0 1,1 1-1,1 0 0,0-1 0,1 1 1,0 1-1,1-1 0,0 0 0,0 0 1,2 1-1,0-1 0,0 1 0,1-1 1,0 1-1,5 16 0,-4-24-48,0 1 0,0-1 0,1-1 0,-1 1-1,1 0 1,0-1 0,1 1 0,-1-1 0,1 0-1,0 0 1,0 0 0,7 4 0,-10-6-5,0-1 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,-1 0 1,1-1-1,0 1 0,-1-1 0,1 0 1,0 1-1,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 1,0 0-1,0-1 0,0 1 0,1-3 1,9-16-18,17-43 1,-21 45-296,0 0 0,2 0 0,16-26 0,-25 44 304,1-1 1,-1 1 0,0 0 0,0-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0 0 0,1 0-1,-1-1 1,1 1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 1 0,-1-1-1,1 0 1,13 20 624,0 29 1314,-12-43-1882,-1 0-1,0-1 1,-1 1 0,1 0 0,-1 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,0-1-1,-1 1 1,0 0 0,1-1 0,-2 1-1,-3 6 1,4-8-262,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1-1,0-1 1,0 1 0,-6 2 0,3-2-534,0 0 0,1-1 0,-1 0 0,0-1 0,0 1-1,0-1 1,-7 1 0,-22-1-5614</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8244.16">5034 171 6659,'0'0'12646,"115"-42"-12646,-50 32 0,6 3-704,-7-1-801,-11-2-1905,-16 1-2352</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9797.78">172 1370 3426,'0'0'6832,"0"9"-6530,-11 403 2678,-4-694-4394,14 253 1358,0 20 80,0 1 1,1-1 0,0 0 0,1 1 0,3-16 0,-4 24-3,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1 0 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 0,-1 0 1,1 0-1,-1-1 0,0 1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,14 10 243,6 20 135,101 242 1709,-89-188-2740,-31-79 392,8 21-1571,-10-26 1700,0 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 1 0,0-1-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,-1 0 1,1 0 0,0-1-1,-19-9-2101</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10153.33">185 1698 3282,'0'0'11957,"-33"-42"-11957,62 34-32,13-4 32,12-5 128,8-1-128,5-1-512,-6 4-1425,-9 2-1585,-17 4-1248</inkml:trace>
@@ -7116,7 +7201,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14942.02">3993 1085 6979,'0'0'2777,"-14"-9"-2094,-44-27 104,55 35-742,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 5 0,-2 5 58,0 1-1,1 0 1,1-1 0,0 2-1,0-1 1,1 21 0,1-30-98,1 1-1,-1-1 1,0 0 0,1 1 0,0-1 0,0 0 0,1 0-1,-1 1 1,1-1 0,0 0 0,0 0 0,0-1 0,0 1-1,1 0 1,-1-1 0,1 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1-1,0-1 1,0 0 0,0-1 0,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1-1 0,1 0 0,6 0-1,-8-1-39,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 1,0 0-1,1-6 0,4-7-124,-2-1 0,5-26 0,-8 31-29,3-14 875,3 23-240,3 13-253,16 31 963,-18-26-898,1 0 0,0-1-1,1-1 1,1 0 0,15 16-1,-23-27-239,0 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,4-2 1,-3 2-237,-1-1 0,0 0 1,0 0-1,1 0 1,-2-1-1,1 1 0,3-5 1,-4 5-499,0-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 0-1,-1 0 1,3-8 0,-1-7-3571</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15330.52">4191 1023 2577,'0'0'8364,"13"4"-7721,6 3-520,0 1-1,-1 0 1,0 1 0,-1 1-1,22 16 1,-32-20-61,0-1 1,-1 1-1,0 1 0,0-1 0,0 1 1,0 0-1,6 12 0,-10-15-23,0 0-1,-1 0 0,1 0 1,-1 0-1,1 1 0,-1-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,-1-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,-1 5-1,1-7 26,1 0-1,0-1 0,-1 1 1,1-1-1,-1 1 0,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0-1 0,1 1 1,-1-1-1,0 1 1,0-3-1,-2-7-56,0 1 0,1-1 0,0 1 0,1-1 1,0 0-1,1 1 0,0-1 0,0 0 0,1 1 0,1-1 0,0 0 0,4-10 1,-5 16-175,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 1 0,1-1 0,0 1 0,-1 0 0,2 0 1,-1 0-1,0 0 0,1 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,1 1 0,-1 0 0,0 0 0,1 0 1,10-1-1,58-1-5628,-39 4 1543</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16614.87">4650 1002 2049,'0'0'6878,"-13"-1"-4683,-47-5-191,58 6-1915,-1 0-1,0 0 1,0 0 0,0 1-1,1-1 1,-1 1-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,1 1 1,0-1 0,-1 1-1,1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 1 1,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0-1,0 1 1,0 0-1,0-1 1,-1 5 0,-1 5 68,1 0-1,0 0 1,0 1 0,2 23 0,0-32-90,-1-1-58,1 0 0,0 1 1,1-1-1,-1 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,-1-1-1,1 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,1 1 0,-1-1 1,1 0-1,0-1 0,0 1 0,0 0 0,0-1 1,0 0-1,0 0 0,4 1 0,-4-1-61,1 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1-1,-1-1 1,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 1 0,4-6 0,-1-2-282,0 0 0,0 0 0,-1 0 0,0-1 0,-1 0 1,0 1-1,-1-1 0,-1 0 0,2-20 0,-2-9 4716,-1 48-4273,1 1 1,-1-1-1,2 0 1,-1 0-1,1 0 1,0 0-1,1 0 1,0 0-1,0-1 1,8 13-1,-9-17-192,0 1-1,0-1 1,0-1-1,1 1 1,0 0-1,-1 0 0,1-1 1,0 0-1,0 1 1,0-1-1,0-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 0 1,0 1-1,0-1 0,-1 0 1,1-1-1,4 0 1,-4 0-171,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-2 0,0 1 1,-1 0-1,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,3-9 0,3-10-751,-1-1 1,4-34-1,-9 50 786,1-5 42,1-13 1271,-1 21 807,1 14 1342,2 21-2244,-5-20-852,2-1 0,-1 0 0,1 0 0,0 0 0,1 0 1,1 0-1,-1-1 0,1 1 0,1-1 0,7 11 0,-12-19-157,1-1-1,-1 1 0,1-1 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1 0-1,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 0 0,0 1 1,1-1-1,0-1 0,20-38-392,-17 32 152,8-19-266,-9 19 370,-1 1 1,2-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,1 1 0,0 0 1,0 0-1,8-7 1,-12 13 178,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,-1-1 0,1 0 1,-1 1-1,1-1 1,0 0-1,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,0 0 1,1-1-1,-1 1 0,0 0 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 2 1,11 33 1077,-9-30-836,2 12 90,9 28-6,-12-43-345,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,2 2-1,-3-3-14,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,2-1 0,16-27-7,-13 21-32,9-15-291,-12 17 222,1 0-1,-1 1 1,1-1 0,1 1-1,-1 0 1,1 0 0,0 0-1,0 1 1,1-1 0,-1 1-1,1 0 1,6-4 0,-10 8 133,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 1,-1-1-1,1 0 0,0 0 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 0,7 39 1250,-6-36-1152,-1-1-32,1 1-1,-1 0 1,1-1-1,0 0 1,1 1-1,-1-1 1,4 7-1,-4-10-90,-1-1-1,0 0 1,0 1-1,1-1 1,-1 1-1,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,18-16-223,13-29-596,-24 31 50,1 1 0,0 1 0,1 0 0,21-21 0,-17 100 3997,-13-65-3194,0 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 1 0,4 0 0,-1-1-8,-1-1 0,1 1 0,0-1 0,-1 1 1,1-1-1,0-1 0,0 1 0,-1-1 0,1 0 0,7-2 0,-2 0-122,-1 0-1,1-1 1,-1 0-1,0-1 1,0 0-1,-1 0 1,1-1-1,-1 0 1,14-14-1,-20 18 32,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0-1 0,-1 1 1,1-1-1,-1 1 0,1-1 1,-1 1-1,0-1 0,0 1 1,0-1-1,-1 1 0,1-4 1,-1 6 75,1-1-1,0 0 1,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1-1,0 1 1,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,-2-1 0,1 1 85,0 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0 0 0,-1-1 0,1 1 0,-5 2 0,5-1-44,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,3 6 0,-2-5-9,0 1-1,0-1 1,1 1-1,-1-1 1,1 0 0,0 1-1,1-1 1,-1 0-1,1 0 1,-1 0 0,1-1-1,0 1 1,1-1-1,-1 0 1,1 1-1,-1-2 1,1 1 0,0 0-1,4 2 1,-4-4-30,0 0-1,0 1 1,0-1 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,0 0-1,1-1 1,-1 1 0,0-1 0,0 0-1,0 0 1,8-3 0,-5 1-11,-1 0-1,1-1 1,-1 0 0,0 0-1,0-1 1,0 1-1,-1-2 1,8-7 0,-3 1-107,-1-1-1,0 0 1,0-1 0,-1 1 0,-1-1-1,-1-1 1,10-28 0,-10 14-404,0-1 0,-2 0 0,-1 0 0,-2 0 0,-1 0 0,-1-1 0,-6-34 1,7 63 615,0 0 1,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,-1-1-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1 0-1,-2-1 1,2 3-37,-1-1 0,1 1 1,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,1 0 0,-1 1 0,0-1 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 0,0 0 1,1 2-1,-5 55 759,3-1 1,12 104-1,-3-70-2430,-5-1-4377,-3-84-204</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16973.11">5715 796 11605,'0'0'5283,"98"-23"-5763,-40 18-721,6-2-2513,-6 2-1776</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16973.1">5715 796 11605,'0'0'5283,"98"-23"-5763,-40 18-721,6-2-2513,-6 2-1776</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17378.87">6059 812 11349,'0'0'6406,"5"2"-6281,1-1-157,0 1 0,1-1 0,-1 0 0,1 0 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1-1 0,10-2 0,-14 3-53,1-1 0,-1 1 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1-1 0,1 1 0,0-1 1,0 1-1,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,0 0 0,0-3 0,-1 3 80,0-1-1,0 1 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 1 0,0-1 1,1 0-1,-1 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 1 1,1-1-1,0 1 0,-5 0 1,-2-1 145,0 1 0,0-1 0,-1 2 0,1-1 0,-16 4 0,21-3-36,-1 1 0,1 0 0,0 0 1,0 0-1,-1 0 0,2 1 1,-1-1-1,0 1 0,0 0 0,1 0 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,1 1 0,-1 0 1,1 1-1,0-1 0,1 0 1,-3 7-1,3-8-88,0 1-1,0-1 1,1 1-1,-1-1 1,1 1 0,-1 0-1,1-1 1,1 1 0,-1 0-1,0-1 1,1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,1 0-1,-1 1 1,1-1-1,0 0 1,0 0 0,0 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,6 3 0,-1-2-17,0 0 0,0 0 0,0-1 0,1 1 0,0-2 1,14 5-1,-13-6-659,-1 1 0,1-1 1,0-1-1,0 0 0,0 0 0,0-1 1,0 0-1,-1 0 0,17-5 0,-17 3 29,-1 1 1,0-1-1,0-1 0,0 1 0,-1-1 0,1 0 0,-1-1 0,0 1 1,0-1-1,-1-1 0,8-8 0,-9 9 438,0-1 0,0 1 1,-1-1-1,0 0 0,0 0 0,-1 0 0,1-1 1,1-10-1,4-38 3079,-2 8 3619,-6 47-6385,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0 0-1,1-1 0,-1 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,1 0-1,-1-1 0,0 1 0,0 0 1,0 0-1,1 0 0,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,12 6 801,9 15-1067,-10-6 244,15 15 279,28 41 0,-49-61-307,0-1 0,0 1 0,-1 1-1,0-1 1,-1 1 0,-1 0-1,1 0 1,-1 0 0,1 15 0,-4-25-41,1 1 0,-1-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,0 1 1,0-1-1,-1 0 0,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1-1 0,-1 0 1,1 1-1,-3-1 0,2 0 18,-1 0 1,1 0-1,0 0 0,0 0 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,1-1 0,-1 0 1,1 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-2-4 0,0-6-83,0-1 0,0 0 0,2 1 0,-1-1 0,2 0 0,0 0 0,0 0 0,1 0 0,1 0 0,0 0-1,1 0 1,0 1 0,1-1 0,0 1 0,1 0 0,0 0 0,1 1 0,0-1 0,16-18 0,-8 10-201,1 1 0,1 1 0,0 1 1,2 0-1,0 1 0,1 1 0,0 1 1,1 0-1,42-20 0,-32 21-265,0 1 0,1 2-1,0 1 1,41-7 0,-56 14-824,0 0 0,0 2 1,21 1-1,-29 1-3058</inkml:trace>
 </inkml:ink>
 </file>
@@ -7209,7 +7294,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">302 426 8180,'0'0'3719,"-13"-6"-2849,3 1-700,-1 0 0,0 1 1,0 0-1,0 1 0,-1 1 1,-13-2-1,19 3-138,0 1 1,-1 0-1,1 0 0,0 1 0,-1-1 0,1 2 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 1 0,0 0 1,1 0-1,-10 7 0,5-1 54,0 0-1,1 0 1,0 1 0,0 0 0,1 1-1,-7 12 1,12-19-57,0 0 1,1 1-1,-1-1 0,1 1 0,1-1 1,-1 1-1,0 0 0,1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,2 5 1,-1-6-38,0 0 1,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,6 0 0,12 4-89,46 5 0,-62-11 84,84 7-300,-49-5 152,58 11-1,-98-13 152,1 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,2 3 0,-3-4 21,0 0 1,0 1 0,-1-1-1,1 1 1,-1-1 0,1 1-1,-1-1 1,0 1 0,0-1-1,1 1 1,-1-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,-1 1-1,0 1 1,-2 4 104,0 0 1,-1-1-1,0 1 0,0-1 1,0 0-1,-1 0 0,0 0 1,-10 8-1,-96 75 805,74-61-967,-57 53 0,105-84-4407,22-22 994,13-15-520</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="446.67">633 525 9492,'0'0'7791,"-5"11"-7674,2-4-105,2-5-10,-1 0 0,1 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,2 4 0,6 0-49,0-1-1,0 1 1,0-2 0,1 1-1,-1-2 1,1 1-1,0-1 1,0-1-1,0 0 1,1-1-1,13 1 1,-16-2-22,-1 1 0,1-1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1-1 0,0-1 0,0 1 0,0-1 0,0-1-1,0 1 1,-1-1 0,1-1 0,9-7 0,-14 8 60,1 0 0,-1 0 0,-1 0 0,1-1 0,0 0 0,-1 1 0,0-1 1,0 0-1,-1 0 0,1 0 0,0-6 0,-1 7 87,0 1 1,-1-1 0,1 1-1,-1-1 1,0 0 0,0 0-1,-1 1 1,1-1 0,-1 0-1,1 1 1,-1-1 0,0 1-1,0-1 1,-1 1 0,1-1-1,-4-3 1,5 7-57,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,1 15 82,8 18-300,72 148 196,6 14-574,-83-184 491,0-1-1,-1 1 1,0-1-1,-1 1 1,0 0-1,-1 0 1,0 0-1,-1 0 1,0 0-1,-2 12 1,1-19 80,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 1,0-1-1,-4 0 0,-2 0 101,0 0 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 0 0,1-1 0,-1 0-1,1 0 1,0-1 0,0-1 0,0 1 0,1-1 0,-1-1 0,1 1 0,1-2 0,-14-11 0,17 13-210,0 0 0,0 0 0,1 0 0,0 0 1,0-1-1,0 1 0,0-1 0,1 0 0,0 1 0,0-1 0,0 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 0 0,-1 1 0,6-7 0,70-95-7585,-34 50 2535</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1141.64">1177 434 7684,'0'0'5858,"5"13"-4745,2 8-800,27 76 752,-31-89-1047,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,1-1 0,0 0 0,9 7 0,-15-12-27,1-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 1 1,-1-2-1,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,1-1 1,-1 1-1,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0-1 1,0 0-1,9-23-13,-7 19-24,6-25 34,-7 23 24,1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,0 0-1,0 1 1,1-1-1,0 1 1,8-11 0,-10 16-12,-1 0 0,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,0 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,3 2 1,35 31 300,-35-30-231,9 9 75,31 28 70,-42-39-211,0-1 1,0 1 0,0 0 0,1-1 0,-1 0 0,1 1 0,-1-1-1,1 0 1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1-1,1 0 1,0 0 0,3 0 0,-4-2 13,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0-5 1,2-4 46,3-5-78,20-44-316,-24 56 304,0-1-1,0 1 1,1 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0 0-1,1 0 1,7-6-1,-9 9 35,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,2 2 0,27 13 95,-25-15-349,1-1 1,-1 1 0,0-1 0,1-1 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1-1,0 0 1,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0-1,1-1 1,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0-1,0-1 1,3-5 0,3-7-780,-1-1 0,0 1 0,-2-1 0,0-1 0,-1 1 0,-1-1 0,2-21 0,-2 11 1857,0-50-1,-4 66 566,-1 0 0,-1 0 0,0 1 0,-1-1 1,0 1-1,-6-16 0,7 24 1568,2 10-1249,8 25-822,15 48-832,-5-28-144,-3 2-1,-2 0 0,-2 0 0,-2 1 1,2 89-1,-11-117-504,-3 70-4695,-7-54 26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1141.63">1177 434 7684,'0'0'5858,"5"13"-4745,2 8-800,27 76 752,-31-89-1047,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,1-1 0,0 1 0,1-1 0,0 0 0,9 7 0,-15-12-27,1-1-1,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,1 1 1,-1-2-1,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,1-1 1,-1 1-1,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 0,0-1 1,0 0-1,9-23-13,-7 19-24,6-25 34,-7 23 24,1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,0 0-1,0 1 1,1-1-1,0 1 1,8-11 0,-10 16-12,-1 0 0,0 1 0,1-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,0 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,3 2 1,35 31 300,-35-30-231,9 9 75,31 28 70,-42-39-211,0-1 1,0 1 0,0 0 0,1-1 0,-1 0 0,1 1 0,-1-1-1,1 0 1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1-1,1 0 1,0 0 0,3 0 0,-4-2 13,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0-5 1,2-4 46,3-5-78,20-44-316,-24 56 304,0-1-1,0 1 1,1 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0 0-1,1 0 1,7-6-1,-9 9 35,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,2 2 0,27 13 95,-25-15-349,1-1 1,-1 1 0,0-1 0,1-1 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1-1,0 0 1,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0-1,1-1 1,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0-1,0-1 1,3-5 0,3-7-780,-1-1 0,0 1 0,-2-1 0,0-1 0,-1 1 0,-1-1 0,2-21 0,-2 11 1857,0-50-1,-4 66 566,-1 0 0,-1 0 0,0 1 0,-1-1 1,0 1-1,-6-16 0,7 24 1568,2 10-1249,8 25-822,15 48-832,-5-28-144,-3 2-1,-2 0 0,-2 0 0,-2 1 1,2 89-1,-11-117-504,-3 70-4695,-7-54 26</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1527.44">1905 319 8884,'0'0'1982,"2"-12"-1104,0 4-746,-2 5-83,0 0 0,0 0-1,1-1 1,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,7-4 0,4 1-47,0 1 0,1-1 0,-1 2 0,1 0 0,0 1 0,0 0-1,-1 1 1,1 1 0,14 2 0,-26-3-9,-1 0-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0-1,-2 2 1,1 3-19,0-1-1,-1 0 1,0 1 0,0-1 0,-1 0-1,1 0 1,-6 7 0,-13 12-723,0-2 0,-39 32 1,26-24-555,34-39-5633</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1885.31">2209 15 5346,'0'0'9477,"20"78"-7989,-9-35-1247,1 1 15,-1-2-256,-2 0-352,-4-6-1313,-2-10-1633,-3-10-1136,0-13 1041</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2227.52">2209 248 5250,'0'0'6246,"11"-11"-5622,-10 11-618,5-6-34,0 0 1,1 1-1,-1 0 0,1 0 1,0 0-1,0 1 0,1 0 0,-1 1 1,1-1-1,0 1 0,0 1 1,0 0-1,0 0 0,0 0 0,13 0 1,-19 3 37,-1-1 0,0 0 1,0 1-1,1-1 1,-1 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 0 0,1 1 1,-1-1-1,-1 2 1,2 54 1531,-2-42-842,1-3-371,0 1 0,1-1-1,0 0 1,1 1 0,1-1-1,4 15 1,-6-25-322,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 0,0 0 1,0-1-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0-1 1,1 1-1,-1-1 0,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,2-2 0,3 0-30,0-1-1,-1 0 1,1 0-1,-1 0 0,0-1 1,0 0-1,-1 0 0,1 0 1,-1-1-1,0 1 1,-1-1-1,1-1 0,-1 1 1,0-1-1,-1 1 1,1-1-1,-2 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,-1-1-1,0 1 1,0-1-1,-1 0 0,0-12 1,-1 18 38,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 0,-4 2 0,74-9-2304,32-13 0,-99 28-7297</inkml:trace>
@@ -7244,7 +7329,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">65 275 2449,'0'0'9044,"-1"-6"-8003,-6-10 726,6 46-286,1-17-1549,13 253 2350,-7-203-2610,3-1 1,21 76-1,-29-137 287,15 45-1574,-15-43 1231,0-1-1,0 1 1,0-1-1,0 0 1,1 0 0,-1 1-1,1-1 1,0 0 0,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,0 1-1,3 1 1,-5-3 233,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0-1,-1-1 1,0 1 0,0 0 0,0-1 0,2-17-1897,-7-17 1119,-6 6 1755,-2 0 1,0 1 0,-21-31-1,15 26 1604,-27-61 0,40 77-1920,0 0-1,1-1 0,1 1 1,1-1-1,0 0 1,2 0-1,0 0 0,0 0 1,2 0-1,4-29 1,-2 33-408,1 0 1,1 0-1,0 0 0,0 0 1,2 1-1,-1 0 1,2 0-1,0 0 1,0 1-1,1 1 1,1-1-1,0 1 1,15-12-1,-6 6-18,1 1-1,37-22 1,-51 34-268,0 1 0,0-1 0,0 1 0,1 1 0,0-1-1,-1 1 1,1 0 0,0 1 0,0-1 0,0 1 0,0 1 0,0-1 0,1 1 0,10 2 0,-16-2 1,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 1 1,0-1-1,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 4-1,0 2-636,0 1 0,-1-1 0,0 1 0,0 13 0,0 28-2946</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="353.88">137 594 6611,'0'0'7443,"54"-1"-6658,-6-16-689,6-6-96,6 0-656,-4 4-1329,-7 2-1441,-11 6-1424</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="712.55">508 500 7443,'0'0'1809,"-4"10"-515,0 1-874,1 1 0,0 0 0,0-1 0,2 1-1,-1 0 1,2 0 0,-1 0 0,3 17 0,-2-25-399,1 1 1,-1-1-1,1 1 0,0-1 0,1 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 0,0 0 1,1-1-1,0 1 0,-1 0 1,1-1-1,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0-1 0,0 0 1,0 0-1,1-1 0,-1 1 1,8 1-1,-4-3-9,0 1 1,0-1 0,0 0-1,0-1 1,0 0-1,0 0 1,0 0 0,-1-1-1,1-1 1,0 1-1,-1-1 1,1 0 0,-1-1-1,0 0 1,0 0-1,-1 0 1,1-1 0,-1 0-1,0 0 1,0-1-1,-1 0 1,1 0 0,-1 0-1,0-1 1,-1 1-1,0-1 1,0 0 0,0 0-1,-1-1 1,0 1-1,-1-1 1,0 1 0,0-1-1,0 0 1,0-9-1,-2 14 40,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-6-2 0,6 3-260,-1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1 1 0,-4 0 0,4 7-8169</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1085.34">830 484 5378,'0'0'7988,"7"11"-6411,14 28-414,-9-14-611,1-1 1,22 29-1,-34-51-569,0 0-1,1 0 1,-1-1 0,0 1-1,1-1 1,0 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,4-1-1,-3-1-45,0 0-1,0 0 0,0 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,0-1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,4-5 1,5-7-230,-1-1 0,0 0 1,-2-1-1,9-20 1,-14 31 275,17-28 602,-8 31 820,1 18-335,-5-2-398,-2-2-729,0 0 0,1 0-1,0-1 1,1 0 0,15 17 0,-19-25-335,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,5-1 0,-4 0-292,-1 0-1,1 0 1,-1 0 0,0 0 0,0-1 0,0 0-1,0 0 1,0-1 0,-1 1 0,6-6 0,13-16-1408</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1085.33">830 484 5378,'0'0'7988,"7"11"-6411,14 28-414,-9-14-611,1-1 1,22 29-1,-34-51-569,0 0-1,1 0 1,-1-1 0,0 1-1,1-1 1,0 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,4-1-1,-3-1-45,0 0-1,0 0 0,0 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,0-1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,4-5 1,5-7-230,-1-1 0,0 0 1,-2-1-1,9-20 1,-14 31 275,17-28 602,-8 31 820,1 18-335,-5-2-398,-2-2-729,0 0 0,1 0-1,0-1 1,1 0 0,15 17 0,-19-25-335,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,5-1 0,-4 0-292,-1 0-1,1 0 1,-1 0 0,0 0 0,0-1 0,0 0-1,0 0 1,0-1 0,-1 1 0,6-6 0,13-16-1408</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1498.26">1382 495 2577,'0'0'13113,"-4"8"-12145,1-1-809,1 0 0,-1 1 0,1-1 1,0 1-1,1 0 0,0 0 0,0 8 0,1-14-154,0 0 0,0 1 0,0-1 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1 0,4 1 0,3-1-52,-1 0 1,1-1-1,-1 0 0,0-1 0,1 0 0,-1 0 0,0 0 0,0-1 1,-1 0-1,1-1 0,0 0 0,-1 0 0,0-1 0,0 0 0,0 0 1,-1 0-1,9-10 0,-2 2-97,0-1 0,0 0 0,-2 0 0,0-2 0,0 1 0,-2-1 0,8-18 0,-7 5-146,-1-1 0,-2 0 1,-1-1-1,-1 1 1,-2-1-1,-1 0 0,-1 0 1,-6-53-1,-2 45 671,7 38-255,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-3-1 0,3 1-54,0 0 0,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 0,0 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,-1 2-1,-3 34 235,4-35-224,-2 27-21,3 0 0,0 0 0,1 0 0,2 0 0,1-1 0,2 0 0,16 47-1,-15-55-1188,1-1-1,0 1 1,2-2-1,0 0 0,1 0 1,24 26-1,-20-28-4621</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1499.26">1498 352 11317,'0'0'2689,"12"-8"-3107,26-16-370,67-30 1,-85 45 569,0 1-1,1 0 0,-1 2 0,1 0 1,1 2-1,29-4 0,-49 8 362,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,-1-1 0,0 0-1,1 1 1,-1 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 2-1,2 10 630,-1-1-1,0 1 0,0 19 1,-1-17-490,6 157-255,-3-160-2338,-4-13 2184,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,0-1 1,1 1 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,0 0-1,1 0 1,-1-1 0,0 1 0,0 0-1,0 0 1,0-1 0,11-20-6575</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2072.96">1992 21 8612,'0'0'7051,"-11"11"-5632,2-2-1113,5-6-257,0 0-1,1 0 1,-1 1-1,1-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1-1,1 1 1,0-1-1,0 1 1,0 0-1,0 4 1,1 10 205,1 0-1,0-1 1,2 1 0,0-1 0,1 1 0,1-1 0,1 0-1,0-1 1,1 1 0,1-1 0,1-1 0,17 26 0,-20-33-198,0-1 0,1 0 0,-1 0 0,2 0 0,-1-1 0,1 0 0,0-1 0,1 1 0,0-2 0,-1 1 0,2-1 0,-1-1 0,1 1 0,-1-2 0,1 1 0,0-1 0,1-1 0,-1 0 0,0 0 0,1-1 0,-1-1 0,0 1 0,20-3 1,-25 1-87,-1 0 1,0 1-1,0-2 1,1 1 0,-1 0-1,0-1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,-1 1 1,0-1 0,1 0-1,-1 0 1,0 0 0,-1-1-1,1 1 1,0-1 0,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,0-1 0,0 1-1,-1 0 1,0-1 0,1-4-1,-1 2-5,0 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,0 0-1,0 0 1,-1 0 0,0 1 0,0 0-1,0-1 1,-1 1 0,0 0-1,0 1 1,-1-1 0,1 1 0,-12-10-1,8 10 30,0 1-1,0 0 0,-1 0 1,0 0-1,1 1 0,-1 1 1,-1 0-1,1 0 0,0 0 1,0 1-1,-15 1 0,41-2-445,1 0-1,-1-2 1,0 0 0,0 0-1,0-2 1,-1 0-1,22-11 1,-23 9 427,0 1 0,1 1 0,-1 0 0,1 1 0,0 1 0,0 1 0,1 0 0,31-1 0,-46 5 78,0-1-1,0 1 1,0-1-1,-1 1 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,1 2 0,16 46 1730,-11-30-1009,-5-14-595,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,1 0 1,-1 0-1,9 8 0,-10-11-186,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,4-3 0,3-2-106,0-1 1,-1 0-1,0 0 0,0 0 0,0-1 1,-1 0-1,0-1 0,-1 1 0,0-1 1,0 0-1,-1-1 0,7-18 1,-6 7-31,0-1 0,-2 1 0,0-1 0,0-43 0,-4 56 728,-1 9 228,2 17-618,4-8-204,1 0 0,0 0 1,1 0-1,0 0 0,0-1 0,0 0 1,9 8-1,-8-9 10,0 0 0,-1 0 1,0 1-1,-1-1 0,0 1 0,0 1 1,0-1-1,5 17 0,-9-23-119,-1 1-1,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 0,-1-1 1,1 1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0-1,0 0 0,0-1 1,-2 3-1,-6 4-1338,0-1 0,0 0 0,-21 10 0,24-14 650,-52 25-6511</inkml:trace>
@@ -7359,8 +7444,8 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6970.95">1175 1789 5939,'0'0'5746,"15"8"-5503,-4-6-4,0-1-1,1 0 1,-1 0 0,0-1-1,0 0 1,0-1 0,22-5-1,80-24 614,-72 17-585,195-59 256,175-48 88,301-102-515,286-75 734,-706 223-298,371-118 910,-580 164-809,2 3 0,111-17 1,-170 38-549,-6 1-89,0-1-1,32-10 1,-52 14-88,0 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,-1-1-456,1 1 456,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,1-1-92,-13-1-2207,-12 0-3482</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7688.28">1630 2171 6115,'0'0'7382,"-1"3"-6019,18 52-703,2-1 1,2 0-1,46 82 0,-25-52-366,-38-72-711</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8103.91">1494 2244 6435,'0'0'3914,"3"-12"-3045,-2 5-754,-1 3-103,1 0 0,0 1 0,-1-1 1,1 0-1,1 0 0,-1 1 0,1-1 0,-1 0 1,1 1-1,0-1 0,0 1 0,0 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,0 1 1,0-1-1,0 1 0,6-4 0,3 0 11,0 0-1,1 1 1,0 0-1,1 1 0,-1 0 1,1 1-1,-1 0 1,1 2-1,16-1 0,-28 2-2,0 1-1,0-1 0,-1 1 1,1 0-1,0-1 0,0 1 0,0 0 1,-1 0-1,1 1 0,0-1 0,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 3 1,1 12 462,-1 1 0,-3 29 0,2-36-257,-3 15 426,-1 0 0,-14 45 0,12-51-297,1 0 1,1 0-1,1 1 0,1-1 1,-2 34-1,6-52-353,-1 0-1,0 0 1,0 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,1 0 1,-1-1-1,0 0 1,1 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,1-1-1,4 2 1,7 0-66,-1 0 1,1-1-1,23 0 0,1 1-436,-33-2-35,0 1 1,0 0-1,-1 0 1,1 0-1,0 1 1,-1-1-1,0 1 1,1 0-1,-1 0 1,5 3-1,6 12-4802</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8611.87">1938 2825 10661,'0'0'6995,"37"26"-10260,-12-20-1586,1-2-2528</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8612.87">2149 2872 6851,'0'0'5891,"-12"-66"-8404</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8611.86">1938 2825 10661,'0'0'6995,"37"26"-10260,-12-20-1586,1-2-2528</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8612.86">2149 2872 6851,'0'0'5891,"-12"-66"-8404</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7475,7 +7560,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">128 29 2481,'0'0'5677,"-9"1"-5292,-5-2-243,10 0-74,-1 1 0,1-1 0,0 1 0,0 0 1,0 1-1,-1-1 0,1 1 0,0 0 1,-6 1-1,9-1-65,1-1 34,1-1 1654,36-13-1603,-29 11-58,0 0 0,0 0 1,0 1-1,0-1 0,0 2 0,12-2 0,-20 3-147,-2 4-1795,0-1 1316,0 1 0,0-1-1,-1 1 1,1-1 0,-1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,-1-1-1,1 1 1,-6 2 0,-5 3-605</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="418.93">41 54 96,'-1'-1'207,"1"1"0,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 2 0,-6 25 2085,6-13-2809,0-9 527,-2 10 34,0 0 1,2-1-1,0 1 0,0 0 1,1 0-1,3 17 1,-3-31-52,1-1 0,-1 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,23-15 74,-21 13-47,7-7-8,1 0 0,0 0 0,1 1 0,24-14 0,-34 22-25,0 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 0,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 1,1 2-1,-2-1-8,0 0 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 5 1,0-2 68,0 1 0,0-1 1,-1 1-1,1-1 1,-2 1-1,1-1 1,0 1-1,-1-1 1,0 1-1,-1-1 0,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0-1-1,0 1 0,-1-1 1,1 1-1,-1-1 1,0-1-1,0 1 1,-1 0-1,1-1 1,-1 0-1,1 0 0,-1 0 1,0-1-1,0 0 1,0 1-1,-1-2 1,1 1-1,0-1 1,-1 0-1,-7 1 0,10-9-3417,3 4 2683,0-10-1963</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="418.92">41 54 96,'-1'-1'207,"1"1"0,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 1-1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 2 0,-6 25 2085,6-13-2809,0-9 527,-2 10 34,0 0 1,2-1-1,0 1 0,0 0 1,1 0-1,3 17 1,-3-31-52,1-1 0,-1 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,-1-1-1,1 1 0,-1 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,23-15 74,-21 13-47,7-7-8,1 0 0,0 0 0,1 1 0,24-14 0,-34 22-25,0 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,0-1 0,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 1,1 2-1,-2-1-8,0 0 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,-1 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 5 1,0-2 68,0 1 0,0-1 1,-1 1-1,1-1 1,-2 1-1,1-1 1,0 1-1,-1-1 1,0 1-1,-1-1 0,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0-1-1,0 1 0,-1-1 1,1 1-1,-1-1 1,0-1-1,0 1 1,-1 0-1,1-1 1,-1 0-1,1 0 0,-1 0 1,0-1-1,0 0 1,0 1-1,-1-2 1,1 1-1,0-1 1,-1 0-1,-7 1 0,10-9-3417,3 4 2683,0-10-1963</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7570,7 +7655,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1067.99">1359 56 3794,'0'0'5626,"-11"-8"-3977,-32-24-571,40 30-987,1 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-3 1 1,4-1-74,0 1 1,0 0 0,0 0 0,0-1 0,1 1-1,-1 0 1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,0 1 0,0 0-1,0-1 1,-2 5 0,2-3-33,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,1 1 0,-1-1 0,1 0 0,3 5 0,4 1-140,1-1 0,0 0 0,0 0 0,20 11 0,-18-13-34,-1 1 1,0 1-1,-1-1 1,11 11 0,-20-17 184,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,-2 1-1,-46 23 942,38-20-818,0-1 0,-1 0 1,-18 2-1,1-4-6201,25-1 2332</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1842.91">124 675 6211,'0'0'5474,"-8"8"-4897,5 3-479,0 1 0,1-1 1,0 1-1,1 0 1,1-1-1,0 22 0,0 2 145,-3 85-70,24-132-7835,-3-6 5640</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2676.57">991 17 3906,'0'0'4866,"-5"-4"-3834,4 4-1025,0-1 36,0 0 0,-1-1 0,1 1 0,0 0-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-2 2 0,-209 246 1768,78-85-1717,56-71-47,-66 104-1,120-168-60,19-22 41,-1-1-1,1 1 0,0-1 1,0 2-1,-5 9 0,60-14 220,255-23-148,-295 21-90,-7-1 19,0 0 1,0 0-1,0 1 0,1-2 0,-1 1 0,0 0 1,0-1-1,0 1 0,0-1 0,6-2 440,-12-8-2518,-1-4-3912,4 5 1313</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4821.44">46 1262 3714,'0'0'6685,"1"-5"-6164,0 3-473,-1 1 0,1-1-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,2 1 0,-3 1-44,0 0 0,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 1,-1 0-1,1 0 0,0 1 0,0 25 222,0-24-211,-1 2 11,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,0-1 0,-6 7 0,7-8-86,0 0 1,-1 0 0,1 0-1,-1-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,-1 0-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,-9 1-1,12-2 22,0 0-1,0-1 0,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 0,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,0 0 1,0-1-1,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,0 0 1,1-1-1,13-17-717,-9 15 785,-1 0 0,1 1 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 1 0,1 0 0,-1 1 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 1 0,0 0 0,0-1 1,0 2-1,0-1 0,0 1 0,0-1 0,0 1 0,-1 1 0,1-1 1,0 1-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,-1 0 0,0 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-2 0 0,4 8 0,0-1 247,2 6 91,-5-8-5230</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4821.43">46 1262 3714,'0'0'6685,"1"-5"-6164,0 3-473,-1 1 0,1-1-1,-1 0 1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,2 1 0,-3 1-44,0 0 0,-1-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 1,-1 0-1,1 0 0,0 1 0,0 25 222,0-24-211,-1 2 11,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,-1 0 0,0-1 0,-6 7 0,7-8-86,0 0 1,-1 0 0,1 0-1,-1-1 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,-1 0-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,-9 1-1,12-2 22,0 0-1,0-1 0,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 0 1,-1-1-1,1 1 0,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,-1 1-1,1 0 1,0-1-1,0 1 0,1-1 1,-1 1-1,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,0 0 1,0-1-1,1 1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,0 0 1,1-1-1,13-17-717,-9 15 785,-1 0 0,1 1 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 1 0,1 0 0,-1 1 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 1 0,0 0 0,0-1 1,0 2-1,0-1 0,0 1 0,0-1 0,0 1 0,-1 1 0,1-1 1,0 1-1,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,-1 0 0,0 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-2 0 0,4 8 0,0-1 247,2 6 91,-5-8-5230</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6098.68">892 852 944,'0'0'7124,"-6"-3"-5801,4 1-1236,0 1-1,0-1 1,-1 1 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,1 1-1,-1-1 1,0 1 0,1-1 0,-1 1-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1-1-1,0 1 1,0 0 0,-3 3 0,-48 44 112,11-9-174,-2-2 0,-1-2-1,-54 32 1,-10-8-44,57-33 8,1 2-1,-79 59 1,130-88 7,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0-1,1 0 1,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,38 6 370,49-9 304,388-21-1220,-463 24 651,0-1 0,0 1 0,0-2 0,-1 0 0,1 0 0,0-1 0,14-6 1,-9 3 391,0 0-5284,-8 0 1008</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6605.69">1206 1127 4626,'0'0'3378,"-2"12"-2132,-7 41-406,-12 69 1992,15-44-4015,15-77-4537,1-4 1654</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7009.83">1284 1172 5491,'0'0'3268,"0"7"-2465,-1 5-469,-1 40 1208,2-49-1435,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,4 5 0,-5-6-99,1 0 0,0-1-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0-1 0,0 1-1,0-1 1,-1 1 0,1-1 0,0 1-1,-1-1 1,1 1 0,0-1-1,-1 0 1,1 1 0,-1-1 0,1 0-1,-1 1 1,1-1 0,-1 0-1,0 0 1,1 0 0,-1 1-1,0-1 1,0 0 0,1 0 0,-1-1-1,11-42 253,-11 43-273,-1-1 1,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1-1,-1 1 1,0-1 0,1 1 0,-1 0 0,0 0 0,-1-1 0,-58 0-603,61 1 616,-1 0-109,1 0 1,-1 0-1,0 0 1,0 0-1,0 1 0,0-1 1,1 0-1,-1 0 0,0 1 1,0-1-1,0 1 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1 0-1,0-1 0,0 2 1,-3 10-5385</inkml:trace>
@@ -7608,7 +7693,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">32 74 3650,'0'0'7686,"0"-6"-6651,0-22 1179,-2 57-1722,-10 53-1,1-7-174,8-56-330,-1 5-110,5-9-5216</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="431.48">89 22 3522,'0'0'9097,"12"-5"-8715,40-12-137,-50 17-231,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 1 0,-1-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 2-1,5 43 190,-5-44-174,-1 5-3,0 1 0,0-1-1,-1 0 1,0 0-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1 0 0,1-1-1,-2 0 1,1 0-1,-1 0 1,1 0 0,-1-1-1,-1 0 1,1 0-1,-1 0 1,-12 7 0,18-12-57,-1 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,-1 1 0,1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,1 0 1,-1-1-47,-1 0 1,2 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,1-2 0,0 3 143,-1 0 1,1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1 0 1,1 3-1,2 0 19,-1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 9 0,-4 5-530,0 5-1772,4-14-2645,0-10 1486</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="431.47">89 22 3522,'0'0'9097,"12"-5"-8715,40-12-137,-50 17-231,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 1 0,-1-1 1,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 2-1,5 43 190,-5-44-174,-1 5-3,0 1 0,0-1-1,-1 0 1,0 0-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1 0 0,1-1-1,-2 0 1,1 0-1,-1 0 1,1 0 0,-1-1-1,-1 0 1,1 0-1,-1 0 1,-12 7 0,18-12-57,-1 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,-1 1 0,1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,1 0 1,-1-1-47,-1 0 1,2 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,1-2 0,0 3 143,-1 0 1,1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1 0 1,1 3-1,2 0 19,-1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 9 0,-4 5-530,0 5-1772,4-14-2645,0-10 1486</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="790.17">314 49 3762,'0'0'7574,"0"6"-7155,0 11 148,-1-6-270,1 0 1,0 0-1,1-1 0,0 1 0,1 0 0,4 13 0,-5-21-271,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,5 0 0,-6-1-15,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1-3 1,0 2-11,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-3-4 0,0 3 4,0-1 0,-1 1 0,1 0 0,-1 1-1,0-1 1,0 1 0,0 1 0,-1-1 0,-6-2 0,10 5-159,-1-1 1,1 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0 1-1,0-1 1,-4 1-1,4 0-304,0 0-1,1 0 1,-1 0-1,1 1 1,-1-1 0,1 0-1,0 1 1,0 0-1,0-1 1,0 1-1,-4 4 1,-6 9-3624</inkml:trace>
 </inkml:ink>
 </file>
@@ -7758,7 +7843,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">154 95 2289,'0'0'7142,"-1"-7"-5981,2 3-831,0 6 1300,76 257-546,-76-254-1088,0-2 7,-1 0-1,1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,4 5 0,-4-8 2,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 0 0,0 1 1,-1-1-1,1 0 0,0 1 0,0-3 1,44-35 8,1 2 0,1 3 1,2 1-1,61-29 0,195-89 118,-287 138 81,-6 4-1580,-4 5-2974</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1054.19">0 12 1969,'0'0'3543,"3"12"1236,10 52-3897,56 267-68,-69-329-799,0 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,1 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,2 1 0,-2-2 14,1 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,3-3 0,71-50 66,3 3 0,2 4-1,102-46 1,-69 40 152,94-37 325,-200 89-737,-7 1-20,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,2-2 1,2-8-3434</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1054.18">0 12 1969,'0'0'3543,"3"12"1236,10 52-3897,56 267-68,-69-329-799,0 0 0,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,1 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,2 1 0,-2-2 14,1 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,3-3 0,71-50 66,3 3 0,2 4-1,102-46 1,-69 40 152,94-37 325,-200 89-737,-7 1-20,1 1 1,-1-1 0,1 1-1,-1-1 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,2-2 1,2-8-3434</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7835,7 +7920,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">13 18 3730,'0'0'6560,"24"3"-5245,23 4-1270,-1-2-1,69-1 0,-46-2-785,-68-2 621,0-1-1,0 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1-1-1,0 1 1,-1 0 0,0 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1-1 0,1 1 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 1 0,-13 14-2700</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="326.99">0 295 3874,'0'0'3121,"101"-7"-2561,-55-6-560,6-2-80,4 1 48,1 2-784,-3 1-705,-9 1-1424</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="326.98">0 295 3874,'0'0'3121,"101"-7"-2561,-55-6-560,6-2-80,4 1 48,1 2-784,-3 1-705,-9 1-1424</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="838.03">875 34 5539,'0'0'3468,"-2"18"-2913,-21 240 64,23-245-631,0-8 8,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,-1 0 0,0-1 0,-5 10 0,7-14 9,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-8-17 46,7 17-52,-3-11-19,0-1-1,1 0 1,0 0-1,1 0 1,0 0-1,1-1 0,0 1 1,1 0-1,1-1 1,0 1-1,5-19 1,-4 22-12,1 0 1,0 0 0,1 0-1,0 1 1,1-1 0,0 1 0,0 0-1,1 1 1,0-1 0,0 1 0,1 0-1,0 1 1,1-1 0,-1 1 0,10-6-1,-8 7 6,0 0 0,0 1 0,1 0 0,0 1 0,-1 0 0,1 0 0,1 1 0,-1 0 0,0 1 0,1 0 0,16-1 0,-26 4 14,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 2 0,-8 24 60,-24 14 44,24-31-56,0 1-1,1 0 1,0 0 0,0 1-1,-5 11 1,12-20-32,0 1 0,0-1-1,0 0 1,0 0 0,1 1-1,-1-1 1,1 0 0,0 1-1,-1-1 1,1 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,0 1-1,1-1 1,-1 0 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0-1,1-1 1,4 4 0,116 70-183,-122-74 169,1-1 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 1,0-1-1,-1 1 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1 0 0,0 0 1,1 0-1,-1-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 1-1,0 0 25,0 0-1,0 0 1,0 0 0,0-1-1,-1 1 1,1 0 0,0-1-1,-1 1 1,0-1 0,1 1 0,-1-1-1,-3 2 1,-7 4 203,-1 0 1,-27 10-1,37-16-202,-30 12-153,0-1 0,-1-2-1,0-1 1,-1-1 0,-60 4-1,101-15-5248</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5553.96">1206 187 1889,'0'0'4362,"0"-1"-3958,-1 0 1,0 0-1,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 0,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1-3 1,11-1-427,-1 1 1,1 0-1,-1 1 1,1-1-1,0 2 1,1 0-1,-1 0 1,0 0-1,1 1 1,-1 1-1,0 0 1,14 2-1,-2-2-219,-22 0 222,1 1 0,0-1 0,-1 1-1,1 0 1,0-1 0,-1 1-1,1 0 1,-1-1 0,1 1 0,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,-1 30 27,0-31-7,0 6 17,0 0 1,-1 0 0,0-1-1,0 1 1,0 0-1,-1-1 1,0 0 0,-1 0-1,1 0 1,-1 0-1,-9 10 1,-5 4-3,-36 30 0,33-32-109,21-17 30,27-1-1655,-26 0 1719,16-1-13,0 2 1,0 0 0,0 0-1,30 8 1,-43-8 11,-1 0 0,1 0 1,-1 1-1,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,-1 1 0,1-1 0,-1 1 0,0 6 0,0-7 28,-1 1 0,0 0 0,-1-1 0,1 0 0,0 1 1,-1-1-1,0 0 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-4 2 0,-13 6 223,0 0 0,-28 7 0,28-10-244,1-1 0,-1 0 1,0-2-1,0 0 0,-1-1 1,1-1-1,-21-1 0,41-1-89,-1 1 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 0-260,0-11-2875</inkml:trace>
 </inkml:ink>
@@ -7906,7 +7991,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">4124 9 2353,'0'0'5371,"-12"-8"-5588,9 17 646,0 1 0,0 0 0,1 1 0,1-1 0,-1 0 0,2 1 0,-1-1 0,1 1 0,3 17 0,-2 32 1076,-20 81-1295,10-96-171,3 2 1,-1 47-1,51-92 316,-18-2-351,0-2 1,0 0-1,-1-1 1,32-9-1,-50 11-48,0-1 0,0 0 1,0-1-1,-1 0 0,1 0 0,0 0 0,-1-1 0,0 1 0,0-2 1,0 1-1,-1-1 0,1 1 0,-1-2 0,0 1 0,0 0 0,-1-1 0,0 0 1,0 0-1,0-1 0,3-6 0,-5 1 53,0 1 0,0-1-1,-1 0 1,0 1 0,-1-1 0,-1 0 0,0 1 0,0-1-1,-1 1 1,-1-1 0,0 1 0,-9-22 0,7 157 225,-15 57 323,9-98-34,-1 89 1,10-162-175,2-10-417,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-3-7-3809</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2341.26">186 181 2305,'0'0'2321,"0"-5"-2110,0 2-313,1 2 162,-1-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-3 0 0,-4 0-29,0 0-1,0 0 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,1 1 1,-1-1-1,-7 5 1,12-6-23,0 1 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,1 1 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,1 0 0,0 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,1 0 0,0 4-1,0-6-11,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,1 0 0,43 14-7,-35-11-14,46 9-56,-45-12 61,0 1-1,0 1 1,0 0 0,-1 1-1,1 0 1,-1 0 0,0 1-1,18 11 1,-28-14 21,0-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,-1 0-1,1-1 1,0 1-1,-1-1 1,1 1 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,1-1 1,-1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,-1 0 1,1 1 0,0-1-1,-3 2 1,-5 5 59,0-1 0,-1 0 0,0 0 0,-15 8 0,9-6-33,1 0 1,-1-1-1,-1-1 0,0-1 1,0 0-1,0-1 1,-1-1-1,-22 2 1,39-6-65,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-2-1,3-27-2262,5-4-439</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2341.25">186 181 2305,'0'0'2321,"0"-5"-2110,0 2-313,1 2 162,-1-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-3 0 0,-4 0-29,0 0-1,0 0 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,1 1 1,-1-1-1,-7 5 1,12-6-23,0 1 1,0 0 0,0 0-1,0 0 1,0 1 0,0-1-1,1 1 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,1 0 0,0 1-1,0-1 1,0 1 0,1-1-1,-1 1 1,1 0 0,0 4-1,0-6-11,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,1 0 0,43 14-7,-35-11-14,46 9-56,-45-12 61,0 1-1,0 1 1,0 0 0,-1 1-1,1 0 1,-1 0 0,0 1-1,18 11 1,-28-14 21,0-1-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,-1 0-1,1-1 1,0 1-1,-1-1 1,1 1 0,-1 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1-1-1,0 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,1-1 1,-1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0-1,-1 0 1,1 1 0,0-1-1,-3 2 1,-5 5 59,0-1 0,-1 0 0,0 0 0,-15 8 0,9-6-33,1 0 1,-1-1-1,-1-1 0,0-1 1,0 0-1,0-1 1,-1-1-1,-22 2 1,39-6-65,1 0 1,-1 0-1,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-2-1,3-27-2262,5-4-439</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2727.31">137 138 3554,'0'0'2513,"-31"94"-1825,23-67-240,1-2-352,3 0 176,2 1-272,2 0 0,0-2-48,2-1-512,12-5-880,-1-8-689</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3176.26">286 246 3762,'0'0'3735,"1"10"-3460,4 52-99,3 32 200,-5-66-154,-2-25-109,-1-8-3,0-10-123,0-1 0,0 1-1,2 0 1,0 0 0,1 0-1,5-18 1,-6 29 3,0-1 0,0 1 1,0 0-1,0 1 0,1-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0 0 1,1 0-1,-1 0 0,1 0 0,0 1 1,0-1-1,0 1 0,0 0 1,0 1-1,1-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 1 0,8-1 1,-11 1 5,-1-1 0,1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 1,-1 1-1,1 0 0,-1-1 0,1 1 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0-1 0,1 1 0,-1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 0,-1-1 0,1 1 1,0 0-1,-1 0 0,0 0 0,-2 6 28,-1 0-1,1 0 1,-1-1 0,-1 1-1,-7 8 1,5-7-30,0-1 19,1 0 0,0 0-1,0 0 1,-5 11 0,10-17-18,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 1,0 1-1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 1,0 0-1,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 1,3 1-1,50 24-87,-47-24 74,1 0 1,-2 1 0,1 0 0,0 1 0,0-1-1,-1 1 1,0 0 0,0 1 0,10 9 0,-15-13 27,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 1 0,-43 18 519,43-18-514,-14 5 1,6-3-54,0 1 0,0-1 1,0-1-1,0 0 0,-18 2 0,27-7-2299,1-8-269</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3656.25">787 203 576,'0'0'5296,"-8"-1"-4802,0-1-303,0 1 0,0 0 0,0 0 1,0 1-1,0 0 0,-14 2 1,19-1-146,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 1-1,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 1,0-1-1,1 1 0,-1 0 0,-1 5 0,2-5-42,0 1 1,-1 0-1,1 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,1 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,6 4 1,5 4-7,1-1 1,0-1-1,32 14 1,14 10 18,-58-32-20,0 1 1,0 0 0,-1 0 0,1 0-1,0 1 1,-1-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,1 6 0,-3-7 13,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,0-1 0,1 1 0,-1 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 0 0,0 0 1,0 0-1,-3 0 0,-4 4-14,0 0 0,0-1 0,0-1 0,-1 1 0,1-1 0,-1-1 0,0 0 0,0-1 1,-10 1-1,19-2-93,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 1,0-1-1,0-27-1771,1 21 1027,-1-29-1921</inkml:trace>
@@ -8583,62 +8668,62 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9270,26 +9355,26 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="38" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="24" t="s">
+      <c r="C38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="25" t="s">
+    <row r="41" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9308,7 +9393,7 @@
       <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="23">
         <v>123.5456131</v>
       </c>
       <c r="E44" t="s">
@@ -9322,12 +9407,12 @@
       <c r="C45">
         <v>1234.4559999999999</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="24">
         <v>1234.4559999999999</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="27">
+      <c r="D46" s="24">
         <v>12345646987813.1</v>
       </c>
     </row>
@@ -9335,12 +9420,12 @@
       <c r="B47" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="25">
         <v>456456</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="29">
+      <c r="D48" s="26">
         <v>14564689</v>
       </c>
     </row>
@@ -9356,7 +9441,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="30">
+      <c r="D50" s="27">
         <v>45515</v>
       </c>
       <c r="E50" t="s">
@@ -9367,7 +9452,7 @@
       <c r="B51" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="28">
         <v>45515</v>
       </c>
       <c r="E51" t="s">
@@ -9391,10 +9476,10 @@
       <c r="B54" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54">
         <v>45515.5</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="29">
         <v>45515.125</v>
       </c>
     </row>
@@ -9402,53 +9487,53 @@
       <c r="B78" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="34">
+      <c r="C78" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="34">
+      <c r="C79" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="34">
+      <c r="C80" s="30">
         <v>0.1</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="35"/>
-      <c r="C81" s="34">
+      <c r="B81" s="31"/>
+      <c r="C81" s="30">
         <v>3.7938270597975277E-2</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="34">
+      <c r="C82" s="30">
         <v>9.0527253377865602E-2</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="34">
+      <c r="C83" s="30">
         <v>9.4207796568448021E-2</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="34">
+      <c r="C84" s="30">
         <v>0.57029248547849709</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="34">
+      <c r="C85" s="30">
         <v>3.639850757840446E-2</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="34">
+      <c r="C86" s="30">
         <v>0.14420719812283722</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="34">
+      <c r="C87" s="30">
         <v>9.816913673881611E-2</v>
       </c>
     </row>
@@ -9456,35 +9541,23 @@
       <c r="B89" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="35">
+      <c r="C89" s="31">
         <v>5.5</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="35">
+      <c r="C90" s="31">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="32"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="32"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="32"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="32"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="32">
+      <c r="C95">
         <v>123456.45646</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D95" s="32">
         <v>123456.45646</v>
       </c>
     </row>
@@ -9492,7 +9565,7 @@
       <c r="B102" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="C102" s="33" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9534,27 +9607,27 @@
       <c r="B2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="42"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="38">
+      <c r="B4" s="34">
         <v>56</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="44"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -9599,8 +9672,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+    <row r="20" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9898,7 +9971,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>146</v>
       </c>
       <c r="E3">
@@ -9907,7 +9980,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>147</v>
       </c>
       <c r="E4">
@@ -9916,7 +9989,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>148</v>
       </c>
       <c r="E5">
@@ -9925,7 +9998,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>149</v>
       </c>
       <c r="E6">
@@ -9934,7 +10007,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="33" t="s">
         <v>150</v>
       </c>
       <c r="E7">
@@ -9943,13 +10016,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="37"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="33"/>
       <c r="E9" cm="1" vm="1">
         <f t="array" ref="E9">_xlfn._xlws.PY(0,1)</f>
         <v>0</v>
@@ -10023,7 +10096,7 @@
   <dimension ref="B2:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10077,15 +10150,15 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8">
         <f>$F$7*B8</f>
         <v>5</v>
       </c>
       <c r="G8">
-        <f>G7*B8</f>
+        <f t="shared" ref="G8:G17" si="0">G7*B8</f>
         <v>5</v>
       </c>
     </row>
@@ -10093,15 +10166,15 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="32">
-        <f t="shared" ref="F9:F17" si="0">$F$7*B9</f>
+      <c r="F9">
+        <f t="shared" ref="F9:F17" si="1">$F$7*B9</f>
         <v>10</v>
       </c>
       <c r="G9">
-        <f>G8*B9</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -10109,15 +10182,15 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <f>G9*B10</f>
         <v>30</v>
       </c>
     </row>
@@ -10125,15 +10198,15 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <f>G10*B11</f>
         <v>120</v>
       </c>
     </row>
@@ -10141,15 +10214,15 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <f>G11*B12</f>
         <v>600</v>
       </c>
     </row>
@@ -10157,15 +10230,15 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G13">
-        <f>G12*B13</f>
         <v>3600</v>
       </c>
     </row>
@@ -10173,15 +10246,15 @@
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G14">
-        <f>G13*B14</f>
         <v>25200</v>
       </c>
     </row>
@@ -10189,15 +10262,15 @@
       <c r="B15">
         <v>8</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G15">
-        <f>G14*B15</f>
         <v>201600</v>
       </c>
     </row>
@@ -10205,15 +10278,15 @@
       <c r="B16">
         <v>9</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G16">
-        <f>G15*B16</f>
         <v>1814400</v>
       </c>
     </row>
@@ -10221,20 +10294,20 @@
       <c r="B17">
         <v>10</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <f>G16*B17</f>
         <v>18144000</v>
       </c>
     </row>
-    <row r="31" spans="2:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+    <row r="31" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10257,490 +10330,197 @@
         <v>182</v>
       </c>
     </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="43">
         <v>1</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="43">
         <v>2</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="43">
         <v>3</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="43">
         <v>4</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="43">
         <v>5</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="43">
         <v>6</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="43">
         <v>7</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="43">
         <v>8</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="43">
         <v>9</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="44">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="25">
+      <c r="C37" s="45">
         <v>1</v>
       </c>
-      <c r="D37">
-        <f>D36*C37</f>
+      <c r="D37" s="46">
         <v>1</v>
       </c>
-      <c r="E37">
-        <f t="shared" ref="E37:M46" si="1">E36*D37</f>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="45">
         <v>2</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46">
+        <v>4</v>
+      </c>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="45">
+        <v>3</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="45">
+        <v>4</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46">
+        <v>8</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="45">
+        <v>5</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="47"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="45">
         <v>6</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>5040</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
-        <v>40320</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="1"/>
-        <v>362880</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="1"/>
-        <v>3628800</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="25">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ref="D38:D46" si="2">D37*C38</f>
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>576</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
-        <v>69120</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>49766400</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="1"/>
-        <v>250822656000</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>1.011316948992E+16</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="1"/>
-        <v>3.6698669445021696E+21</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="1"/>
-        <v>1.3317213168209474E+28</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="25">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>576</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>331776</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>22932357120</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>1.141260857376768E+18</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
-        <v>2.8625407943607814E+29</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="1"/>
-        <v>2.8949360225180813E+45</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="1"/>
-        <v>1.0624030015487694E+67</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="1"/>
-        <v>1.4148247242170543E+95</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="25">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>576</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>331776</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>110075314176</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>2.5242864147802305E+21</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>2.8808692779966137E+39</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>8.2466058314859978E+68</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
-        <v>2.3873396285076489E+114</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="1"/>
-        <v>2.5363167870428504E+181</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="1"/>
-        <v>3.5884436987549862E+276</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="25">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>69120</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>22932357120</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>2.5242864147802305E+21</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>6.3720219038440301E+42</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>1.8356962141505759E+82</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
-        <v>1.5138263104450908E+151</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>3.6140175416030876E+265</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M41" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="25">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>49766400</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>1.141260857376768E+18</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>2.8808692779966137E+39</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>1.8356962141505759E+82</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>3.3697805906467568E+164</v>
-      </c>
-      <c r="J42" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K42" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L42" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M42" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="25">
+      <c r="C43" s="45">
         <v>7</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>5040</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>250822656000</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>2.8625407943607814E+29</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>8.2466058314859978E+68</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>1.5138263104450908E+151</v>
-      </c>
-      <c r="I43" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J43" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K43" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L43" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M43" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="25">
+      <c r="C44" s="45">
         <v>8</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>40320</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>1.011316948992E+16</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>2.8949360225180813E+45</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>2.3873396285076489E+114</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="1"/>
-        <v>3.6140175416030876E+265</v>
-      </c>
-      <c r="I44" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J44" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K44" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L44" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M44" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="25">
+      <c r="C45" s="45">
         <v>9</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>362880</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>3.6698669445021696E+21</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>1.0624030015487694E+67</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>2.5363167870428504E+181</v>
-      </c>
-      <c r="H45" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I45" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J45" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K45" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L45" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M45" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="25">
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
+    </row>
+    <row r="46" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="48">
         <v>10</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>3628800</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>1.3317213168209474E+28</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>1.4148247242170543E+95</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>3.5884436987549862E+276</v>
-      </c>
-      <c r="H46" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I46" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J46" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K46" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L46" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M46" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
